--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{19887AE3-4224-46CA-B803-065A9B15F089}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DCECB3DF-E148-400C-9C3E-F6A53FBDDA66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -3716,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:F406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11271,6 +11271,9 @@
         <f t="shared" ref="B362" si="184">B353+1</f>
         <v>43361</v>
       </c>
+      <c r="C362">
+        <v>459</v>
+      </c>
       <c r="D362">
         <v>1</v>
       </c>
@@ -11289,6 +11292,9 @@
         <f t="shared" ref="B363" si="185">B362</f>
         <v>43361</v>
       </c>
+      <c r="C363">
+        <v>438</v>
+      </c>
       <c r="D363">
         <v>1</v>
       </c>
@@ -11307,6 +11313,9 @@
         <f t="shared" ref="B364" si="186">B355+1</f>
         <v>43361</v>
       </c>
+      <c r="C364">
+        <v>449</v>
+      </c>
       <c r="D364">
         <v>1</v>
       </c>
@@ -11325,6 +11334,9 @@
         <f t="shared" ref="B365" si="187">B364</f>
         <v>43361</v>
       </c>
+      <c r="C365">
+        <v>499</v>
+      </c>
       <c r="D365">
         <v>2</v>
       </c>
@@ -11343,6 +11355,9 @@
         <f t="shared" ref="B366:B367" si="188">B357+1</f>
         <v>43361</v>
       </c>
+      <c r="C366">
+        <v>477</v>
+      </c>
       <c r="D366">
         <v>2</v>
       </c>
@@ -11361,6 +11376,9 @@
         <f t="shared" si="188"/>
         <v>43361</v>
       </c>
+      <c r="C367">
+        <v>542</v>
+      </c>
       <c r="D367">
         <v>2</v>
       </c>
@@ -11379,6 +11397,9 @@
         <f t="shared" ref="B368" si="189">B367</f>
         <v>43361</v>
       </c>
+      <c r="C368">
+        <v>458</v>
+      </c>
       <c r="D368">
         <v>3</v>
       </c>
@@ -11397,6 +11418,9 @@
         <f t="shared" ref="B369" si="190">B360+1</f>
         <v>43361</v>
       </c>
+      <c r="C369">
+        <v>509</v>
+      </c>
       <c r="D369">
         <v>3</v>
       </c>
@@ -11415,6 +11439,9 @@
         <f t="shared" ref="B370" si="191">B369</f>
         <v>43361</v>
       </c>
+      <c r="C370">
+        <v>507</v>
+      </c>
       <c r="D370">
         <v>3</v>
       </c>
@@ -11422,6 +11449,735 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>1</v>
+      </c>
+      <c r="B371" s="1">
+        <f t="shared" ref="B371" si="192">B362+1</f>
+        <v>43362</v>
+      </c>
+      <c r="C371">
+        <v>467</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371" t="s">
+        <v>2</v>
+      </c>
+      <c r="F371" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2</v>
+      </c>
+      <c r="B372" s="1">
+        <f t="shared" ref="B372" si="193">B371</f>
+        <v>43362</v>
+      </c>
+      <c r="C372">
+        <v>440</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372" t="s">
+        <v>3</v>
+      </c>
+      <c r="F372" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>3</v>
+      </c>
+      <c r="B373" s="1">
+        <f t="shared" ref="B373" si="194">B364+1</f>
+        <v>43362</v>
+      </c>
+      <c r="C373">
+        <v>449</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373" t="s">
+        <v>4</v>
+      </c>
+      <c r="F373" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>4</v>
+      </c>
+      <c r="B374" s="1">
+        <f t="shared" ref="B374" si="195">B373</f>
+        <v>43362</v>
+      </c>
+      <c r="C374">
+        <v>499</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+      <c r="E374" t="s">
+        <v>6</v>
+      </c>
+      <c r="F374" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>5</v>
+      </c>
+      <c r="B375" s="1">
+        <f t="shared" ref="B375:B376" si="196">B366+1</f>
+        <v>43362</v>
+      </c>
+      <c r="C375">
+        <v>475</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+      <c r="E375" t="s">
+        <v>5</v>
+      </c>
+      <c r="F375" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>6</v>
+      </c>
+      <c r="B376" s="1">
+        <f t="shared" si="196"/>
+        <v>43362</v>
+      </c>
+      <c r="C376">
+        <v>548</v>
+      </c>
+      <c r="D376">
+        <v>2</v>
+      </c>
+      <c r="E376" t="s">
+        <v>7</v>
+      </c>
+      <c r="F376" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>7</v>
+      </c>
+      <c r="B377" s="1">
+        <f t="shared" ref="B377" si="197">B376</f>
+        <v>43362</v>
+      </c>
+      <c r="C377">
+        <v>463</v>
+      </c>
+      <c r="D377">
+        <v>3</v>
+      </c>
+      <c r="E377" t="s">
+        <v>8</v>
+      </c>
+      <c r="F377" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>8</v>
+      </c>
+      <c r="B378" s="1">
+        <f t="shared" ref="B378" si="198">B369+1</f>
+        <v>43362</v>
+      </c>
+      <c r="C378">
+        <v>515</v>
+      </c>
+      <c r="D378">
+        <v>3</v>
+      </c>
+      <c r="E378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F378" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>9</v>
+      </c>
+      <c r="B379" s="1">
+        <f t="shared" ref="B379" si="199">B378</f>
+        <v>43362</v>
+      </c>
+      <c r="C379">
+        <v>513</v>
+      </c>
+      <c r="D379">
+        <v>3</v>
+      </c>
+      <c r="E379" t="s">
+        <v>10</v>
+      </c>
+      <c r="F379" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>1</v>
+      </c>
+      <c r="B380" s="1">
+        <f t="shared" ref="B380" si="200">B371+1</f>
+        <v>43363</v>
+      </c>
+      <c r="C380">
+        <v>468</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380" t="s">
+        <v>2</v>
+      </c>
+      <c r="F380" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2</v>
+      </c>
+      <c r="B381" s="1">
+        <f t="shared" ref="B381" si="201">B380</f>
+        <v>43363</v>
+      </c>
+      <c r="C381">
+        <v>442</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381" t="s">
+        <v>3</v>
+      </c>
+      <c r="F381" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>3</v>
+      </c>
+      <c r="B382" s="1">
+        <f t="shared" ref="B382" si="202">B373+1</f>
+        <v>43363</v>
+      </c>
+      <c r="C382">
+        <v>452</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382" t="s">
+        <v>4</v>
+      </c>
+      <c r="F382" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>4</v>
+      </c>
+      <c r="B383" s="1">
+        <f t="shared" ref="B383" si="203">B382</f>
+        <v>43363</v>
+      </c>
+      <c r="C383">
+        <v>501</v>
+      </c>
+      <c r="D383">
+        <v>2</v>
+      </c>
+      <c r="E383" t="s">
+        <v>6</v>
+      </c>
+      <c r="F383" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>5</v>
+      </c>
+      <c r="B384" s="1">
+        <f t="shared" ref="B384:B385" si="204">B375+1</f>
+        <v>43363</v>
+      </c>
+      <c r="C384">
+        <v>481</v>
+      </c>
+      <c r="D384">
+        <v>2</v>
+      </c>
+      <c r="E384" t="s">
+        <v>5</v>
+      </c>
+      <c r="F384" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>6</v>
+      </c>
+      <c r="B385" s="1">
+        <f t="shared" si="204"/>
+        <v>43363</v>
+      </c>
+      <c r="C385">
+        <v>549</v>
+      </c>
+      <c r="D385">
+        <v>2</v>
+      </c>
+      <c r="E385" t="s">
+        <v>7</v>
+      </c>
+      <c r="F385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>7</v>
+      </c>
+      <c r="B386" s="1">
+        <f t="shared" ref="B386" si="205">B385</f>
+        <v>43363</v>
+      </c>
+      <c r="C386">
+        <v>470</v>
+      </c>
+      <c r="D386">
+        <v>3</v>
+      </c>
+      <c r="E386" t="s">
+        <v>8</v>
+      </c>
+      <c r="F386" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>8</v>
+      </c>
+      <c r="B387" s="1">
+        <f t="shared" ref="B387" si="206">B378+1</f>
+        <v>43363</v>
+      </c>
+      <c r="C387">
+        <v>522</v>
+      </c>
+      <c r="D387">
+        <v>3</v>
+      </c>
+      <c r="E387" t="s">
+        <v>9</v>
+      </c>
+      <c r="F387" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>9</v>
+      </c>
+      <c r="B388" s="1">
+        <f t="shared" ref="B388" si="207">B387</f>
+        <v>43363</v>
+      </c>
+      <c r="C388">
+        <v>510</v>
+      </c>
+      <c r="D388">
+        <v>3</v>
+      </c>
+      <c r="E388" t="s">
+        <v>10</v>
+      </c>
+      <c r="F388" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>1</v>
+      </c>
+      <c r="B389" s="1">
+        <f t="shared" ref="B389" si="208">B380+1</f>
+        <v>43364</v>
+      </c>
+      <c r="C389">
+        <v>470</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389" t="s">
+        <v>2</v>
+      </c>
+      <c r="F389" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2</v>
+      </c>
+      <c r="B390" s="1">
+        <f t="shared" ref="B390" si="209">B389</f>
+        <v>43364</v>
+      </c>
+      <c r="C390">
+        <v>444</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390" t="s">
+        <v>3</v>
+      </c>
+      <c r="F390" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>3</v>
+      </c>
+      <c r="B391" s="1">
+        <f t="shared" ref="B391" si="210">B382+1</f>
+        <v>43364</v>
+      </c>
+      <c r="C391">
+        <v>454</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391" t="s">
+        <v>4</v>
+      </c>
+      <c r="F391" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>4</v>
+      </c>
+      <c r="B392" s="1">
+        <f t="shared" ref="B392" si="211">B391</f>
+        <v>43364</v>
+      </c>
+      <c r="C392">
+        <v>500</v>
+      </c>
+      <c r="D392">
+        <v>2</v>
+      </c>
+      <c r="E392" t="s">
+        <v>6</v>
+      </c>
+      <c r="F392" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>5</v>
+      </c>
+      <c r="B393" s="1">
+        <f t="shared" ref="B393:B394" si="212">B384+1</f>
+        <v>43364</v>
+      </c>
+      <c r="C393">
+        <v>481</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+      <c r="E393" t="s">
+        <v>5</v>
+      </c>
+      <c r="F393" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>6</v>
+      </c>
+      <c r="B394" s="1">
+        <f t="shared" si="212"/>
+        <v>43364</v>
+      </c>
+      <c r="C394">
+        <v>553</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+      <c r="E394" t="s">
+        <v>7</v>
+      </c>
+      <c r="F394" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>7</v>
+      </c>
+      <c r="B395" s="1">
+        <f t="shared" ref="B395" si="213">B394</f>
+        <v>43364</v>
+      </c>
+      <c r="C395">
+        <v>462</v>
+      </c>
+      <c r="D395">
+        <v>3</v>
+      </c>
+      <c r="E395" t="s">
+        <v>8</v>
+      </c>
+      <c r="F395" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>8</v>
+      </c>
+      <c r="B396" s="1">
+        <f t="shared" ref="B396" si="214">B387+1</f>
+        <v>43364</v>
+      </c>
+      <c r="C396">
+        <v>518</v>
+      </c>
+      <c r="D396">
+        <v>3</v>
+      </c>
+      <c r="E396" t="s">
+        <v>9</v>
+      </c>
+      <c r="F396" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>9</v>
+      </c>
+      <c r="B397" s="1">
+        <f t="shared" ref="B397" si="215">B396</f>
+        <v>43364</v>
+      </c>
+      <c r="C397">
+        <v>513</v>
+      </c>
+      <c r="D397">
+        <v>3</v>
+      </c>
+      <c r="E397" t="s">
+        <v>10</v>
+      </c>
+      <c r="F397" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>1</v>
+      </c>
+      <c r="B398" s="1">
+        <f t="shared" ref="B398" si="216">B389+1</f>
+        <v>43365</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398" t="s">
+        <v>2</v>
+      </c>
+      <c r="F398" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>2</v>
+      </c>
+      <c r="B399" s="1">
+        <f t="shared" ref="B399" si="217">B398</f>
+        <v>43365</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399" t="s">
+        <v>3</v>
+      </c>
+      <c r="F399" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>3</v>
+      </c>
+      <c r="B400" s="1">
+        <f t="shared" ref="B400" si="218">B391+1</f>
+        <v>43365</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400" t="s">
+        <v>4</v>
+      </c>
+      <c r="F400" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>4</v>
+      </c>
+      <c r="B401" s="1">
+        <f t="shared" ref="B401" si="219">B400</f>
+        <v>43365</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+      <c r="E401" t="s">
+        <v>6</v>
+      </c>
+      <c r="F401" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>5</v>
+      </c>
+      <c r="B402" s="1">
+        <f t="shared" ref="B402:B403" si="220">B393+1</f>
+        <v>43365</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
+      </c>
+      <c r="E402" t="s">
+        <v>5</v>
+      </c>
+      <c r="F402" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>6</v>
+      </c>
+      <c r="B403" s="1">
+        <f t="shared" si="220"/>
+        <v>43365</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403" t="s">
+        <v>7</v>
+      </c>
+      <c r="F403" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>7</v>
+      </c>
+      <c r="B404" s="1">
+        <f t="shared" ref="B404" si="221">B403</f>
+        <v>43365</v>
+      </c>
+      <c r="D404">
+        <v>3</v>
+      </c>
+      <c r="E404" t="s">
+        <v>8</v>
+      </c>
+      <c r="F404" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>8</v>
+      </c>
+      <c r="B405" s="1">
+        <f t="shared" ref="B405" si="222">B396+1</f>
+        <v>43365</v>
+      </c>
+      <c r="D405">
+        <v>3</v>
+      </c>
+      <c r="E405" t="s">
+        <v>9</v>
+      </c>
+      <c r="F405" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>9</v>
+      </c>
+      <c r="B406" s="1">
+        <f t="shared" ref="B406" si="223">B405</f>
+        <v>43365</v>
+      </c>
+      <c r="D406">
+        <v>3</v>
+      </c>
+      <c r="E406" t="s">
+        <v>10</v>
+      </c>
+      <c r="F406" t="s">
         <v>20</v>
       </c>
     </row>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DCECB3DF-E148-400C-9C3E-F6A53FBDDA66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C8028F6-B85C-4979-A25C-07AE7C7B4059}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,9 @@
   <si>
     <t>Weight_g</t>
   </si>
+  <si>
+    <t>Deprivation Started</t>
+  </si>
 </sst>
 </file>
 
@@ -123,12 +126,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,12 +152,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3716,10 +3727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:F406"/>
+  <dimension ref="A1:H487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C398" sqref="C398"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11746,7 +11757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6</v>
       </c>
@@ -11767,7 +11778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7</v>
       </c>
@@ -11788,7 +11799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>8</v>
       </c>
@@ -11809,7 +11820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>9</v>
       </c>
@@ -11830,7 +11841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -11851,7 +11862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -11872,7 +11883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>3</v>
       </c>
@@ -11893,7 +11904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>4</v>
       </c>
@@ -11914,7 +11925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>5</v>
       </c>
@@ -11935,7 +11946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>6</v>
       </c>
@@ -11956,7 +11967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>7</v>
       </c>
@@ -11977,7 +11988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>8</v>
       </c>
@@ -11998,7 +12009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>9</v>
       </c>
@@ -12019,7 +12030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1</v>
       </c>
@@ -12027,6 +12038,9 @@
         <f t="shared" ref="B398" si="216">B389+1</f>
         <v>43365</v>
       </c>
+      <c r="C398">
+        <v>447</v>
+      </c>
       <c r="D398">
         <v>1</v>
       </c>
@@ -12036,8 +12050,12 @@
       <c r="F398" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G398" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H398" s="4"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -12045,6 +12063,9 @@
         <f t="shared" ref="B399" si="217">B398</f>
         <v>43365</v>
       </c>
+      <c r="C399">
+        <v>420</v>
+      </c>
       <c r="D399">
         <v>1</v>
       </c>
@@ -12055,7 +12076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>3</v>
       </c>
@@ -12063,6 +12084,9 @@
         <f t="shared" ref="B400" si="218">B391+1</f>
         <v>43365</v>
       </c>
+      <c r="C400">
+        <v>430</v>
+      </c>
       <c r="D400">
         <v>1</v>
       </c>
@@ -12081,6 +12105,9 @@
         <f t="shared" ref="B401" si="219">B400</f>
         <v>43365</v>
       </c>
+      <c r="C401">
+        <v>482</v>
+      </c>
       <c r="D401">
         <v>2</v>
       </c>
@@ -12099,6 +12126,9 @@
         <f t="shared" ref="B402:B403" si="220">B393+1</f>
         <v>43365</v>
       </c>
+      <c r="C402">
+        <v>463</v>
+      </c>
       <c r="D402">
         <v>2</v>
       </c>
@@ -12117,6 +12147,9 @@
         <f t="shared" si="220"/>
         <v>43365</v>
       </c>
+      <c r="C403">
+        <v>523</v>
+      </c>
       <c r="D403">
         <v>2</v>
       </c>
@@ -12135,6 +12168,9 @@
         <f t="shared" ref="B404" si="221">B403</f>
         <v>43365</v>
       </c>
+      <c r="C404">
+        <v>444</v>
+      </c>
       <c r="D404">
         <v>3</v>
       </c>
@@ -12153,6 +12189,9 @@
         <f t="shared" ref="B405" si="222">B396+1</f>
         <v>43365</v>
       </c>
+      <c r="C405">
+        <v>492</v>
+      </c>
       <c r="D405">
         <v>3</v>
       </c>
@@ -12171,6 +12210,9 @@
         <f t="shared" ref="B406" si="223">B405</f>
         <v>43365</v>
       </c>
+      <c r="C406">
+        <v>486</v>
+      </c>
       <c r="D406">
         <v>3</v>
       </c>
@@ -12178,6 +12220,1626 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1</v>
+      </c>
+      <c r="B407" s="1">
+        <f t="shared" ref="B407" si="224">B398+1</f>
+        <v>43366</v>
+      </c>
+      <c r="C407">
+        <v>442</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407" t="s">
+        <v>2</v>
+      </c>
+      <c r="F407" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2</v>
+      </c>
+      <c r="B408" s="1">
+        <f t="shared" ref="B408" si="225">B407</f>
+        <v>43366</v>
+      </c>
+      <c r="C408">
+        <v>413</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408" t="s">
+        <v>3</v>
+      </c>
+      <c r="F408" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>3</v>
+      </c>
+      <c r="B409" s="1">
+        <f t="shared" ref="B409" si="226">B400+1</f>
+        <v>43366</v>
+      </c>
+      <c r="C409">
+        <v>426</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409" t="s">
+        <v>4</v>
+      </c>
+      <c r="F409" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>4</v>
+      </c>
+      <c r="B410" s="1">
+        <f t="shared" ref="B410" si="227">B409</f>
+        <v>43366</v>
+      </c>
+      <c r="C410">
+        <v>474</v>
+      </c>
+      <c r="D410">
+        <v>2</v>
+      </c>
+      <c r="E410" t="s">
+        <v>6</v>
+      </c>
+      <c r="F410" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>5</v>
+      </c>
+      <c r="B411" s="1">
+        <f t="shared" ref="B411:B412" si="228">B402+1</f>
+        <v>43366</v>
+      </c>
+      <c r="C411">
+        <v>454</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
+      </c>
+      <c r="E411" t="s">
+        <v>5</v>
+      </c>
+      <c r="F411" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>6</v>
+      </c>
+      <c r="B412" s="1">
+        <f t="shared" si="228"/>
+        <v>43366</v>
+      </c>
+      <c r="C412">
+        <v>515</v>
+      </c>
+      <c r="D412">
+        <v>2</v>
+      </c>
+      <c r="E412" t="s">
+        <v>7</v>
+      </c>
+      <c r="F412" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>7</v>
+      </c>
+      <c r="B413" s="1">
+        <f t="shared" ref="B413" si="229">B412</f>
+        <v>43366</v>
+      </c>
+      <c r="C413">
+        <v>437</v>
+      </c>
+      <c r="D413">
+        <v>3</v>
+      </c>
+      <c r="E413" t="s">
+        <v>8</v>
+      </c>
+      <c r="F413" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>8</v>
+      </c>
+      <c r="B414" s="1">
+        <f t="shared" ref="B414" si="230">B405+1</f>
+        <v>43366</v>
+      </c>
+      <c r="C414">
+        <v>488</v>
+      </c>
+      <c r="D414">
+        <v>3</v>
+      </c>
+      <c r="E414" t="s">
+        <v>9</v>
+      </c>
+      <c r="F414" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>9</v>
+      </c>
+      <c r="B415" s="1">
+        <f t="shared" ref="B415" si="231">B414</f>
+        <v>43366</v>
+      </c>
+      <c r="C415">
+        <v>471</v>
+      </c>
+      <c r="D415">
+        <v>3</v>
+      </c>
+      <c r="E415" t="s">
+        <v>10</v>
+      </c>
+      <c r="F415" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1</v>
+      </c>
+      <c r="B416" s="1">
+        <f t="shared" ref="B416" si="232">B407+1</f>
+        <v>43367</v>
+      </c>
+      <c r="C416">
+        <v>442</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416" t="s">
+        <v>2</v>
+      </c>
+      <c r="F416" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2</v>
+      </c>
+      <c r="B417" s="1">
+        <f t="shared" ref="B417" si="233">B416</f>
+        <v>43367</v>
+      </c>
+      <c r="C417">
+        <v>405</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417" t="s">
+        <v>3</v>
+      </c>
+      <c r="F417" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>3</v>
+      </c>
+      <c r="B418" s="1">
+        <f t="shared" ref="B418" si="234">B409+1</f>
+        <v>43367</v>
+      </c>
+      <c r="C418">
+        <v>420</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418" t="s">
+        <v>4</v>
+      </c>
+      <c r="F418" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>4</v>
+      </c>
+      <c r="B419" s="1">
+        <f t="shared" ref="B419" si="235">B418</f>
+        <v>43367</v>
+      </c>
+      <c r="C419">
+        <v>469</v>
+      </c>
+      <c r="D419">
+        <v>2</v>
+      </c>
+      <c r="E419" t="s">
+        <v>6</v>
+      </c>
+      <c r="F419" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>5</v>
+      </c>
+      <c r="B420" s="1">
+        <f t="shared" ref="B420:B421" si="236">B411+1</f>
+        <v>43367</v>
+      </c>
+      <c r="C420">
+        <v>446</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
+      </c>
+      <c r="E420" t="s">
+        <v>5</v>
+      </c>
+      <c r="F420" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>6</v>
+      </c>
+      <c r="B421" s="1">
+        <f t="shared" si="236"/>
+        <v>43367</v>
+      </c>
+      <c r="C421">
+        <v>510</v>
+      </c>
+      <c r="D421">
+        <v>2</v>
+      </c>
+      <c r="E421" t="s">
+        <v>7</v>
+      </c>
+      <c r="F421" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>7</v>
+      </c>
+      <c r="B422" s="1">
+        <f t="shared" ref="B422" si="237">B421</f>
+        <v>43367</v>
+      </c>
+      <c r="C422">
+        <v>428</v>
+      </c>
+      <c r="D422">
+        <v>3</v>
+      </c>
+      <c r="E422" t="s">
+        <v>8</v>
+      </c>
+      <c r="F422" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>8</v>
+      </c>
+      <c r="B423" s="1">
+        <f t="shared" ref="B423" si="238">B414+1</f>
+        <v>43367</v>
+      </c>
+      <c r="C423">
+        <v>479</v>
+      </c>
+      <c r="D423">
+        <v>3</v>
+      </c>
+      <c r="E423" t="s">
+        <v>9</v>
+      </c>
+      <c r="F423" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>9</v>
+      </c>
+      <c r="B424" s="1">
+        <f t="shared" ref="B424" si="239">B423</f>
+        <v>43367</v>
+      </c>
+      <c r="C424">
+        <v>462</v>
+      </c>
+      <c r="D424">
+        <v>3</v>
+      </c>
+      <c r="E424" t="s">
+        <v>10</v>
+      </c>
+      <c r="F424" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>1</v>
+      </c>
+      <c r="B425" s="1">
+        <f t="shared" ref="B425" si="240">B416+1</f>
+        <v>43368</v>
+      </c>
+      <c r="C425">
+        <v>438</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425" t="s">
+        <v>2</v>
+      </c>
+      <c r="F425" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>2</v>
+      </c>
+      <c r="B426" s="1">
+        <f t="shared" ref="B426" si="241">B425</f>
+        <v>43368</v>
+      </c>
+      <c r="C426">
+        <v>398</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426" t="s">
+        <v>3</v>
+      </c>
+      <c r="F426" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>3</v>
+      </c>
+      <c r="B427" s="1">
+        <f t="shared" ref="B427" si="242">B418+1</f>
+        <v>43368</v>
+      </c>
+      <c r="C427">
+        <v>399</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427" t="s">
+        <v>4</v>
+      </c>
+      <c r="F427" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>4</v>
+      </c>
+      <c r="B428" s="1">
+        <f t="shared" ref="B428" si="243">B427</f>
+        <v>43368</v>
+      </c>
+      <c r="C428">
+        <v>460</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+      <c r="E428" t="s">
+        <v>6</v>
+      </c>
+      <c r="F428" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>5</v>
+      </c>
+      <c r="B429" s="1">
+        <f t="shared" ref="B429:B430" si="244">B420+1</f>
+        <v>43368</v>
+      </c>
+      <c r="C429">
+        <v>438</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+      <c r="E429" t="s">
+        <v>5</v>
+      </c>
+      <c r="F429" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>6</v>
+      </c>
+      <c r="B430" s="1">
+        <f t="shared" si="244"/>
+        <v>43368</v>
+      </c>
+      <c r="C430">
+        <v>498</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+      <c r="E430" t="s">
+        <v>7</v>
+      </c>
+      <c r="F430" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>7</v>
+      </c>
+      <c r="B431" s="1">
+        <f t="shared" ref="B431" si="245">B430</f>
+        <v>43368</v>
+      </c>
+      <c r="C431">
+        <v>424</v>
+      </c>
+      <c r="D431">
+        <v>3</v>
+      </c>
+      <c r="E431" t="s">
+        <v>8</v>
+      </c>
+      <c r="F431" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>8</v>
+      </c>
+      <c r="B432" s="1">
+        <f t="shared" ref="B432" si="246">B423+1</f>
+        <v>43368</v>
+      </c>
+      <c r="C432">
+        <v>474</v>
+      </c>
+      <c r="D432">
+        <v>3</v>
+      </c>
+      <c r="E432" t="s">
+        <v>9</v>
+      </c>
+      <c r="F432" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>9</v>
+      </c>
+      <c r="B433" s="1">
+        <f t="shared" ref="B433" si="247">B432</f>
+        <v>43368</v>
+      </c>
+      <c r="C433">
+        <v>456</v>
+      </c>
+      <c r="D433">
+        <v>3</v>
+      </c>
+      <c r="E433" t="s">
+        <v>10</v>
+      </c>
+      <c r="F433" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>1</v>
+      </c>
+      <c r="B434" s="1">
+        <f t="shared" ref="B434" si="248">B425+1</f>
+        <v>43369</v>
+      </c>
+      <c r="C434">
+        <v>432</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434" t="s">
+        <v>2</v>
+      </c>
+      <c r="F434" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2</v>
+      </c>
+      <c r="B435" s="1">
+        <f t="shared" ref="B435" si="249">B434</f>
+        <v>43369</v>
+      </c>
+      <c r="C435">
+        <v>395</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435" t="s">
+        <v>3</v>
+      </c>
+      <c r="F435" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>3</v>
+      </c>
+      <c r="B436" s="1">
+        <f t="shared" ref="B436" si="250">B427+1</f>
+        <v>43369</v>
+      </c>
+      <c r="C436">
+        <v>400</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436" t="s">
+        <v>4</v>
+      </c>
+      <c r="F436" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>4</v>
+      </c>
+      <c r="B437" s="1">
+        <f t="shared" ref="B437" si="251">B436</f>
+        <v>43369</v>
+      </c>
+      <c r="C437">
+        <v>459</v>
+      </c>
+      <c r="D437">
+        <v>2</v>
+      </c>
+      <c r="E437" t="s">
+        <v>6</v>
+      </c>
+      <c r="F437" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>5</v>
+      </c>
+      <c r="B438" s="1">
+        <f t="shared" ref="B438:B439" si="252">B429+1</f>
+        <v>43369</v>
+      </c>
+      <c r="C438">
+        <v>435</v>
+      </c>
+      <c r="D438">
+        <v>2</v>
+      </c>
+      <c r="E438" t="s">
+        <v>5</v>
+      </c>
+      <c r="F438" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>6</v>
+      </c>
+      <c r="B439" s="1">
+        <f t="shared" si="252"/>
+        <v>43369</v>
+      </c>
+      <c r="C439">
+        <v>492</v>
+      </c>
+      <c r="D439">
+        <v>2</v>
+      </c>
+      <c r="E439" t="s">
+        <v>7</v>
+      </c>
+      <c r="F439" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>7</v>
+      </c>
+      <c r="B440" s="1">
+        <f t="shared" ref="B440" si="253">B439</f>
+        <v>43369</v>
+      </c>
+      <c r="C440">
+        <v>415</v>
+      </c>
+      <c r="D440">
+        <v>3</v>
+      </c>
+      <c r="E440" t="s">
+        <v>8</v>
+      </c>
+      <c r="F440" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>8</v>
+      </c>
+      <c r="B441" s="1">
+        <f t="shared" ref="B441" si="254">B432+1</f>
+        <v>43369</v>
+      </c>
+      <c r="C441">
+        <v>466</v>
+      </c>
+      <c r="D441">
+        <v>3</v>
+      </c>
+      <c r="E441" t="s">
+        <v>9</v>
+      </c>
+      <c r="F441" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>9</v>
+      </c>
+      <c r="B442" s="1">
+        <f t="shared" ref="B442" si="255">B441</f>
+        <v>43369</v>
+      </c>
+      <c r="C442">
+        <v>454</v>
+      </c>
+      <c r="D442">
+        <v>3</v>
+      </c>
+      <c r="E442" t="s">
+        <v>10</v>
+      </c>
+      <c r="F442" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>1</v>
+      </c>
+      <c r="B443" s="1">
+        <f t="shared" ref="B443" si="256">B434+1</f>
+        <v>43370</v>
+      </c>
+      <c r="C443">
+        <v>425</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443" t="s">
+        <v>2</v>
+      </c>
+      <c r="F443" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>2</v>
+      </c>
+      <c r="B444" s="1">
+        <f t="shared" ref="B444" si="257">B443</f>
+        <v>43370</v>
+      </c>
+      <c r="C444">
+        <v>387</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444" t="s">
+        <v>3</v>
+      </c>
+      <c r="F444" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>3</v>
+      </c>
+      <c r="B445" s="1">
+        <f t="shared" ref="B445" si="258">B436+1</f>
+        <v>43370</v>
+      </c>
+      <c r="C445">
+        <v>400</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445" t="s">
+        <v>4</v>
+      </c>
+      <c r="F445" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>4</v>
+      </c>
+      <c r="B446" s="1">
+        <f t="shared" ref="B446" si="259">B445</f>
+        <v>43370</v>
+      </c>
+      <c r="C446">
+        <v>453</v>
+      </c>
+      <c r="D446">
+        <v>2</v>
+      </c>
+      <c r="E446" t="s">
+        <v>6</v>
+      </c>
+      <c r="F446" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>5</v>
+      </c>
+      <c r="B447" s="1">
+        <f t="shared" ref="B447:B448" si="260">B438+1</f>
+        <v>43370</v>
+      </c>
+      <c r="C447">
+        <v>428</v>
+      </c>
+      <c r="D447">
+        <v>2</v>
+      </c>
+      <c r="E447" t="s">
+        <v>5</v>
+      </c>
+      <c r="F447" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>6</v>
+      </c>
+      <c r="B448" s="1">
+        <f t="shared" si="260"/>
+        <v>43370</v>
+      </c>
+      <c r="C448">
+        <v>481</v>
+      </c>
+      <c r="D448">
+        <v>2</v>
+      </c>
+      <c r="E448" t="s">
+        <v>7</v>
+      </c>
+      <c r="F448" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>7</v>
+      </c>
+      <c r="B449" s="1">
+        <f t="shared" ref="B449" si="261">B448</f>
+        <v>43370</v>
+      </c>
+      <c r="C449">
+        <v>409</v>
+      </c>
+      <c r="D449">
+        <v>3</v>
+      </c>
+      <c r="E449" t="s">
+        <v>8</v>
+      </c>
+      <c r="F449" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>8</v>
+      </c>
+      <c r="B450" s="1">
+        <f t="shared" ref="B450" si="262">B441+1</f>
+        <v>43370</v>
+      </c>
+      <c r="C450">
+        <v>459</v>
+      </c>
+      <c r="D450">
+        <v>3</v>
+      </c>
+      <c r="E450" t="s">
+        <v>9</v>
+      </c>
+      <c r="F450" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>9</v>
+      </c>
+      <c r="B451" s="1">
+        <f t="shared" ref="B451" si="263">B450</f>
+        <v>43370</v>
+      </c>
+      <c r="C451">
+        <v>444</v>
+      </c>
+      <c r="D451">
+        <v>3</v>
+      </c>
+      <c r="E451" t="s">
+        <v>10</v>
+      </c>
+      <c r="F451" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1</v>
+      </c>
+      <c r="B452" s="1">
+        <f t="shared" ref="B452" si="264">B443+1</f>
+        <v>43371</v>
+      </c>
+      <c r="C452">
+        <v>423</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452" t="s">
+        <v>2</v>
+      </c>
+      <c r="F452" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>2</v>
+      </c>
+      <c r="B453" s="1">
+        <f t="shared" ref="B453" si="265">B452</f>
+        <v>43371</v>
+      </c>
+      <c r="C453">
+        <v>390</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453" t="s">
+        <v>3</v>
+      </c>
+      <c r="F453" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>3</v>
+      </c>
+      <c r="B454" s="1">
+        <f t="shared" ref="B454" si="266">B445+1</f>
+        <v>43371</v>
+      </c>
+      <c r="C454">
+        <v>400</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454" t="s">
+        <v>4</v>
+      </c>
+      <c r="F454" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>4</v>
+      </c>
+      <c r="B455" s="1">
+        <f t="shared" ref="B455" si="267">B454</f>
+        <v>43371</v>
+      </c>
+      <c r="C455">
+        <v>448</v>
+      </c>
+      <c r="D455">
+        <v>2</v>
+      </c>
+      <c r="E455" t="s">
+        <v>6</v>
+      </c>
+      <c r="F455" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>5</v>
+      </c>
+      <c r="B456" s="1">
+        <f t="shared" ref="B456:B457" si="268">B447+1</f>
+        <v>43371</v>
+      </c>
+      <c r="C456">
+        <v>424</v>
+      </c>
+      <c r="D456">
+        <v>2</v>
+      </c>
+      <c r="E456" t="s">
+        <v>5</v>
+      </c>
+      <c r="F456" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>6</v>
+      </c>
+      <c r="B457" s="1">
+        <f t="shared" si="268"/>
+        <v>43371</v>
+      </c>
+      <c r="C457">
+        <v>475</v>
+      </c>
+      <c r="D457">
+        <v>2</v>
+      </c>
+      <c r="E457" t="s">
+        <v>7</v>
+      </c>
+      <c r="F457" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>7</v>
+      </c>
+      <c r="B458" s="1">
+        <f t="shared" ref="B458" si="269">B457</f>
+        <v>43371</v>
+      </c>
+      <c r="C458">
+        <v>405</v>
+      </c>
+      <c r="D458">
+        <v>3</v>
+      </c>
+      <c r="E458" t="s">
+        <v>8</v>
+      </c>
+      <c r="F458" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>8</v>
+      </c>
+      <c r="B459" s="1">
+        <f t="shared" ref="B459" si="270">B450+1</f>
+        <v>43371</v>
+      </c>
+      <c r="C459">
+        <v>455</v>
+      </c>
+      <c r="D459">
+        <v>3</v>
+      </c>
+      <c r="E459" t="s">
+        <v>9</v>
+      </c>
+      <c r="F459" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>9</v>
+      </c>
+      <c r="B460" s="1">
+        <f t="shared" ref="B460" si="271">B459</f>
+        <v>43371</v>
+      </c>
+      <c r="C460">
+        <v>438</v>
+      </c>
+      <c r="D460">
+        <v>3</v>
+      </c>
+      <c r="E460" t="s">
+        <v>10</v>
+      </c>
+      <c r="F460" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>1</v>
+      </c>
+      <c r="B461" s="1">
+        <f t="shared" ref="B461" si="272">B452+1</f>
+        <v>43372</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461" t="s">
+        <v>2</v>
+      </c>
+      <c r="F461" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2</v>
+      </c>
+      <c r="B462" s="1">
+        <f t="shared" ref="B462" si="273">B461</f>
+        <v>43372</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462" t="s">
+        <v>3</v>
+      </c>
+      <c r="F462" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>3</v>
+      </c>
+      <c r="B463" s="1">
+        <f t="shared" ref="B463" si="274">B454+1</f>
+        <v>43372</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463" t="s">
+        <v>4</v>
+      </c>
+      <c r="F463" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>4</v>
+      </c>
+      <c r="B464" s="1">
+        <f t="shared" ref="B464" si="275">B463</f>
+        <v>43372</v>
+      </c>
+      <c r="D464">
+        <v>2</v>
+      </c>
+      <c r="E464" t="s">
+        <v>6</v>
+      </c>
+      <c r="F464" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>5</v>
+      </c>
+      <c r="B465" s="1">
+        <f t="shared" ref="B465:B466" si="276">B456+1</f>
+        <v>43372</v>
+      </c>
+      <c r="D465">
+        <v>2</v>
+      </c>
+      <c r="E465" t="s">
+        <v>5</v>
+      </c>
+      <c r="F465" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>6</v>
+      </c>
+      <c r="B466" s="1">
+        <f t="shared" si="276"/>
+        <v>43372</v>
+      </c>
+      <c r="D466">
+        <v>2</v>
+      </c>
+      <c r="E466" t="s">
+        <v>7</v>
+      </c>
+      <c r="F466" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>7</v>
+      </c>
+      <c r="B467" s="1">
+        <f t="shared" ref="B467" si="277">B466</f>
+        <v>43372</v>
+      </c>
+      <c r="D467">
+        <v>3</v>
+      </c>
+      <c r="E467" t="s">
+        <v>8</v>
+      </c>
+      <c r="F467" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>8</v>
+      </c>
+      <c r="B468" s="1">
+        <f t="shared" ref="B468" si="278">B459+1</f>
+        <v>43372</v>
+      </c>
+      <c r="D468">
+        <v>3</v>
+      </c>
+      <c r="E468" t="s">
+        <v>9</v>
+      </c>
+      <c r="F468" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>9</v>
+      </c>
+      <c r="B469" s="1">
+        <f t="shared" ref="B469" si="279">B468</f>
+        <v>43372</v>
+      </c>
+      <c r="D469">
+        <v>3</v>
+      </c>
+      <c r="E469" t="s">
+        <v>10</v>
+      </c>
+      <c r="F469" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>1</v>
+      </c>
+      <c r="B470" s="1">
+        <f t="shared" ref="B470" si="280">B461+1</f>
+        <v>43373</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470" t="s">
+        <v>2</v>
+      </c>
+      <c r="F470" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>2</v>
+      </c>
+      <c r="B471" s="1">
+        <f t="shared" ref="B471" si="281">B470</f>
+        <v>43373</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471" t="s">
+        <v>3</v>
+      </c>
+      <c r="F471" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>3</v>
+      </c>
+      <c r="B472" s="1">
+        <f t="shared" ref="B472" si="282">B463+1</f>
+        <v>43373</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472" t="s">
+        <v>4</v>
+      </c>
+      <c r="F472" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>4</v>
+      </c>
+      <c r="B473" s="1">
+        <f t="shared" ref="B473" si="283">B472</f>
+        <v>43373</v>
+      </c>
+      <c r="D473">
+        <v>2</v>
+      </c>
+      <c r="E473" t="s">
+        <v>6</v>
+      </c>
+      <c r="F473" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>5</v>
+      </c>
+      <c r="B474" s="1">
+        <f t="shared" ref="B474:B475" si="284">B465+1</f>
+        <v>43373</v>
+      </c>
+      <c r="D474">
+        <v>2</v>
+      </c>
+      <c r="E474" t="s">
+        <v>5</v>
+      </c>
+      <c r="F474" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>6</v>
+      </c>
+      <c r="B475" s="1">
+        <f t="shared" si="284"/>
+        <v>43373</v>
+      </c>
+      <c r="D475">
+        <v>2</v>
+      </c>
+      <c r="E475" t="s">
+        <v>7</v>
+      </c>
+      <c r="F475" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>7</v>
+      </c>
+      <c r="B476" s="1">
+        <f t="shared" ref="B476" si="285">B475</f>
+        <v>43373</v>
+      </c>
+      <c r="D476">
+        <v>3</v>
+      </c>
+      <c r="E476" t="s">
+        <v>8</v>
+      </c>
+      <c r="F476" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>8</v>
+      </c>
+      <c r="B477" s="1">
+        <f t="shared" ref="B477" si="286">B468+1</f>
+        <v>43373</v>
+      </c>
+      <c r="D477">
+        <v>3</v>
+      </c>
+      <c r="E477" t="s">
+        <v>9</v>
+      </c>
+      <c r="F477" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>9</v>
+      </c>
+      <c r="B478" s="1">
+        <f t="shared" ref="B478" si="287">B477</f>
+        <v>43373</v>
+      </c>
+      <c r="D478">
+        <v>3</v>
+      </c>
+      <c r="E478" t="s">
+        <v>10</v>
+      </c>
+      <c r="F478" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>1</v>
+      </c>
+      <c r="B479" s="1">
+        <f t="shared" ref="B479" si="288">B470+1</f>
+        <v>43374</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479" t="s">
+        <v>2</v>
+      </c>
+      <c r="F479" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>2</v>
+      </c>
+      <c r="B480" s="1">
+        <f t="shared" ref="B480" si="289">B479</f>
+        <v>43374</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480" t="s">
+        <v>3</v>
+      </c>
+      <c r="F480" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>3</v>
+      </c>
+      <c r="B481" s="1">
+        <f t="shared" ref="B481" si="290">B472+1</f>
+        <v>43374</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481" t="s">
+        <v>4</v>
+      </c>
+      <c r="F481" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>4</v>
+      </c>
+      <c r="B482" s="1">
+        <f t="shared" ref="B482" si="291">B481</f>
+        <v>43374</v>
+      </c>
+      <c r="D482">
+        <v>2</v>
+      </c>
+      <c r="E482" t="s">
+        <v>6</v>
+      </c>
+      <c r="F482" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>5</v>
+      </c>
+      <c r="B483" s="1">
+        <f t="shared" ref="B483:B484" si="292">B474+1</f>
+        <v>43374</v>
+      </c>
+      <c r="D483">
+        <v>2</v>
+      </c>
+      <c r="E483" t="s">
+        <v>5</v>
+      </c>
+      <c r="F483" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>6</v>
+      </c>
+      <c r="B484" s="1">
+        <f t="shared" si="292"/>
+        <v>43374</v>
+      </c>
+      <c r="D484">
+        <v>2</v>
+      </c>
+      <c r="E484" t="s">
+        <v>7</v>
+      </c>
+      <c r="F484" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>7</v>
+      </c>
+      <c r="B485" s="1">
+        <f t="shared" ref="B485" si="293">B484</f>
+        <v>43374</v>
+      </c>
+      <c r="D485">
+        <v>3</v>
+      </c>
+      <c r="E485" t="s">
+        <v>8</v>
+      </c>
+      <c r="F485" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>8</v>
+      </c>
+      <c r="B486" s="1">
+        <f t="shared" ref="B486" si="294">B477+1</f>
+        <v>43374</v>
+      </c>
+      <c r="D486">
+        <v>3</v>
+      </c>
+      <c r="E486" t="s">
+        <v>9</v>
+      </c>
+      <c r="F486" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>9</v>
+      </c>
+      <c r="B487" s="1">
+        <f t="shared" ref="B487" si="295">B486</f>
+        <v>43374</v>
+      </c>
+      <c r="D487">
+        <v>3</v>
+      </c>
+      <c r="E487" t="s">
+        <v>10</v>
+      </c>
+      <c r="F487" t="s">
         <v>20</v>
       </c>
     </row>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C8028F6-B85C-4979-A25C-07AE7C7B4059}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67B2A565-0DD4-46D2-9E66-D4ED74D10DDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rat Colony" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$487</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -3729,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
   <dimension ref="A1:H487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="C470" sqref="C470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13365,6 +13365,9 @@
         <f t="shared" ref="B461" si="272">B452+1</f>
         <v>43372</v>
       </c>
+      <c r="C461">
+        <v>415</v>
+      </c>
       <c r="D461">
         <v>1</v>
       </c>
@@ -13383,6 +13386,9 @@
         <f t="shared" ref="B462" si="273">B461</f>
         <v>43372</v>
       </c>
+      <c r="C462">
+        <v>385</v>
+      </c>
       <c r="D462">
         <v>1</v>
       </c>
@@ -13401,6 +13407,9 @@
         <f t="shared" ref="B463" si="274">B454+1</f>
         <v>43372</v>
       </c>
+      <c r="C463">
+        <v>392</v>
+      </c>
       <c r="D463">
         <v>1</v>
       </c>
@@ -13419,6 +13428,9 @@
         <f t="shared" ref="B464" si="275">B463</f>
         <v>43372</v>
       </c>
+      <c r="C464">
+        <v>440</v>
+      </c>
       <c r="D464">
         <v>2</v>
       </c>
@@ -13437,6 +13449,9 @@
         <f t="shared" ref="B465:B466" si="276">B456+1</f>
         <v>43372</v>
       </c>
+      <c r="C465">
+        <v>416</v>
+      </c>
       <c r="D465">
         <v>2</v>
       </c>
@@ -13455,6 +13470,9 @@
         <f t="shared" si="276"/>
         <v>43372</v>
       </c>
+      <c r="C466">
+        <v>464</v>
+      </c>
       <c r="D466">
         <v>2</v>
       </c>
@@ -13473,6 +13491,9 @@
         <f t="shared" ref="B467" si="277">B466</f>
         <v>43372</v>
       </c>
+      <c r="C467">
+        <v>397</v>
+      </c>
       <c r="D467">
         <v>3</v>
       </c>
@@ -13491,6 +13512,9 @@
         <f t="shared" ref="B468" si="278">B459+1</f>
         <v>43372</v>
       </c>
+      <c r="C468">
+        <v>448</v>
+      </c>
       <c r="D468">
         <v>3</v>
       </c>
@@ -13509,6 +13533,9 @@
         <f t="shared" ref="B469" si="279">B468</f>
         <v>43372</v>
       </c>
+      <c r="C469">
+        <v>433</v>
+      </c>
       <c r="D469">
         <v>3</v>
       </c>
@@ -13844,7 +13871,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A253" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
+  <autoFilter ref="A1:A487" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67B2A565-0DD4-46D2-9E66-D4ED74D10DDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{959D622F-3073-4F6F-A893-836730E272F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rat Colony" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$487</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$559</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -297,2263 +297,268 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:numRef>
               <c:f>'Rat Colony'!$A$2:$B$253</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="252"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>8/9/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8/9/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8/9/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>8/9/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>8/9/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>8/9/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>8/9/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8/9/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>8/9/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>8/10/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>8/10/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>8/10/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>8/10/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>8/10/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>8/10/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>8/10/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>8/10/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>8/10/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>8/11/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>8/11/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>8/11/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>8/11/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>8/11/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>8/11/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>8/11/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>8/11/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>8/11/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>8/12/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>8/12/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>8/12/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>8/12/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>8/12/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>8/12/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>8/12/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>8/12/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>8/12/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>8/13/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>8/13/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>8/13/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>8/13/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>8/13/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>8/13/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>8/13/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>8/13/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>8/13/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>8/14/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>8/14/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>8/14/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>8/14/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>8/14/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>8/14/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>8/14/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>8/14/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>8/14/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>8/15/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>8/15/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>8/15/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>8/15/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>8/15/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>8/15/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>8/15/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>8/15/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>8/15/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>8/16/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>8/16/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>8/16/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>8/16/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>8/16/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>8/16/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>8/16/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>8/16/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>8/16/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>8/17/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>8/17/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>8/17/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>8/17/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>8/17/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>8/17/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>8/17/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>8/17/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>8/17/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>8/18/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>8/18/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>8/18/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>8/18/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>8/18/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>8/18/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>8/18/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>8/18/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>8/18/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>8/19/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>8/19/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>8/19/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>8/19/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>8/19/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>8/19/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>8/19/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>8/19/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>8/19/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>8/20/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>8/20/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="101">
-                    <c:v>8/20/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="102">
-                    <c:v>8/20/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="103">
-                    <c:v>8/20/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="104">
-                    <c:v>8/20/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="105">
-                    <c:v>8/20/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="106">
-                    <c:v>8/20/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="107">
-                    <c:v>8/20/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="108">
-                    <c:v>8/21/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="109">
-                    <c:v>8/21/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="110">
-                    <c:v>8/21/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="111">
-                    <c:v>8/21/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="112">
-                    <c:v>8/21/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="113">
-                    <c:v>8/21/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="114">
-                    <c:v>8/21/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="115">
-                    <c:v>8/21/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="116">
-                    <c:v>8/21/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="117">
-                    <c:v>8/22/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="118">
-                    <c:v>8/22/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="119">
-                    <c:v>8/22/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="120">
-                    <c:v>8/22/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="121">
-                    <c:v>8/22/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="122">
-                    <c:v>8/22/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="123">
-                    <c:v>8/22/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>8/22/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="125">
-                    <c:v>8/22/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="126">
-                    <c:v>8/23/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="127">
-                    <c:v>8/23/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="128">
-                    <c:v>8/23/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="129">
-                    <c:v>8/23/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="130">
-                    <c:v>8/23/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="131">
-                    <c:v>8/23/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="132">
-                    <c:v>8/23/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="133">
-                    <c:v>8/23/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="134">
-                    <c:v>8/23/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="135">
-                    <c:v>8/24/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="136">
-                    <c:v>8/24/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="137">
-                    <c:v>8/24/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="138">
-                    <c:v>8/24/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>8/24/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="140">
-                    <c:v>8/24/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="141">
-                    <c:v>8/24/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="142">
-                    <c:v>8/24/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="143">
-                    <c:v>8/24/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="144">
-                    <c:v>8/25/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="145">
-                    <c:v>8/25/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="146">
-                    <c:v>8/25/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="147">
-                    <c:v>8/25/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="148">
-                    <c:v>8/25/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="149">
-                    <c:v>8/25/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="150">
-                    <c:v>8/25/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="151">
-                    <c:v>8/25/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="152">
-                    <c:v>8/25/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="153">
-                    <c:v>8/26/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="154">
-                    <c:v>8/26/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="155">
-                    <c:v>8/26/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="156">
-                    <c:v>8/26/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="157">
-                    <c:v>8/26/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="158">
-                    <c:v>8/26/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="159">
-                    <c:v>8/26/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="160">
-                    <c:v>8/26/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="161">
-                    <c:v>8/26/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="162">
-                    <c:v>8/27/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="163">
-                    <c:v>8/27/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="164">
-                    <c:v>8/27/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="165">
-                    <c:v>8/27/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="166">
-                    <c:v>8/27/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="167">
-                    <c:v>8/27/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="168">
-                    <c:v>8/27/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="169">
-                    <c:v>8/27/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="170">
-                    <c:v>8/27/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="171">
-                    <c:v>8/28/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="172">
-                    <c:v>8/28/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="173">
-                    <c:v>8/28/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="174">
-                    <c:v>8/28/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="175">
-                    <c:v>8/28/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="176">
-                    <c:v>8/28/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="177">
-                    <c:v>8/28/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="178">
-                    <c:v>8/28/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="179">
-                    <c:v>8/28/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="180">
-                    <c:v>8/29/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="181">
-                    <c:v>8/29/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="182">
-                    <c:v>8/29/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="183">
-                    <c:v>8/29/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="184">
-                    <c:v>8/29/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="185">
-                    <c:v>8/29/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="186">
-                    <c:v>8/29/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="187">
-                    <c:v>8/29/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="188">
-                    <c:v>8/29/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="189">
-                    <c:v>8/30/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="190">
-                    <c:v>8/30/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="191">
-                    <c:v>8/30/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="192">
-                    <c:v>8/30/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="193">
-                    <c:v>8/30/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="194">
-                    <c:v>8/30/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="195">
-                    <c:v>8/30/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="196">
-                    <c:v>8/30/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="197">
-                    <c:v>8/30/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="198">
-                    <c:v>8/31/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="199">
-                    <c:v>8/31/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="200">
-                    <c:v>8/31/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="201">
-                    <c:v>8/31/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>8/31/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="203">
-                    <c:v>8/31/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="204">
-                    <c:v>8/31/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="205">
-                    <c:v>8/31/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="206">
-                    <c:v>8/31/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="207">
-                    <c:v>9/1/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="208">
-                    <c:v>9/1/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="209">
-                    <c:v>9/1/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="210">
-                    <c:v>9/1/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="211">
-                    <c:v>9/1/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="212">
-                    <c:v>9/1/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="213">
-                    <c:v>9/1/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="214">
-                    <c:v>9/1/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="215">
-                    <c:v>9/1/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="216">
-                    <c:v>9/2/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="217">
-                    <c:v>9/2/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="218">
-                    <c:v>9/2/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="219">
-                    <c:v>9/2/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="220">
-                    <c:v>9/2/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="221">
-                    <c:v>9/2/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="222">
-                    <c:v>9/2/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="223">
-                    <c:v>9/2/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="224">
-                    <c:v>9/2/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="225">
-                    <c:v>9/3/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="226">
-                    <c:v>9/3/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="227">
-                    <c:v>9/3/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="228">
-                    <c:v>9/3/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="229">
-                    <c:v>9/3/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="230">
-                    <c:v>9/3/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="231">
-                    <c:v>9/3/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="232">
-                    <c:v>9/3/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="233">
-                    <c:v>9/3/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="234">
-                    <c:v>9/4/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="235">
-                    <c:v>9/4/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="236">
-                    <c:v>9/4/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="237">
-                    <c:v>9/4/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="238">
-                    <c:v>9/4/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="239">
-                    <c:v>9/4/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="240">
-                    <c:v>9/4/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="241">
-                    <c:v>9/4/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="242">
-                    <c:v>9/4/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="243">
-                    <c:v>9/5/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="244">
-                    <c:v>9/5/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="245">
-                    <c:v>9/5/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="246">
-                    <c:v>9/5/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="247">
-                    <c:v>9/5/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="248">
-                    <c:v>9/5/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="249">
-                    <c:v>9/5/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="250">
-                    <c:v>9/5/2018</c:v>
-                  </c:pt>
-                  <c:pt idx="251">
-                    <c:v>9/5/2018</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="101">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="102">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="103">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="104">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="105">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="106">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="107">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="108">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="109">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="110">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="111">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="112">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="113">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="114">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="115">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="116">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="117">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="118">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="119">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="120">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="121">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="122">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="123">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="125">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="126">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="127">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="128">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="129">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="130">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="131">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="132">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="133">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="134">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="135">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="136">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="137">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="138">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="140">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="141">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="142">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="143">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="144">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="145">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="146">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="147">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="148">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="149">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="150">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="151">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="152">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="153">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="154">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="155">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="156">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="157">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="158">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="159">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="160">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="161">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="162">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="163">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="164">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="165">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="166">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="167">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="168">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="169">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="170">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="171">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="172">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="173">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="174">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="175">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="176">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="177">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="178">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="179">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="180">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="181">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="182">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="183">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="184">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="185">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="186">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="187">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="188">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="189">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="190">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="191">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="192">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="193">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="194">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="195">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="196">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="197">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="198">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="199">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="200">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="201">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="203">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="204">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="205">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="206">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="207">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="208">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="209">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="210">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="211">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="212">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="213">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="214">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="215">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="216">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="217">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="218">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="219">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="220">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="221">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="222">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="223">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="224">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="225">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="226">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="227">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="228">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="229">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="230">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="231">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="232">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="233">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="234">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="235">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="236">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="237">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="238">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="239">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="240">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="241">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="242">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="243">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="244">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="245">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="246">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="247">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="248">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="249">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="250">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="251">
-                    <c:v>9</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43321</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43322</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43323</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43324</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43325</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43326</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43327</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43328</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43329</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43330</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43331</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43332</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43333</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43334</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43335</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43336</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43337</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43338</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43339</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43340</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43341</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43342</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43345</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43346</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43347</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Rat Colony'!$C$2:$C$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="243"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>284</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>294</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>308</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>292</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>311</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>293</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>309</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>285</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>285</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>292</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>305</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>320</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>309</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>330</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>303</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>323</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>316</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>290</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>296</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>305</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>300</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>325</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>330</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>307</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>328</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>424</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="152">
                   <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>426</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>431</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>442</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>455</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>431</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>443</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>424</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>442</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>446</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3727,10 +1732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:H487"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C470" sqref="C470"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="D516" sqref="D516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3761,7 +1767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3801,7 +1807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3821,7 +1827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3841,7 +1847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3861,7 +1867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3881,7 +1887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3901,7 +1907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3921,7 +1927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3941,7 +1947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3981,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4001,7 +2007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4021,7 +2027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4041,7 +2047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4061,7 +2067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -4081,7 +2087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4101,7 +2107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -4121,7 +2127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4161,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4181,7 +2187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -4201,7 +2207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -4221,7 +2227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4241,7 +2247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -4261,7 +2267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -4281,7 +2287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -4301,7 +2307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4341,7 +2347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -4361,7 +2367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4381,7 +2387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -4401,7 +2407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -4421,7 +2427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -4441,7 +2447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -4461,7 +2467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -4481,7 +2487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4521,7 +2527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4541,7 +2547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -4561,7 +2567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -4581,7 +2587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4601,7 +2607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -4621,7 +2627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -4641,7 +2647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -4661,7 +2667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -4702,7 +2708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4723,7 +2729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -4744,7 +2750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -4765,7 +2771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -4786,7 +2792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7</v>
       </c>
@@ -4807,7 +2813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -4828,7 +2834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
@@ -4849,7 +2855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -4891,7 +2897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4912,7 +2918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -4933,7 +2939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -4954,7 +2960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -4975,7 +2981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -4996,7 +3002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8</v>
       </c>
@@ -5017,7 +3023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -5038,7 +3044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -5080,7 +3086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -5101,7 +3107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -5122,7 +3128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -5143,7 +3149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6</v>
       </c>
@@ -5164,7 +3170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -5185,7 +3191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -5206,7 +3212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -5227,7 +3233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -5269,7 +3275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -5290,7 +3296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -5311,7 +3317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -5332,7 +3338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -5353,7 +3359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -5374,7 +3380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8</v>
       </c>
@@ -5395,7 +3401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
@@ -5416,7 +3422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -5458,7 +3464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -5479,7 +3485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -5500,7 +3506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -5521,7 +3527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -5542,7 +3548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7</v>
       </c>
@@ -5563,7 +3569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8</v>
       </c>
@@ -5584,7 +3590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9</v>
       </c>
@@ -5605,7 +3611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -5647,7 +3653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -5668,7 +3674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -5689,7 +3695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -5710,7 +3716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -5731,7 +3737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
@@ -5752,7 +3758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
@@ -5773,7 +3779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
@@ -5794,7 +3800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -5835,7 +3841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -5856,7 +3862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -5877,7 +3883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -5898,7 +3904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6</v>
       </c>
@@ -5919,7 +3925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7</v>
       </c>
@@ -5940,7 +3946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>8</v>
       </c>
@@ -5961,7 +3967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>9</v>
       </c>
@@ -5982,7 +3988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -6024,7 +4030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -6045,7 +4051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -6066,7 +4072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -6087,7 +4093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6</v>
       </c>
@@ -6108,7 +4114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7</v>
       </c>
@@ -6129,7 +4135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>8</v>
       </c>
@@ -6150,7 +4156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>9</v>
       </c>
@@ -6171,7 +4177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -6213,7 +4219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -6234,7 +4240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -6255,7 +4261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -6276,7 +4282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6</v>
       </c>
@@ -6297,7 +4303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -6318,7 +4324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>8</v>
       </c>
@@ -6339,7 +4345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>9</v>
       </c>
@@ -6360,7 +4366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -6402,7 +4408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -6423,7 +4429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -6444,7 +4450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -6465,7 +4471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -6486,7 +4492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7</v>
       </c>
@@ -6507,7 +4513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8</v>
       </c>
@@ -6528,7 +4534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9</v>
       </c>
@@ -6549,7 +4555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -6591,7 +4597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -6612,7 +4618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -6633,7 +4639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -6654,7 +4660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -6675,7 +4681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>7</v>
       </c>
@@ -6696,7 +4702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>8</v>
       </c>
@@ -6717,7 +4723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>9</v>
       </c>
@@ -6738,7 +4744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -6780,7 +4786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -6801,7 +4807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -6822,7 +4828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -6843,7 +4849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -6864,7 +4870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -6885,7 +4891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -6906,7 +4912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9</v>
       </c>
@@ -6927,7 +4933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -6969,7 +4975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -6990,7 +4996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4</v>
       </c>
@@ -7011,7 +5017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5</v>
       </c>
@@ -7032,7 +5038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6</v>
       </c>
@@ -7053,7 +5059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7</v>
       </c>
@@ -7074,7 +5080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>8</v>
       </c>
@@ -7095,7 +5101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>9</v>
       </c>
@@ -7116,7 +5122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -7158,7 +5164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -7179,7 +5185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -7200,7 +5206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -7221,7 +5227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6</v>
       </c>
@@ -7242,7 +5248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -7263,7 +5269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8</v>
       </c>
@@ -7284,7 +5290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9</v>
       </c>
@@ -7305,7 +5311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -7347,7 +5353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3</v>
       </c>
@@ -7368,7 +5374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4</v>
       </c>
@@ -7389,7 +5395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5</v>
       </c>
@@ -7410,7 +5416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6</v>
       </c>
@@ -7431,7 +5437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>7</v>
       </c>
@@ -7452,7 +5458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8</v>
       </c>
@@ -7473,7 +5479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>9</v>
       </c>
@@ -7494,7 +5500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -7536,7 +5542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -7557,7 +5563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -7578,7 +5584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -7599,7 +5605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6</v>
       </c>
@@ -7620,7 +5626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>7</v>
       </c>
@@ -7641,7 +5647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -7662,7 +5668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9</v>
       </c>
@@ -7683,7 +5689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -7725,7 +5731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3</v>
       </c>
@@ -7746,7 +5752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4</v>
       </c>
@@ -7767,7 +5773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5</v>
       </c>
@@ -7788,7 +5794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -7809,7 +5815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>7</v>
       </c>
@@ -7830,7 +5836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>8</v>
       </c>
@@ -7851,7 +5857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>9</v>
       </c>
@@ -7872,7 +5878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -7914,7 +5920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3</v>
       </c>
@@ -7935,7 +5941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4</v>
       </c>
@@ -7956,7 +5962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>5</v>
       </c>
@@ -7977,7 +5983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>6</v>
       </c>
@@ -7998,7 +6004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7</v>
       </c>
@@ -8019,7 +6025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>8</v>
       </c>
@@ -8040,7 +6046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9</v>
       </c>
@@ -8061,7 +6067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -8103,7 +6109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3</v>
       </c>
@@ -8124,7 +6130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4</v>
       </c>
@@ -8145,7 +6151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5</v>
       </c>
@@ -8166,7 +6172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>6</v>
       </c>
@@ -8187,7 +6193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>7</v>
       </c>
@@ -8208,7 +6214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>8</v>
       </c>
@@ -8229,7 +6235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>9</v>
       </c>
@@ -8250,7 +6256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -8292,7 +6298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>3</v>
       </c>
@@ -8313,7 +6319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -8334,7 +6340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5</v>
       </c>
@@ -8355,7 +6361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>6</v>
       </c>
@@ -8376,7 +6382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>7</v>
       </c>
@@ -8397,7 +6403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>8</v>
       </c>
@@ -8418,7 +6424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>9</v>
       </c>
@@ -8439,7 +6445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -8481,7 +6487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>3</v>
       </c>
@@ -8502,7 +6508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4</v>
       </c>
@@ -8523,7 +6529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5</v>
       </c>
@@ -8544,7 +6550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>6</v>
       </c>
@@ -8565,7 +6571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>7</v>
       </c>
@@ -8586,7 +6592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8</v>
       </c>
@@ -8607,7 +6613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>9</v>
       </c>
@@ -8628,7 +6634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -8670,7 +6676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>3</v>
       </c>
@@ -8691,7 +6697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4</v>
       </c>
@@ -8712,7 +6718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5</v>
       </c>
@@ -8733,7 +6739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>6</v>
       </c>
@@ -8754,7 +6760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>7</v>
       </c>
@@ -8775,7 +6781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>8</v>
       </c>
@@ -8796,7 +6802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9</v>
       </c>
@@ -8817,7 +6823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -8859,7 +6865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>3</v>
       </c>
@@ -8880,7 +6886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4</v>
       </c>
@@ -8901,7 +6907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5</v>
       </c>
@@ -8922,7 +6928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>6</v>
       </c>
@@ -8943,7 +6949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>7</v>
       </c>
@@ -8964,7 +6970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>8</v>
       </c>
@@ -8985,7 +6991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>9</v>
       </c>
@@ -9006,7 +7012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -9048,7 +7054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>3</v>
       </c>
@@ -9069,7 +7075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4</v>
       </c>
@@ -9090,7 +7096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5</v>
       </c>
@@ -9111,7 +7117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>6</v>
       </c>
@@ -9132,7 +7138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>7</v>
       </c>
@@ -9153,7 +7159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>8</v>
       </c>
@@ -9174,7 +7180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>9</v>
       </c>
@@ -9195,7 +7201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
@@ -9237,7 +7243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3</v>
       </c>
@@ -9258,7 +7264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4</v>
       </c>
@@ -9279,7 +7285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>5</v>
       </c>
@@ -9300,7 +7306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>6</v>
       </c>
@@ -9321,7 +7327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>7</v>
       </c>
@@ -9342,7 +7348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>8</v>
       </c>
@@ -9363,7 +7369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>9</v>
       </c>
@@ -9384,7 +7390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -9426,7 +7432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3</v>
       </c>
@@ -9447,7 +7453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4</v>
       </c>
@@ -9468,7 +7474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>5</v>
       </c>
@@ -9489,7 +7495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>6</v>
       </c>
@@ -9510,7 +7516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>7</v>
       </c>
@@ -9531,7 +7537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8</v>
       </c>
@@ -9552,7 +7558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>9</v>
       </c>
@@ -9573,7 +7579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
@@ -9615,7 +7621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>3</v>
       </c>
@@ -9636,7 +7642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4</v>
       </c>
@@ -9657,7 +7663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>5</v>
       </c>
@@ -9678,7 +7684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>6</v>
       </c>
@@ -9699,7 +7705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>7</v>
       </c>
@@ -9720,7 +7726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>8</v>
       </c>
@@ -9741,7 +7747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>9</v>
       </c>
@@ -9762,7 +7768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
@@ -9804,7 +7810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>3</v>
       </c>
@@ -9825,7 +7831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4</v>
       </c>
@@ -9846,7 +7852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>5</v>
       </c>
@@ -9867,7 +7873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -9888,7 +7894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>7</v>
       </c>
@@ -9909,7 +7915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>8</v>
       </c>
@@ -9930,7 +7936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>9</v>
       </c>
@@ -9951,7 +7957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1</v>
       </c>
@@ -9993,7 +7999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3</v>
       </c>
@@ -10014,7 +8020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4</v>
       </c>
@@ -10035,7 +8041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>5</v>
       </c>
@@ -10056,7 +8062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>6</v>
       </c>
@@ -10077,7 +8083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>7</v>
       </c>
@@ -10098,7 +8104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>8</v>
       </c>
@@ -10119,7 +8125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>9</v>
       </c>
@@ -10140,7 +8146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
@@ -10182,7 +8188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -10203,7 +8209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>4</v>
       </c>
@@ -10224,7 +8230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>5</v>
       </c>
@@ -10245,7 +8251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>6</v>
       </c>
@@ -10266,7 +8272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>7</v>
       </c>
@@ -10287,7 +8293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>8</v>
       </c>
@@ -10308,7 +8314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>9</v>
       </c>
@@ -10329,7 +8335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1</v>
       </c>
@@ -10371,7 +8377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3</v>
       </c>
@@ -10392,7 +8398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>4</v>
       </c>
@@ -10413,7 +8419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>5</v>
       </c>
@@ -10434,7 +8440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>6</v>
       </c>
@@ -10455,7 +8461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>7</v>
       </c>
@@ -10476,7 +8482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>8</v>
       </c>
@@ -10497,7 +8503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>9</v>
       </c>
@@ -10518,7 +8524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1</v>
       </c>
@@ -10560,7 +8566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>3</v>
       </c>
@@ -10581,7 +8587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>4</v>
       </c>
@@ -10602,7 +8608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>5</v>
       </c>
@@ -10623,7 +8629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>6</v>
       </c>
@@ -10644,7 +8650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>7</v>
       </c>
@@ -10665,7 +8671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>8</v>
       </c>
@@ -10686,7 +8692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>9</v>
       </c>
@@ -10707,7 +8713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1</v>
       </c>
@@ -10749,7 +8755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3</v>
       </c>
@@ -10770,7 +8776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>4</v>
       </c>
@@ -10791,7 +8797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>5</v>
       </c>
@@ -10812,7 +8818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -10833,7 +8839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>7</v>
       </c>
@@ -10854,7 +8860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>8</v>
       </c>
@@ -10875,7 +8881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>9</v>
       </c>
@@ -10896,7 +8902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1</v>
       </c>
@@ -10938,7 +8944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>3</v>
       </c>
@@ -10959,7 +8965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>4</v>
       </c>
@@ -10980,7 +8986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>5</v>
       </c>
@@ -11001,7 +9007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>6</v>
       </c>
@@ -11022,7 +9028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>7</v>
       </c>
@@ -11043,7 +9049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>8</v>
       </c>
@@ -11064,7 +9070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>9</v>
       </c>
@@ -11085,7 +9091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1</v>
       </c>
@@ -11127,7 +9133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>3</v>
       </c>
@@ -11148,7 +9154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>4</v>
       </c>
@@ -11169,7 +9175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>5</v>
       </c>
@@ -11190,7 +9196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>6</v>
       </c>
@@ -11211,7 +9217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>7</v>
       </c>
@@ -11232,7 +9238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>8</v>
       </c>
@@ -11253,7 +9259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>9</v>
       </c>
@@ -11274,7 +9280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1</v>
       </c>
@@ -11316,7 +9322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3</v>
       </c>
@@ -11337,7 +9343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>4</v>
       </c>
@@ -11358,7 +9364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>5</v>
       </c>
@@ -11379,7 +9385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>6</v>
       </c>
@@ -11400,7 +9406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>7</v>
       </c>
@@ -11421,7 +9427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>8</v>
       </c>
@@ -11442,7 +9448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>9</v>
       </c>
@@ -11463,7 +9469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1</v>
       </c>
@@ -11505,7 +9511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>3</v>
       </c>
@@ -11526,7 +9532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>4</v>
       </c>
@@ -11547,7 +9553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>5</v>
       </c>
@@ -11568,7 +9574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>6</v>
       </c>
@@ -11589,7 +9595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>7</v>
       </c>
@@ -11610,7 +9616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>8</v>
       </c>
@@ -11631,7 +9637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>9</v>
       </c>
@@ -11652,7 +9658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1</v>
       </c>
@@ -11694,7 +9700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>3</v>
       </c>
@@ -11715,7 +9721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>4</v>
       </c>
@@ -11736,7 +9742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>5</v>
       </c>
@@ -11757,7 +9763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6</v>
       </c>
@@ -11778,7 +9784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7</v>
       </c>
@@ -11799,7 +9805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>8</v>
       </c>
@@ -11820,7 +9826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>9</v>
       </c>
@@ -11841,7 +9847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -11883,7 +9889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>3</v>
       </c>
@@ -11904,7 +9910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>4</v>
       </c>
@@ -11925,7 +9931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>5</v>
       </c>
@@ -11946,7 +9952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>6</v>
       </c>
@@ -11967,7 +9973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>7</v>
       </c>
@@ -11988,7 +9994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>8</v>
       </c>
@@ -12009,7 +10015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>9</v>
       </c>
@@ -12030,7 +10036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1</v>
       </c>
@@ -12076,7 +10082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>3</v>
       </c>
@@ -12097,7 +10103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>4</v>
       </c>
@@ -12118,7 +10124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>5</v>
       </c>
@@ -12139,7 +10145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>6</v>
       </c>
@@ -12160,7 +10166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>7</v>
       </c>
@@ -12181,7 +10187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>8</v>
       </c>
@@ -12202,7 +10208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>9</v>
       </c>
@@ -12223,7 +10229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1</v>
       </c>
@@ -12265,7 +10271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3</v>
       </c>
@@ -12286,7 +10292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4</v>
       </c>
@@ -12307,7 +10313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>5</v>
       </c>
@@ -12328,7 +10334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>6</v>
       </c>
@@ -12349,7 +10355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>7</v>
       </c>
@@ -12370,7 +10376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>8</v>
       </c>
@@ -12391,7 +10397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>9</v>
       </c>
@@ -12412,7 +10418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1</v>
       </c>
@@ -12454,7 +10460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>3</v>
       </c>
@@ -12475,7 +10481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>4</v>
       </c>
@@ -12496,7 +10502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>5</v>
       </c>
@@ -12517,7 +10523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>6</v>
       </c>
@@ -12538,7 +10544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>7</v>
       </c>
@@ -12559,7 +10565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>8</v>
       </c>
@@ -12580,7 +10586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>9</v>
       </c>
@@ -12601,7 +10607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1</v>
       </c>
@@ -12643,7 +10649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>3</v>
       </c>
@@ -12664,7 +10670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>4</v>
       </c>
@@ -12685,7 +10691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>5</v>
       </c>
@@ -12706,7 +10712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>6</v>
       </c>
@@ -12727,7 +10733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>7</v>
       </c>
@@ -12748,7 +10754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>8</v>
       </c>
@@ -12769,7 +10775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9</v>
       </c>
@@ -12790,7 +10796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1</v>
       </c>
@@ -12832,7 +10838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>3</v>
       </c>
@@ -12853,7 +10859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>4</v>
       </c>
@@ -12874,7 +10880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>5</v>
       </c>
@@ -12895,7 +10901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>6</v>
       </c>
@@ -12916,7 +10922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>7</v>
       </c>
@@ -12937,7 +10943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>8</v>
       </c>
@@ -12958,7 +10964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>9</v>
       </c>
@@ -12979,7 +10985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>1</v>
       </c>
@@ -13021,7 +11027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>3</v>
       </c>
@@ -13042,7 +11048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4</v>
       </c>
@@ -13063,7 +11069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>5</v>
       </c>
@@ -13084,7 +11090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>6</v>
       </c>
@@ -13105,7 +11111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>7</v>
       </c>
@@ -13126,7 +11132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>8</v>
       </c>
@@ -13147,7 +11153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>9</v>
       </c>
@@ -13168,7 +11174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1</v>
       </c>
@@ -13210,7 +11216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>3</v>
       </c>
@@ -13231,7 +11237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>4</v>
       </c>
@@ -13252,7 +11258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>5</v>
       </c>
@@ -13273,7 +11279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>6</v>
       </c>
@@ -13294,7 +11300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>7</v>
       </c>
@@ -13315,7 +11321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>8</v>
       </c>
@@ -13336,7 +11342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>9</v>
       </c>
@@ -13357,7 +11363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>1</v>
       </c>
@@ -13399,7 +11405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>3</v>
       </c>
@@ -13420,7 +11426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>4</v>
       </c>
@@ -13441,7 +11447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>5</v>
       </c>
@@ -13462,7 +11468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>6</v>
       </c>
@@ -13483,7 +11489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>7</v>
       </c>
@@ -13504,7 +11510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>8</v>
       </c>
@@ -13525,7 +11531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>9</v>
       </c>
@@ -13546,7 +11552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>1</v>
       </c>
@@ -13554,6 +11560,9 @@
         <f t="shared" ref="B470" si="280">B461+1</f>
         <v>43373</v>
       </c>
+      <c r="C470">
+        <v>410</v>
+      </c>
       <c r="D470">
         <v>1</v>
       </c>
@@ -13572,6 +11581,9 @@
         <f t="shared" ref="B471" si="281">B470</f>
         <v>43373</v>
       </c>
+      <c r="C471">
+        <v>378</v>
+      </c>
       <c r="D471">
         <v>1</v>
       </c>
@@ -13582,7 +11594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>3</v>
       </c>
@@ -13590,6 +11602,9 @@
         <f t="shared" ref="B472" si="282">B463+1</f>
         <v>43373</v>
       </c>
+      <c r="C472">
+        <v>386</v>
+      </c>
       <c r="D472">
         <v>1</v>
       </c>
@@ -13600,7 +11615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>4</v>
       </c>
@@ -13608,6 +11623,9 @@
         <f t="shared" ref="B473" si="283">B472</f>
         <v>43373</v>
       </c>
+      <c r="C473">
+        <v>431</v>
+      </c>
       <c r="D473">
         <v>2</v>
       </c>
@@ -13618,7 +11636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>5</v>
       </c>
@@ -13626,6 +11644,9 @@
         <f t="shared" ref="B474:B475" si="284">B465+1</f>
         <v>43373</v>
       </c>
+      <c r="C474">
+        <v>411</v>
+      </c>
       <c r="D474">
         <v>2</v>
       </c>
@@ -13636,7 +11657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>6</v>
       </c>
@@ -13644,6 +11665,9 @@
         <f t="shared" si="284"/>
         <v>43373</v>
       </c>
+      <c r="C475">
+        <v>455</v>
+      </c>
       <c r="D475">
         <v>2</v>
       </c>
@@ -13654,7 +11678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>7</v>
       </c>
@@ -13662,6 +11686,9 @@
         <f t="shared" ref="B476" si="285">B475</f>
         <v>43373</v>
       </c>
+      <c r="C476">
+        <v>392</v>
+      </c>
       <c r="D476">
         <v>3</v>
       </c>
@@ -13672,7 +11699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>8</v>
       </c>
@@ -13680,6 +11707,9 @@
         <f t="shared" ref="B477" si="286">B468+1</f>
         <v>43373</v>
       </c>
+      <c r="C477">
+        <v>439</v>
+      </c>
       <c r="D477">
         <v>3</v>
       </c>
@@ -13690,7 +11720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>9</v>
       </c>
@@ -13698,6 +11728,9 @@
         <f t="shared" ref="B478" si="287">B477</f>
         <v>43373</v>
       </c>
+      <c r="C478">
+        <v>424</v>
+      </c>
       <c r="D478">
         <v>3</v>
       </c>
@@ -13708,7 +11741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>1</v>
       </c>
@@ -13716,6 +11749,9 @@
         <f t="shared" ref="B479" si="288">B470+1</f>
         <v>43374</v>
       </c>
+      <c r="C479">
+        <v>410</v>
+      </c>
       <c r="D479">
         <v>1</v>
       </c>
@@ -13734,6 +11770,9 @@
         <f t="shared" ref="B480" si="289">B479</f>
         <v>43374</v>
       </c>
+      <c r="C480">
+        <v>365</v>
+      </c>
       <c r="D480">
         <v>1</v>
       </c>
@@ -13744,7 +11783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>3</v>
       </c>
@@ -13752,6 +11791,9 @@
         <f t="shared" ref="B481" si="290">B472+1</f>
         <v>43374</v>
       </c>
+      <c r="C481">
+        <v>386</v>
+      </c>
       <c r="D481">
         <v>1</v>
       </c>
@@ -13762,7 +11804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>4</v>
       </c>
@@ -13770,6 +11812,9 @@
         <f t="shared" ref="B482" si="291">B481</f>
         <v>43374</v>
       </c>
+      <c r="C482">
+        <v>432</v>
+      </c>
       <c r="D482">
         <v>2</v>
       </c>
@@ -13780,7 +11825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>5</v>
       </c>
@@ -13788,6 +11833,9 @@
         <f t="shared" ref="B483:B484" si="292">B474+1</f>
         <v>43374</v>
       </c>
+      <c r="C483">
+        <v>414</v>
+      </c>
       <c r="D483">
         <v>2</v>
       </c>
@@ -13798,7 +11846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>6</v>
       </c>
@@ -13806,6 +11854,9 @@
         <f t="shared" si="292"/>
         <v>43374</v>
       </c>
+      <c r="C484">
+        <v>454</v>
+      </c>
       <c r="D484">
         <v>2</v>
       </c>
@@ -13816,7 +11867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>7</v>
       </c>
@@ -13824,6 +11875,9 @@
         <f t="shared" ref="B485" si="293">B484</f>
         <v>43374</v>
       </c>
+      <c r="C485">
+        <v>391</v>
+      </c>
       <c r="D485">
         <v>3</v>
       </c>
@@ -13834,7 +11888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>8</v>
       </c>
@@ -13842,6 +11896,9 @@
         <f t="shared" ref="B486" si="294">B477+1</f>
         <v>43374</v>
       </c>
+      <c r="C486">
+        <v>439</v>
+      </c>
       <c r="D486">
         <v>3</v>
       </c>
@@ -13852,7 +11909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>9</v>
       </c>
@@ -13860,6 +11917,9 @@
         <f t="shared" ref="B487" si="295">B486</f>
         <v>43374</v>
       </c>
+      <c r="C487">
+        <v>425</v>
+      </c>
       <c r="D487">
         <v>3</v>
       </c>
@@ -13870,8 +11930,1418 @@
         <v>20</v>
       </c>
     </row>
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>1</v>
+      </c>
+      <c r="B488" s="1">
+        <f t="shared" ref="B488" si="296">B479+1</f>
+        <v>43375</v>
+      </c>
+      <c r="C488">
+        <v>408</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488" t="s">
+        <v>2</v>
+      </c>
+      <c r="F488" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>2</v>
+      </c>
+      <c r="B489" s="1">
+        <f t="shared" ref="B489" si="297">B488</f>
+        <v>43375</v>
+      </c>
+      <c r="C489">
+        <v>375</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+      <c r="E489" t="s">
+        <v>3</v>
+      </c>
+      <c r="F489" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>3</v>
+      </c>
+      <c r="B490" s="1">
+        <f t="shared" ref="B490" si="298">B481+1</f>
+        <v>43375</v>
+      </c>
+      <c r="C490">
+        <v>380</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490" t="s">
+        <v>4</v>
+      </c>
+      <c r="F490" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>4</v>
+      </c>
+      <c r="B491" s="1">
+        <f t="shared" ref="B491" si="299">B490</f>
+        <v>43375</v>
+      </c>
+      <c r="C491">
+        <v>428</v>
+      </c>
+      <c r="D491">
+        <v>2</v>
+      </c>
+      <c r="E491" t="s">
+        <v>6</v>
+      </c>
+      <c r="F491" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>5</v>
+      </c>
+      <c r="B492" s="1">
+        <f t="shared" ref="B492:B493" si="300">B483+1</f>
+        <v>43375</v>
+      </c>
+      <c r="C492">
+        <v>411</v>
+      </c>
+      <c r="D492">
+        <v>2</v>
+      </c>
+      <c r="E492" t="s">
+        <v>5</v>
+      </c>
+      <c r="F492" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>6</v>
+      </c>
+      <c r="B493" s="1">
+        <f t="shared" si="300"/>
+        <v>43375</v>
+      </c>
+      <c r="C493">
+        <v>448</v>
+      </c>
+      <c r="D493">
+        <v>2</v>
+      </c>
+      <c r="E493" t="s">
+        <v>7</v>
+      </c>
+      <c r="F493" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>7</v>
+      </c>
+      <c r="B494" s="1">
+        <f t="shared" ref="B494" si="301">B493</f>
+        <v>43375</v>
+      </c>
+      <c r="C494">
+        <v>383</v>
+      </c>
+      <c r="D494">
+        <v>3</v>
+      </c>
+      <c r="E494" t="s">
+        <v>8</v>
+      </c>
+      <c r="F494" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>8</v>
+      </c>
+      <c r="B495" s="1">
+        <f t="shared" ref="B495" si="302">B486+1</f>
+        <v>43375</v>
+      </c>
+      <c r="C495">
+        <v>434</v>
+      </c>
+      <c r="D495">
+        <v>3</v>
+      </c>
+      <c r="E495" t="s">
+        <v>9</v>
+      </c>
+      <c r="F495" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>9</v>
+      </c>
+      <c r="B496" s="1">
+        <f t="shared" ref="B496" si="303">B495</f>
+        <v>43375</v>
+      </c>
+      <c r="C496">
+        <v>421</v>
+      </c>
+      <c r="D496">
+        <v>3</v>
+      </c>
+      <c r="E496" t="s">
+        <v>10</v>
+      </c>
+      <c r="F496" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>1</v>
+      </c>
+      <c r="B497" s="1">
+        <f t="shared" ref="B497" si="304">B488+1</f>
+        <v>43376</v>
+      </c>
+      <c r="C497">
+        <v>402</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497" t="s">
+        <v>2</v>
+      </c>
+      <c r="F497" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>2</v>
+      </c>
+      <c r="B498" s="1">
+        <f t="shared" ref="B498" si="305">B497</f>
+        <v>43376</v>
+      </c>
+      <c r="C498">
+        <v>374</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498" t="s">
+        <v>3</v>
+      </c>
+      <c r="F498" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>3</v>
+      </c>
+      <c r="B499" s="1">
+        <f t="shared" ref="B499" si="306">B490+1</f>
+        <v>43376</v>
+      </c>
+      <c r="C499">
+        <v>378</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499" t="s">
+        <v>4</v>
+      </c>
+      <c r="F499" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>4</v>
+      </c>
+      <c r="B500" s="1">
+        <f t="shared" ref="B500" si="307">B499</f>
+        <v>43376</v>
+      </c>
+      <c r="C500">
+        <v>422</v>
+      </c>
+      <c r="D500">
+        <v>2</v>
+      </c>
+      <c r="E500" t="s">
+        <v>6</v>
+      </c>
+      <c r="F500" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>5</v>
+      </c>
+      <c r="B501" s="1">
+        <f t="shared" ref="B501:B502" si="308">B492+1</f>
+        <v>43376</v>
+      </c>
+      <c r="C501">
+        <v>407</v>
+      </c>
+      <c r="D501">
+        <v>2</v>
+      </c>
+      <c r="E501" t="s">
+        <v>5</v>
+      </c>
+      <c r="F501" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>6</v>
+      </c>
+      <c r="B502" s="1">
+        <f t="shared" si="308"/>
+        <v>43376</v>
+      </c>
+      <c r="C502">
+        <v>443</v>
+      </c>
+      <c r="D502">
+        <v>2</v>
+      </c>
+      <c r="E502" t="s">
+        <v>7</v>
+      </c>
+      <c r="F502" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>7</v>
+      </c>
+      <c r="B503" s="1">
+        <f t="shared" ref="B503" si="309">B502</f>
+        <v>43376</v>
+      </c>
+      <c r="C503">
+        <v>379</v>
+      </c>
+      <c r="D503">
+        <v>3</v>
+      </c>
+      <c r="E503" t="s">
+        <v>8</v>
+      </c>
+      <c r="F503" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>8</v>
+      </c>
+      <c r="B504" s="1">
+        <f t="shared" ref="B504" si="310">B495+1</f>
+        <v>43376</v>
+      </c>
+      <c r="C504">
+        <v>430</v>
+      </c>
+      <c r="D504">
+        <v>3</v>
+      </c>
+      <c r="E504" t="s">
+        <v>9</v>
+      </c>
+      <c r="F504" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>9</v>
+      </c>
+      <c r="B505" s="1">
+        <f t="shared" ref="B505" si="311">B504</f>
+        <v>43376</v>
+      </c>
+      <c r="C505">
+        <v>416</v>
+      </c>
+      <c r="D505">
+        <v>3</v>
+      </c>
+      <c r="E505" t="s">
+        <v>10</v>
+      </c>
+      <c r="F505" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>1</v>
+      </c>
+      <c r="B506" s="1">
+        <f t="shared" ref="B506" si="312">B497+1</f>
+        <v>43377</v>
+      </c>
+      <c r="C506">
+        <v>398</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506" t="s">
+        <v>2</v>
+      </c>
+      <c r="F506" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>2</v>
+      </c>
+      <c r="B507" s="1">
+        <f t="shared" ref="B507" si="313">B506</f>
+        <v>43377</v>
+      </c>
+      <c r="C507">
+        <v>367</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507" t="s">
+        <v>3</v>
+      </c>
+      <c r="F507" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>3</v>
+      </c>
+      <c r="B508" s="1">
+        <f t="shared" ref="B508" si="314">B499+1</f>
+        <v>43377</v>
+      </c>
+      <c r="C508">
+        <v>370</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508" t="s">
+        <v>4</v>
+      </c>
+      <c r="F508" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>4</v>
+      </c>
+      <c r="B509" s="1">
+        <f t="shared" ref="B509" si="315">B508</f>
+        <v>43377</v>
+      </c>
+      <c r="C509">
+        <v>415</v>
+      </c>
+      <c r="D509">
+        <v>2</v>
+      </c>
+      <c r="E509" t="s">
+        <v>6</v>
+      </c>
+      <c r="F509" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>5</v>
+      </c>
+      <c r="B510" s="1">
+        <f t="shared" ref="B510:B511" si="316">B501+1</f>
+        <v>43377</v>
+      </c>
+      <c r="C510">
+        <v>400</v>
+      </c>
+      <c r="D510">
+        <v>2</v>
+      </c>
+      <c r="E510" t="s">
+        <v>5</v>
+      </c>
+      <c r="F510" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>6</v>
+      </c>
+      <c r="B511" s="1">
+        <f t="shared" si="316"/>
+        <v>43377</v>
+      </c>
+      <c r="C511">
+        <v>434</v>
+      </c>
+      <c r="D511">
+        <v>2</v>
+      </c>
+      <c r="E511" t="s">
+        <v>7</v>
+      </c>
+      <c r="F511" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>7</v>
+      </c>
+      <c r="B512" s="1">
+        <f t="shared" ref="B512" si="317">B511</f>
+        <v>43377</v>
+      </c>
+      <c r="C512">
+        <v>372</v>
+      </c>
+      <c r="D512">
+        <v>3</v>
+      </c>
+      <c r="E512" t="s">
+        <v>8</v>
+      </c>
+      <c r="F512" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>8</v>
+      </c>
+      <c r="B513" s="1">
+        <f t="shared" ref="B513" si="318">B504+1</f>
+        <v>43377</v>
+      </c>
+      <c r="C513">
+        <v>421</v>
+      </c>
+      <c r="D513">
+        <v>3</v>
+      </c>
+      <c r="E513" t="s">
+        <v>9</v>
+      </c>
+      <c r="F513" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>9</v>
+      </c>
+      <c r="B514" s="1">
+        <f t="shared" ref="B514" si="319">B513</f>
+        <v>43377</v>
+      </c>
+      <c r="C514">
+        <v>411</v>
+      </c>
+      <c r="D514">
+        <v>3</v>
+      </c>
+      <c r="E514" t="s">
+        <v>10</v>
+      </c>
+      <c r="F514" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>1</v>
+      </c>
+      <c r="B515" s="1">
+        <f t="shared" ref="B515" si="320">B506+1</f>
+        <v>43378</v>
+      </c>
+      <c r="C515">
+        <v>394</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515" t="s">
+        <v>2</v>
+      </c>
+      <c r="F515" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>2</v>
+      </c>
+      <c r="B516" s="1">
+        <f t="shared" ref="B516" si="321">B515</f>
+        <v>43378</v>
+      </c>
+      <c r="C516">
+        <v>364</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="E516" t="s">
+        <v>3</v>
+      </c>
+      <c r="F516" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>3</v>
+      </c>
+      <c r="B517" s="1">
+        <f t="shared" ref="B517" si="322">B508+1</f>
+        <v>43378</v>
+      </c>
+      <c r="C517">
+        <v>365</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517" t="s">
+        <v>4</v>
+      </c>
+      <c r="F517" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>4</v>
+      </c>
+      <c r="B518" s="1">
+        <f t="shared" ref="B518" si="323">B517</f>
+        <v>43378</v>
+      </c>
+      <c r="C518">
+        <v>409</v>
+      </c>
+      <c r="D518">
+        <v>2</v>
+      </c>
+      <c r="E518" t="s">
+        <v>6</v>
+      </c>
+      <c r="F518" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>5</v>
+      </c>
+      <c r="B519" s="1">
+        <f t="shared" ref="B519:B520" si="324">B510+1</f>
+        <v>43378</v>
+      </c>
+      <c r="C519">
+        <v>394</v>
+      </c>
+      <c r="D519">
+        <v>2</v>
+      </c>
+      <c r="E519" t="s">
+        <v>5</v>
+      </c>
+      <c r="F519" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>6</v>
+      </c>
+      <c r="B520" s="1">
+        <f t="shared" si="324"/>
+        <v>43378</v>
+      </c>
+      <c r="C520">
+        <v>436</v>
+      </c>
+      <c r="D520">
+        <v>2</v>
+      </c>
+      <c r="E520" t="s">
+        <v>7</v>
+      </c>
+      <c r="F520" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>7</v>
+      </c>
+      <c r="B521" s="1">
+        <f t="shared" ref="B521" si="325">B520</f>
+        <v>43378</v>
+      </c>
+      <c r="C521">
+        <v>365</v>
+      </c>
+      <c r="D521">
+        <v>3</v>
+      </c>
+      <c r="E521" t="s">
+        <v>8</v>
+      </c>
+      <c r="F521" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>8</v>
+      </c>
+      <c r="B522" s="1">
+        <f t="shared" ref="B522" si="326">B513+1</f>
+        <v>43378</v>
+      </c>
+      <c r="C522">
+        <v>415</v>
+      </c>
+      <c r="D522">
+        <v>3</v>
+      </c>
+      <c r="E522" t="s">
+        <v>9</v>
+      </c>
+      <c r="F522" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>9</v>
+      </c>
+      <c r="B523" s="1">
+        <f t="shared" ref="B523" si="327">B522</f>
+        <v>43378</v>
+      </c>
+      <c r="C523">
+        <v>406</v>
+      </c>
+      <c r="D523">
+        <v>3</v>
+      </c>
+      <c r="E523" t="s">
+        <v>10</v>
+      </c>
+      <c r="F523" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>1</v>
+      </c>
+      <c r="B524" s="1">
+        <f t="shared" ref="B524" si="328">B515+1</f>
+        <v>43379</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+      <c r="E524" t="s">
+        <v>2</v>
+      </c>
+      <c r="F524" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>2</v>
+      </c>
+      <c r="B525" s="1">
+        <f t="shared" ref="B525" si="329">B524</f>
+        <v>43379</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525" t="s">
+        <v>3</v>
+      </c>
+      <c r="F525" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>3</v>
+      </c>
+      <c r="B526" s="1">
+        <f t="shared" ref="B526" si="330">B517+1</f>
+        <v>43379</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+      <c r="E526" t="s">
+        <v>4</v>
+      </c>
+      <c r="F526" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>4</v>
+      </c>
+      <c r="B527" s="1">
+        <f t="shared" ref="B527" si="331">B526</f>
+        <v>43379</v>
+      </c>
+      <c r="D527">
+        <v>2</v>
+      </c>
+      <c r="E527" t="s">
+        <v>6</v>
+      </c>
+      <c r="F527" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>5</v>
+      </c>
+      <c r="B528" s="1">
+        <f t="shared" ref="B528:B529" si="332">B519+1</f>
+        <v>43379</v>
+      </c>
+      <c r="D528">
+        <v>2</v>
+      </c>
+      <c r="E528" t="s">
+        <v>5</v>
+      </c>
+      <c r="F528" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>6</v>
+      </c>
+      <c r="B529" s="1">
+        <f t="shared" si="332"/>
+        <v>43379</v>
+      </c>
+      <c r="D529">
+        <v>2</v>
+      </c>
+      <c r="E529" t="s">
+        <v>7</v>
+      </c>
+      <c r="F529" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>7</v>
+      </c>
+      <c r="B530" s="1">
+        <f t="shared" ref="B530" si="333">B529</f>
+        <v>43379</v>
+      </c>
+      <c r="D530">
+        <v>3</v>
+      </c>
+      <c r="E530" t="s">
+        <v>8</v>
+      </c>
+      <c r="F530" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>8</v>
+      </c>
+      <c r="B531" s="1">
+        <f t="shared" ref="B531" si="334">B522+1</f>
+        <v>43379</v>
+      </c>
+      <c r="D531">
+        <v>3</v>
+      </c>
+      <c r="E531" t="s">
+        <v>9</v>
+      </c>
+      <c r="F531" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>9</v>
+      </c>
+      <c r="B532" s="1">
+        <f t="shared" ref="B532" si="335">B531</f>
+        <v>43379</v>
+      </c>
+      <c r="D532">
+        <v>3</v>
+      </c>
+      <c r="E532" t="s">
+        <v>10</v>
+      </c>
+      <c r="F532" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>1</v>
+      </c>
+      <c r="B533" s="1">
+        <f t="shared" ref="B533" si="336">B524+1</f>
+        <v>43380</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+      <c r="E533" t="s">
+        <v>2</v>
+      </c>
+      <c r="F533" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>2</v>
+      </c>
+      <c r="B534" s="1">
+        <f t="shared" ref="B534" si="337">B533</f>
+        <v>43380</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="E534" t="s">
+        <v>3</v>
+      </c>
+      <c r="F534" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>3</v>
+      </c>
+      <c r="B535" s="1">
+        <f t="shared" ref="B535" si="338">B526+1</f>
+        <v>43380</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535" t="s">
+        <v>4</v>
+      </c>
+      <c r="F535" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>4</v>
+      </c>
+      <c r="B536" s="1">
+        <f t="shared" ref="B536" si="339">B535</f>
+        <v>43380</v>
+      </c>
+      <c r="D536">
+        <v>2</v>
+      </c>
+      <c r="E536" t="s">
+        <v>6</v>
+      </c>
+      <c r="F536" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>5</v>
+      </c>
+      <c r="B537" s="1">
+        <f t="shared" ref="B537:B538" si="340">B528+1</f>
+        <v>43380</v>
+      </c>
+      <c r="D537">
+        <v>2</v>
+      </c>
+      <c r="E537" t="s">
+        <v>5</v>
+      </c>
+      <c r="F537" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>6</v>
+      </c>
+      <c r="B538" s="1">
+        <f t="shared" si="340"/>
+        <v>43380</v>
+      </c>
+      <c r="D538">
+        <v>2</v>
+      </c>
+      <c r="E538" t="s">
+        <v>7</v>
+      </c>
+      <c r="F538" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>7</v>
+      </c>
+      <c r="B539" s="1">
+        <f t="shared" ref="B539" si="341">B538</f>
+        <v>43380</v>
+      </c>
+      <c r="D539">
+        <v>3</v>
+      </c>
+      <c r="E539" t="s">
+        <v>8</v>
+      </c>
+      <c r="F539" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>8</v>
+      </c>
+      <c r="B540" s="1">
+        <f t="shared" ref="B540" si="342">B531+1</f>
+        <v>43380</v>
+      </c>
+      <c r="D540">
+        <v>3</v>
+      </c>
+      <c r="E540" t="s">
+        <v>9</v>
+      </c>
+      <c r="F540" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>9</v>
+      </c>
+      <c r="B541" s="1">
+        <f t="shared" ref="B541" si="343">B540</f>
+        <v>43380</v>
+      </c>
+      <c r="D541">
+        <v>3</v>
+      </c>
+      <c r="E541" t="s">
+        <v>10</v>
+      </c>
+      <c r="F541" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>1</v>
+      </c>
+      <c r="B542" s="1">
+        <f t="shared" ref="B542" si="344">B533+1</f>
+        <v>43381</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542" t="s">
+        <v>2</v>
+      </c>
+      <c r="F542" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>2</v>
+      </c>
+      <c r="B543" s="1">
+        <f t="shared" ref="B543" si="345">B542</f>
+        <v>43381</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543" t="s">
+        <v>3</v>
+      </c>
+      <c r="F543" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>3</v>
+      </c>
+      <c r="B544" s="1">
+        <f t="shared" ref="B544" si="346">B535+1</f>
+        <v>43381</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544" t="s">
+        <v>4</v>
+      </c>
+      <c r="F544" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>4</v>
+      </c>
+      <c r="B545" s="1">
+        <f t="shared" ref="B545" si="347">B544</f>
+        <v>43381</v>
+      </c>
+      <c r="D545">
+        <v>2</v>
+      </c>
+      <c r="E545" t="s">
+        <v>6</v>
+      </c>
+      <c r="F545" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>5</v>
+      </c>
+      <c r="B546" s="1">
+        <f t="shared" ref="B546:B547" si="348">B537+1</f>
+        <v>43381</v>
+      </c>
+      <c r="D546">
+        <v>2</v>
+      </c>
+      <c r="E546" t="s">
+        <v>5</v>
+      </c>
+      <c r="F546" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>6</v>
+      </c>
+      <c r="B547" s="1">
+        <f t="shared" si="348"/>
+        <v>43381</v>
+      </c>
+      <c r="D547">
+        <v>2</v>
+      </c>
+      <c r="E547" t="s">
+        <v>7</v>
+      </c>
+      <c r="F547" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>7</v>
+      </c>
+      <c r="B548" s="1">
+        <f t="shared" ref="B548" si="349">B547</f>
+        <v>43381</v>
+      </c>
+      <c r="D548">
+        <v>3</v>
+      </c>
+      <c r="E548" t="s">
+        <v>8</v>
+      </c>
+      <c r="F548" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>8</v>
+      </c>
+      <c r="B549" s="1">
+        <f t="shared" ref="B549" si="350">B540+1</f>
+        <v>43381</v>
+      </c>
+      <c r="D549">
+        <v>3</v>
+      </c>
+      <c r="E549" t="s">
+        <v>9</v>
+      </c>
+      <c r="F549" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>9</v>
+      </c>
+      <c r="B550" s="1">
+        <f t="shared" ref="B550" si="351">B549</f>
+        <v>43381</v>
+      </c>
+      <c r="D550">
+        <v>3</v>
+      </c>
+      <c r="E550" t="s">
+        <v>10</v>
+      </c>
+      <c r="F550" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>1</v>
+      </c>
+      <c r="B551" s="1">
+        <f t="shared" ref="B551" si="352">B542+1</f>
+        <v>43382</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551" t="s">
+        <v>2</v>
+      </c>
+      <c r="F551" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>2</v>
+      </c>
+      <c r="B552" s="1">
+        <f t="shared" ref="B552" si="353">B551</f>
+        <v>43382</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552" t="s">
+        <v>3</v>
+      </c>
+      <c r="F552" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>3</v>
+      </c>
+      <c r="B553" s="1">
+        <f t="shared" ref="B553" si="354">B544+1</f>
+        <v>43382</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553" t="s">
+        <v>4</v>
+      </c>
+      <c r="F553" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>4</v>
+      </c>
+      <c r="B554" s="1">
+        <f t="shared" ref="B554" si="355">B553</f>
+        <v>43382</v>
+      </c>
+      <c r="D554">
+        <v>2</v>
+      </c>
+      <c r="E554" t="s">
+        <v>6</v>
+      </c>
+      <c r="F554" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>5</v>
+      </c>
+      <c r="B555" s="1">
+        <f t="shared" ref="B555:B556" si="356">B546+1</f>
+        <v>43382</v>
+      </c>
+      <c r="D555">
+        <v>2</v>
+      </c>
+      <c r="E555" t="s">
+        <v>5</v>
+      </c>
+      <c r="F555" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>6</v>
+      </c>
+      <c r="B556" s="1">
+        <f t="shared" si="356"/>
+        <v>43382</v>
+      </c>
+      <c r="D556">
+        <v>2</v>
+      </c>
+      <c r="E556" t="s">
+        <v>7</v>
+      </c>
+      <c r="F556" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>7</v>
+      </c>
+      <c r="B557" s="1">
+        <f t="shared" ref="B557" si="357">B556</f>
+        <v>43382</v>
+      </c>
+      <c r="D557">
+        <v>3</v>
+      </c>
+      <c r="E557" t="s">
+        <v>8</v>
+      </c>
+      <c r="F557" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>8</v>
+      </c>
+      <c r="B558" s="1">
+        <f t="shared" ref="B558" si="358">B549+1</f>
+        <v>43382</v>
+      </c>
+      <c r="D558">
+        <v>3</v>
+      </c>
+      <c r="E558" t="s">
+        <v>9</v>
+      </c>
+      <c r="F558" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>9</v>
+      </c>
+      <c r="B559" s="1">
+        <f t="shared" ref="B559" si="359">B558</f>
+        <v>43382</v>
+      </c>
+      <c r="D559">
+        <v>3</v>
+      </c>
+      <c r="E559" t="s">
+        <v>10</v>
+      </c>
+      <c r="F559" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A487" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
+  <autoFilter ref="A1:A559" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{959D622F-3073-4F6F-A893-836730E272F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A221ABA0-CF2C-45B6-B472-87C958F7BD56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -297,268 +297,2263 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Rat Colony'!$A$2:$B$253</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43321</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43322</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43323</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43324</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43325</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43326</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43327</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43328</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43329</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43330</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43331</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43332</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43333</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43334</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43335</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43336</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43337</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43338</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43339</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43340</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43341</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43342</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43343</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43345</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43346</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43347</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43348</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              <c:multiLvlStrCache>
+                <c:ptCount val="252"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8/9/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8/9/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8/9/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8/9/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8/9/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8/9/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8/9/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8/9/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8/9/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>8/10/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8/10/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8/10/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>8/10/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>8/10/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8/10/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>8/10/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>8/10/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>8/10/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>8/11/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8/11/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>8/11/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>8/11/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>8/11/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>8/11/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>8/11/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>8/11/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>8/11/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>8/12/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>8/12/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>8/12/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>8/12/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8/12/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>8/12/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>8/12/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>8/12/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>8/12/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>8/13/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>8/13/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>8/13/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>8/13/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>8/13/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>8/13/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>8/13/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>8/13/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>8/13/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>8/14/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>8/14/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>8/14/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>8/14/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>8/14/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>8/14/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>8/14/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>8/14/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>8/14/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>8/15/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>8/15/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>8/15/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>8/15/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>8/15/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>8/15/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>8/15/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>8/15/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>8/15/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>8/16/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>8/16/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>8/16/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>8/16/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>8/16/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>8/16/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>8/16/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>8/16/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>8/16/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>8/17/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>8/17/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>8/17/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>8/17/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>8/17/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>8/17/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>8/17/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>8/17/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>8/17/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>8/18/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>8/18/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>8/18/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>8/18/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>8/18/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>8/18/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>8/18/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>8/18/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>8/18/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>8/19/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>8/19/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>8/19/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>8/19/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>8/19/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>8/19/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>8/19/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>8/19/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>8/19/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>8/20/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>8/20/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>8/20/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>8/20/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>8/20/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>8/20/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>8/20/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>8/20/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>8/20/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>8/21/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>8/21/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>8/21/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>8/21/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>8/21/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>8/21/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>8/21/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>8/21/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>8/21/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>8/22/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>8/22/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>8/22/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>8/22/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>8/22/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>8/22/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>8/22/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>8/22/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>8/22/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>8/23/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>8/23/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>8/23/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>8/23/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>8/23/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>8/23/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>8/23/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>8/23/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>8/23/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>8/24/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>8/24/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>8/24/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>8/24/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>8/24/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>8/24/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>8/24/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>8/24/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>8/24/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>8/25/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>8/25/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>8/25/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>8/25/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>8/25/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>8/25/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>8/25/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>8/25/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>8/25/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>8/26/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>8/26/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>8/26/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>8/26/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>8/26/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>8/26/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>8/26/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>8/26/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>8/26/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>8/27/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>8/27/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>8/27/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>8/27/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>8/27/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>8/27/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>8/27/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>8/27/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>8/27/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>8/28/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>8/28/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>8/28/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>8/28/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>8/28/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>8/28/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>8/28/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="178">
+                    <c:v>8/28/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="179">
+                    <c:v>8/28/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>8/29/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="181">
+                    <c:v>8/29/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="182">
+                    <c:v>8/29/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="183">
+                    <c:v>8/29/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="184">
+                    <c:v>8/29/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="185">
+                    <c:v>8/29/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="186">
+                    <c:v>8/29/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="187">
+                    <c:v>8/29/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="188">
+                    <c:v>8/29/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="189">
+                    <c:v>8/30/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="190">
+                    <c:v>8/30/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="191">
+                    <c:v>8/30/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="192">
+                    <c:v>8/30/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="193">
+                    <c:v>8/30/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="194">
+                    <c:v>8/30/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="195">
+                    <c:v>8/30/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="196">
+                    <c:v>8/30/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="197">
+                    <c:v>8/30/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="198">
+                    <c:v>8/31/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="199">
+                    <c:v>8/31/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="200">
+                    <c:v>8/31/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="201">
+                    <c:v>8/31/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="202">
+                    <c:v>8/31/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="203">
+                    <c:v>8/31/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="204">
+                    <c:v>8/31/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="205">
+                    <c:v>8/31/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="206">
+                    <c:v>8/31/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="207">
+                    <c:v>9/1/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="208">
+                    <c:v>9/1/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="209">
+                    <c:v>9/1/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>9/1/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="211">
+                    <c:v>9/1/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="212">
+                    <c:v>9/1/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="213">
+                    <c:v>9/1/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9/1/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="215">
+                    <c:v>9/1/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
+                    <c:v>9/2/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="217">
+                    <c:v>9/2/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="218">
+                    <c:v>9/2/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="219">
+                    <c:v>9/2/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="220">
+                    <c:v>9/2/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="221">
+                    <c:v>9/2/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="222">
+                    <c:v>9/2/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="223">
+                    <c:v>9/2/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="224">
+                    <c:v>9/2/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="225">
+                    <c:v>9/3/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="226">
+                    <c:v>9/3/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="227">
+                    <c:v>9/3/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="228">
+                    <c:v>9/3/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="229">
+                    <c:v>9/3/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="230">
+                    <c:v>9/3/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="231">
+                    <c:v>9/3/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="232">
+                    <c:v>9/3/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="233">
+                    <c:v>9/3/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="234">
+                    <c:v>9/4/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="235">
+                    <c:v>9/4/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9/4/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="237">
+                    <c:v>9/4/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="238">
+                    <c:v>9/4/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="239">
+                    <c:v>9/4/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="240">
+                    <c:v>9/4/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="241">
+                    <c:v>9/4/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="242">
+                    <c:v>9/4/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9/5/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="244">
+                    <c:v>9/5/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="245">
+                    <c:v>9/5/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="246">
+                    <c:v>9/5/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="247">
+                    <c:v>9/5/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="248">
+                    <c:v>9/5/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="249">
+                    <c:v>9/5/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="250">
+                    <c:v>9/5/2018</c:v>
+                  </c:pt>
+                  <c:pt idx="251">
+                    <c:v>9/5/2018</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="178">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="179">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="181">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="182">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="183">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="184">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="185">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="186">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="187">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="188">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="189">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="190">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="191">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="192">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="193">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="194">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="195">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="196">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="197">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="198">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="199">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="200">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="201">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="202">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="203">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="204">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="205">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="206">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="207">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="208">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="209">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="211">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="212">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="213">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="214">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="215">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="217">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="218">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="219">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="220">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="221">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="222">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="223">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="224">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="225">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="226">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="227">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="228">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="229">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="230">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="231">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="232">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="233">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="234">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="235">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="237">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="238">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="239">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="240">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="241">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="242">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="244">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="245">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="246">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="247">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="248">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="249">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="250">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="251">
+                    <c:v>9</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Rat Colony'!$C$2:$C$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="243"/>
                 <c:pt idx="0">
-                  <c:v>292</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>296</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="20">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>307</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>313</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="38">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>310</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="47">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>319</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="52">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>322</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="61">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>325</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="70">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>330</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="83">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>333</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="92">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>339</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="101">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="109">
                   <c:v>344</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="110">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>349</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="119">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="128">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="137">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="146">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="154">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="155">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>363</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="164">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="172">
                   <c:v>368</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="173">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="181">
                   <c:v>369</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="182">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>375</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="191">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="199">
                   <c:v>380</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="200">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="208">
                   <c:v>383</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="209">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>391</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="218">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="226">
                   <c:v>395</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="227">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="235">
                   <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,11 +3727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="D516" sqref="D516"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="C533" sqref="C533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,7 +3761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1807,7 +3801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1827,7 +3821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1847,7 +3841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1867,7 +3861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1887,7 +3881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1907,7 +3901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1927,7 +3921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1947,7 +3941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1987,7 +3981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2007,7 +4001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2027,7 +4021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2047,7 +4041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2067,7 +4061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2087,7 +4081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2107,7 +4101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -2127,7 +4121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2167,7 +4161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2187,7 +4181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2207,7 +4201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2227,7 +4221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2247,7 +4241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2267,7 +4261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2287,7 +4281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2307,7 +4301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2347,7 +4341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2367,7 +4361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2387,7 +4381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -2407,7 +4401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -2427,7 +4421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -2447,7 +4441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -2467,7 +4461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -2487,7 +4481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2527,7 +4521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2547,7 +4541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2567,7 +4561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2587,7 +4581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -2607,7 +4601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -2627,7 +4621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2647,7 +4641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -2667,7 +4661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2708,7 +4702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2729,7 +4723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -2750,7 +4744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2771,7 +4765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -2792,7 +4786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7</v>
       </c>
@@ -2813,7 +4807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -2834,7 +4828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
@@ -2855,7 +4849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2897,7 +4891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2918,7 +4912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -2939,7 +4933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -2960,7 +4954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2981,7 +4975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -3002,7 +4996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8</v>
       </c>
@@ -3023,7 +5017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -3044,7 +5038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3086,7 +5080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3107,7 +5101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -3128,7 +5122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -3149,7 +5143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6</v>
       </c>
@@ -3170,7 +5164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -3191,7 +5185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -3212,7 +5206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -3233,7 +5227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3275,7 +5269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3296,7 +5290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -3317,7 +5311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -3338,7 +5332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -3359,7 +5353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -3380,7 +5374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8</v>
       </c>
@@ -3401,7 +5395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
@@ -3422,7 +5416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3464,7 +5458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3485,7 +5479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -3506,7 +5500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -3527,7 +5521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -3548,7 +5542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7</v>
       </c>
@@ -3569,7 +5563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8</v>
       </c>
@@ -3590,7 +5584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9</v>
       </c>
@@ -3611,7 +5605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3653,7 +5647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -3674,7 +5668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -3695,7 +5689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -3716,7 +5710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -3737,7 +5731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
@@ -3758,7 +5752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
@@ -3779,7 +5773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
@@ -3800,7 +5794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3841,7 +5835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -3862,7 +5856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -3883,7 +5877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -3904,7 +5898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6</v>
       </c>
@@ -3925,7 +5919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7</v>
       </c>
@@ -3946,7 +5940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>8</v>
       </c>
@@ -3967,7 +5961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>9</v>
       </c>
@@ -3988,7 +5982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4030,7 +6024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -4051,7 +6045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -4072,7 +6066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -4093,7 +6087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6</v>
       </c>
@@ -4114,7 +6108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7</v>
       </c>
@@ -4135,7 +6129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>8</v>
       </c>
@@ -4156,7 +6150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>9</v>
       </c>
@@ -4177,7 +6171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4219,7 +6213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -4240,7 +6234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -4261,7 +6255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -4282,7 +6276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6</v>
       </c>
@@ -4303,7 +6297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -4324,7 +6318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>8</v>
       </c>
@@ -4345,7 +6339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>9</v>
       </c>
@@ -4366,7 +6360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4408,7 +6402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -4429,7 +6423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -4450,7 +6444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -4471,7 +6465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -4492,7 +6486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7</v>
       </c>
@@ -4513,7 +6507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8</v>
       </c>
@@ -4534,7 +6528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9</v>
       </c>
@@ -4555,7 +6549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4597,7 +6591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -4618,7 +6612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -4639,7 +6633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -4660,7 +6654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -4681,7 +6675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>7</v>
       </c>
@@ -4702,7 +6696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>8</v>
       </c>
@@ -4723,7 +6717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>9</v>
       </c>
@@ -4744,7 +6738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4786,7 +6780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -4807,7 +6801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -4828,7 +6822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -4849,7 +6843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -4870,7 +6864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -4891,7 +6885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -4912,7 +6906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9</v>
       </c>
@@ -4933,7 +6927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4975,7 +6969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -4996,7 +6990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4</v>
       </c>
@@ -5017,7 +7011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5</v>
       </c>
@@ -5038,7 +7032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6</v>
       </c>
@@ -5059,7 +7053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7</v>
       </c>
@@ -5080,7 +7074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>8</v>
       </c>
@@ -5101,7 +7095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>9</v>
       </c>
@@ -5122,7 +7116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5164,7 +7158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -5185,7 +7179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -5206,7 +7200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -5227,7 +7221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6</v>
       </c>
@@ -5248,7 +7242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -5269,7 +7263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8</v>
       </c>
@@ -5290,7 +7284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9</v>
       </c>
@@ -5311,7 +7305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -5353,7 +7347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3</v>
       </c>
@@ -5374,7 +7368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4</v>
       </c>
@@ -5395,7 +7389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5</v>
       </c>
@@ -5416,7 +7410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6</v>
       </c>
@@ -5437,7 +7431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>7</v>
       </c>
@@ -5458,7 +7452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8</v>
       </c>
@@ -5479,7 +7473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>9</v>
       </c>
@@ -5500,7 +7494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5542,7 +7536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -5563,7 +7557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -5584,7 +7578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -5605,7 +7599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6</v>
       </c>
@@ -5626,7 +7620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>7</v>
       </c>
@@ -5647,7 +7641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -5668,7 +7662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9</v>
       </c>
@@ -5689,7 +7683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5731,7 +7725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3</v>
       </c>
@@ -5752,7 +7746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4</v>
       </c>
@@ -5773,7 +7767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5</v>
       </c>
@@ -5794,7 +7788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -5815,7 +7809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>7</v>
       </c>
@@ -5836,7 +7830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>8</v>
       </c>
@@ -5857,7 +7851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>9</v>
       </c>
@@ -5878,7 +7872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5920,7 +7914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3</v>
       </c>
@@ -5941,7 +7935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4</v>
       </c>
@@ -5962,7 +7956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>5</v>
       </c>
@@ -5983,7 +7977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>6</v>
       </c>
@@ -6004,7 +7998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7</v>
       </c>
@@ -6025,7 +8019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>8</v>
       </c>
@@ -6046,7 +8040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9</v>
       </c>
@@ -6067,7 +8061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -6109,7 +8103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3</v>
       </c>
@@ -6130,7 +8124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4</v>
       </c>
@@ -6151,7 +8145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5</v>
       </c>
@@ -6172,7 +8166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>6</v>
       </c>
@@ -6193,7 +8187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>7</v>
       </c>
@@ -6214,7 +8208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>8</v>
       </c>
@@ -6235,7 +8229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>9</v>
       </c>
@@ -6256,7 +8250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -6298,7 +8292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>3</v>
       </c>
@@ -6319,7 +8313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -6340,7 +8334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5</v>
       </c>
@@ -6361,7 +8355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>6</v>
       </c>
@@ -6382,7 +8376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>7</v>
       </c>
@@ -6403,7 +8397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>8</v>
       </c>
@@ -6424,7 +8418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>9</v>
       </c>
@@ -6445,7 +8439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -6487,7 +8481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>3</v>
       </c>
@@ -6508,7 +8502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4</v>
       </c>
@@ -6529,7 +8523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5</v>
       </c>
@@ -6550,7 +8544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>6</v>
       </c>
@@ -6571,7 +8565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>7</v>
       </c>
@@ -6592,7 +8586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8</v>
       </c>
@@ -6613,7 +8607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>9</v>
       </c>
@@ -6634,7 +8628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -6676,7 +8670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>3</v>
       </c>
@@ -6697,7 +8691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4</v>
       </c>
@@ -6718,7 +8712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5</v>
       </c>
@@ -6739,7 +8733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>6</v>
       </c>
@@ -6760,7 +8754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>7</v>
       </c>
@@ -6781,7 +8775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>8</v>
       </c>
@@ -6802,7 +8796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9</v>
       </c>
@@ -6823,7 +8817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -6865,7 +8859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>3</v>
       </c>
@@ -6886,7 +8880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4</v>
       </c>
@@ -6907,7 +8901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5</v>
       </c>
@@ -6928,7 +8922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>6</v>
       </c>
@@ -6949,7 +8943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>7</v>
       </c>
@@ -6970,7 +8964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>8</v>
       </c>
@@ -6991,7 +8985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>9</v>
       </c>
@@ -7012,7 +9006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -7054,7 +9048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>3</v>
       </c>
@@ -7075,7 +9069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4</v>
       </c>
@@ -7096,7 +9090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5</v>
       </c>
@@ -7117,7 +9111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>6</v>
       </c>
@@ -7138,7 +9132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>7</v>
       </c>
@@ -7159,7 +9153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>8</v>
       </c>
@@ -7180,7 +9174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>9</v>
       </c>
@@ -7201,7 +9195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
@@ -7243,7 +9237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3</v>
       </c>
@@ -7264,7 +9258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4</v>
       </c>
@@ -7285,7 +9279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>5</v>
       </c>
@@ -7306,7 +9300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>6</v>
       </c>
@@ -7327,7 +9321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>7</v>
       </c>
@@ -7348,7 +9342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>8</v>
       </c>
@@ -7369,7 +9363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>9</v>
       </c>
@@ -7390,7 +9384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -7432,7 +9426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3</v>
       </c>
@@ -7453,7 +9447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4</v>
       </c>
@@ -7474,7 +9468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>5</v>
       </c>
@@ -7495,7 +9489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>6</v>
       </c>
@@ -7516,7 +9510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>7</v>
       </c>
@@ -7537,7 +9531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8</v>
       </c>
@@ -7558,7 +9552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>9</v>
       </c>
@@ -7579,7 +9573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
@@ -7621,7 +9615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>3</v>
       </c>
@@ -7642,7 +9636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4</v>
       </c>
@@ -7663,7 +9657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>5</v>
       </c>
@@ -7684,7 +9678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>6</v>
       </c>
@@ -7705,7 +9699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>7</v>
       </c>
@@ -7726,7 +9720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>8</v>
       </c>
@@ -7747,7 +9741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>9</v>
       </c>
@@ -7768,7 +9762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
@@ -7810,7 +9804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>3</v>
       </c>
@@ -7831,7 +9825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4</v>
       </c>
@@ -7852,7 +9846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>5</v>
       </c>
@@ -7873,7 +9867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -7894,7 +9888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>7</v>
       </c>
@@ -7915,7 +9909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>8</v>
       </c>
@@ -7936,7 +9930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>9</v>
       </c>
@@ -7957,7 +9951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1</v>
       </c>
@@ -7999,7 +9993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3</v>
       </c>
@@ -8020,7 +10014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4</v>
       </c>
@@ -8041,7 +10035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>5</v>
       </c>
@@ -8062,7 +10056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>6</v>
       </c>
@@ -8083,7 +10077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>7</v>
       </c>
@@ -8104,7 +10098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>8</v>
       </c>
@@ -8125,7 +10119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>9</v>
       </c>
@@ -8146,7 +10140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
@@ -8188,7 +10182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -8209,7 +10203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>4</v>
       </c>
@@ -8230,7 +10224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>5</v>
       </c>
@@ -8251,7 +10245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>6</v>
       </c>
@@ -8272,7 +10266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>7</v>
       </c>
@@ -8293,7 +10287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>8</v>
       </c>
@@ -8314,7 +10308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>9</v>
       </c>
@@ -8335,7 +10329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1</v>
       </c>
@@ -8377,7 +10371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3</v>
       </c>
@@ -8398,7 +10392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>4</v>
       </c>
@@ -8419,7 +10413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>5</v>
       </c>
@@ -8440,7 +10434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>6</v>
       </c>
@@ -8461,7 +10455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>7</v>
       </c>
@@ -8482,7 +10476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>8</v>
       </c>
@@ -8503,7 +10497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>9</v>
       </c>
@@ -8524,7 +10518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1</v>
       </c>
@@ -8566,7 +10560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>3</v>
       </c>
@@ -8587,7 +10581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>4</v>
       </c>
@@ -8608,7 +10602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>5</v>
       </c>
@@ -8629,7 +10623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>6</v>
       </c>
@@ -8650,7 +10644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>7</v>
       </c>
@@ -8671,7 +10665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>8</v>
       </c>
@@ -8692,7 +10686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>9</v>
       </c>
@@ -8713,7 +10707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1</v>
       </c>
@@ -8755,7 +10749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3</v>
       </c>
@@ -8776,7 +10770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>4</v>
       </c>
@@ -8797,7 +10791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>5</v>
       </c>
@@ -8818,7 +10812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -8839,7 +10833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>7</v>
       </c>
@@ -8860,7 +10854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>8</v>
       </c>
@@ -8881,7 +10875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>9</v>
       </c>
@@ -8902,7 +10896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1</v>
       </c>
@@ -8944,7 +10938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>3</v>
       </c>
@@ -8965,7 +10959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>4</v>
       </c>
@@ -8986,7 +10980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>5</v>
       </c>
@@ -9007,7 +11001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>6</v>
       </c>
@@ -9028,7 +11022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>7</v>
       </c>
@@ -9049,7 +11043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>8</v>
       </c>
@@ -9070,7 +11064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>9</v>
       </c>
@@ -9091,7 +11085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1</v>
       </c>
@@ -9133,7 +11127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>3</v>
       </c>
@@ -9154,7 +11148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>4</v>
       </c>
@@ -9175,7 +11169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>5</v>
       </c>
@@ -9196,7 +11190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>6</v>
       </c>
@@ -9217,7 +11211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>7</v>
       </c>
@@ -9238,7 +11232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>8</v>
       </c>
@@ -9259,7 +11253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>9</v>
       </c>
@@ -9280,7 +11274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1</v>
       </c>
@@ -9322,7 +11316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3</v>
       </c>
@@ -9343,7 +11337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>4</v>
       </c>
@@ -9364,7 +11358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>5</v>
       </c>
@@ -9385,7 +11379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>6</v>
       </c>
@@ -9406,7 +11400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>7</v>
       </c>
@@ -9427,7 +11421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>8</v>
       </c>
@@ -9448,7 +11442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>9</v>
       </c>
@@ -9469,7 +11463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1</v>
       </c>
@@ -9511,7 +11505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>3</v>
       </c>
@@ -9532,7 +11526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>4</v>
       </c>
@@ -9553,7 +11547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>5</v>
       </c>
@@ -9574,7 +11568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>6</v>
       </c>
@@ -9595,7 +11589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>7</v>
       </c>
@@ -9616,7 +11610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>8</v>
       </c>
@@ -9637,7 +11631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>9</v>
       </c>
@@ -9658,7 +11652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1</v>
       </c>
@@ -9700,7 +11694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>3</v>
       </c>
@@ -9721,7 +11715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>4</v>
       </c>
@@ -9742,7 +11736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>5</v>
       </c>
@@ -9763,7 +11757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6</v>
       </c>
@@ -9784,7 +11778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7</v>
       </c>
@@ -9805,7 +11799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>8</v>
       </c>
@@ -9826,7 +11820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>9</v>
       </c>
@@ -9847,7 +11841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -9889,7 +11883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>3</v>
       </c>
@@ -9910,7 +11904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>4</v>
       </c>
@@ -9931,7 +11925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>5</v>
       </c>
@@ -9952,7 +11946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>6</v>
       </c>
@@ -9973,7 +11967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>7</v>
       </c>
@@ -9994,7 +11988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>8</v>
       </c>
@@ -10015,7 +12009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>9</v>
       </c>
@@ -10036,7 +12030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1</v>
       </c>
@@ -10082,7 +12076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>3</v>
       </c>
@@ -10103,7 +12097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>4</v>
       </c>
@@ -10124,7 +12118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>5</v>
       </c>
@@ -10145,7 +12139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>6</v>
       </c>
@@ -10166,7 +12160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>7</v>
       </c>
@@ -10187,7 +12181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>8</v>
       </c>
@@ -10208,7 +12202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>9</v>
       </c>
@@ -10229,7 +12223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1</v>
       </c>
@@ -10271,7 +12265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3</v>
       </c>
@@ -10292,7 +12286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4</v>
       </c>
@@ -10313,7 +12307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>5</v>
       </c>
@@ -10334,7 +12328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>6</v>
       </c>
@@ -10355,7 +12349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>7</v>
       </c>
@@ -10376,7 +12370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>8</v>
       </c>
@@ -10397,7 +12391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>9</v>
       </c>
@@ -10418,7 +12412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1</v>
       </c>
@@ -10460,7 +12454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>3</v>
       </c>
@@ -10481,7 +12475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>4</v>
       </c>
@@ -10502,7 +12496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>5</v>
       </c>
@@ -10523,7 +12517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>6</v>
       </c>
@@ -10544,7 +12538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>7</v>
       </c>
@@ -10565,7 +12559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>8</v>
       </c>
@@ -10586,7 +12580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>9</v>
       </c>
@@ -10607,7 +12601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1</v>
       </c>
@@ -10649,7 +12643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>3</v>
       </c>
@@ -10670,7 +12664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>4</v>
       </c>
@@ -10691,7 +12685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>5</v>
       </c>
@@ -10712,7 +12706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>6</v>
       </c>
@@ -10733,7 +12727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>7</v>
       </c>
@@ -10754,7 +12748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>8</v>
       </c>
@@ -10775,7 +12769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9</v>
       </c>
@@ -10796,7 +12790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1</v>
       </c>
@@ -10838,7 +12832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>3</v>
       </c>
@@ -10859,7 +12853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>4</v>
       </c>
@@ -10880,7 +12874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>5</v>
       </c>
@@ -10901,7 +12895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>6</v>
       </c>
@@ -10922,7 +12916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>7</v>
       </c>
@@ -10943,7 +12937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>8</v>
       </c>
@@ -10964,7 +12958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>9</v>
       </c>
@@ -10985,7 +12979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>1</v>
       </c>
@@ -11027,7 +13021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>3</v>
       </c>
@@ -11048,7 +13042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4</v>
       </c>
@@ -11069,7 +13063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>5</v>
       </c>
@@ -11090,7 +13084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>6</v>
       </c>
@@ -11111,7 +13105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>7</v>
       </c>
@@ -11132,7 +13126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>8</v>
       </c>
@@ -11153,7 +13147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>9</v>
       </c>
@@ -11174,7 +13168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1</v>
       </c>
@@ -11216,7 +13210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>3</v>
       </c>
@@ -11237,7 +13231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>4</v>
       </c>
@@ -11258,7 +13252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>5</v>
       </c>
@@ -11279,7 +13273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>6</v>
       </c>
@@ -11300,7 +13294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>7</v>
       </c>
@@ -11321,7 +13315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>8</v>
       </c>
@@ -11342,7 +13336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>9</v>
       </c>
@@ -11363,7 +13357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>1</v>
       </c>
@@ -11405,7 +13399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>3</v>
       </c>
@@ -11426,7 +13420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>4</v>
       </c>
@@ -11447,7 +13441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>5</v>
       </c>
@@ -11468,7 +13462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>6</v>
       </c>
@@ -11489,7 +13483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>7</v>
       </c>
@@ -11510,7 +13504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>8</v>
       </c>
@@ -11531,7 +13525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>9</v>
       </c>
@@ -11552,7 +13546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>1</v>
       </c>
@@ -11594,7 +13588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>3</v>
       </c>
@@ -11615,7 +13609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>4</v>
       </c>
@@ -11636,7 +13630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>5</v>
       </c>
@@ -11657,7 +13651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>6</v>
       </c>
@@ -11678,7 +13672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>7</v>
       </c>
@@ -11699,7 +13693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>8</v>
       </c>
@@ -11720,7 +13714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>9</v>
       </c>
@@ -11741,7 +13735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>1</v>
       </c>
@@ -11783,7 +13777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>3</v>
       </c>
@@ -11804,7 +13798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>4</v>
       </c>
@@ -11825,7 +13819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>5</v>
       </c>
@@ -11846,7 +13840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>6</v>
       </c>
@@ -11867,7 +13861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>7</v>
       </c>
@@ -11888,7 +13882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>8</v>
       </c>
@@ -11909,7 +13903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>9</v>
       </c>
@@ -11930,7 +13924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>1</v>
       </c>
@@ -11972,7 +13966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>3</v>
       </c>
@@ -11993,7 +13987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>4</v>
       </c>
@@ -12014,7 +14008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>5</v>
       </c>
@@ -12035,7 +14029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>6</v>
       </c>
@@ -12056,7 +14050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>7</v>
       </c>
@@ -12077,7 +14071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>8</v>
       </c>
@@ -12098,7 +14092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>9</v>
       </c>
@@ -12119,7 +14113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>1</v>
       </c>
@@ -12161,7 +14155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>3</v>
       </c>
@@ -12182,7 +14176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>4</v>
       </c>
@@ -12203,7 +14197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>5</v>
       </c>
@@ -12224,7 +14218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>6</v>
       </c>
@@ -12245,7 +14239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>7</v>
       </c>
@@ -12266,7 +14260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>8</v>
       </c>
@@ -12287,7 +14281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>9</v>
       </c>
@@ -12308,7 +14302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>1</v>
       </c>
@@ -12350,7 +14344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>3</v>
       </c>
@@ -12371,7 +14365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>4</v>
       </c>
@@ -12392,7 +14386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>5</v>
       </c>
@@ -12413,7 +14407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>6</v>
       </c>
@@ -12434,7 +14428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>7</v>
       </c>
@@ -12455,7 +14449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>8</v>
       </c>
@@ -12476,7 +14470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>9</v>
       </c>
@@ -12497,7 +14491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>1</v>
       </c>
@@ -12539,7 +14533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>3</v>
       </c>
@@ -12560,7 +14554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>4</v>
       </c>
@@ -12581,7 +14575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>5</v>
       </c>
@@ -12602,7 +14596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>6</v>
       </c>
@@ -12623,7 +14617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>7</v>
       </c>
@@ -12644,7 +14638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>8</v>
       </c>
@@ -12665,7 +14659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>9</v>
       </c>
@@ -12686,7 +14680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>1</v>
       </c>
@@ -12694,6 +14688,9 @@
         <f t="shared" ref="B524" si="328">B515+1</f>
         <v>43379</v>
       </c>
+      <c r="C524">
+        <v>393</v>
+      </c>
       <c r="D524">
         <v>1</v>
       </c>
@@ -12712,6 +14709,9 @@
         <f t="shared" ref="B525" si="329">B524</f>
         <v>43379</v>
       </c>
+      <c r="C525">
+        <v>362</v>
+      </c>
       <c r="D525">
         <v>1</v>
       </c>
@@ -12722,7 +14722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>3</v>
       </c>
@@ -12730,6 +14730,9 @@
         <f t="shared" ref="B526" si="330">B517+1</f>
         <v>43379</v>
       </c>
+      <c r="C526">
+        <v>363</v>
+      </c>
       <c r="D526">
         <v>1</v>
       </c>
@@ -12740,7 +14743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>4</v>
       </c>
@@ -12748,6 +14751,9 @@
         <f t="shared" ref="B527" si="331">B526</f>
         <v>43379</v>
       </c>
+      <c r="C527">
+        <v>408</v>
+      </c>
       <c r="D527">
         <v>2</v>
       </c>
@@ -12758,7 +14764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>5</v>
       </c>
@@ -12766,6 +14772,9 @@
         <f t="shared" ref="B528:B529" si="332">B519+1</f>
         <v>43379</v>
       </c>
+      <c r="C528">
+        <v>395</v>
+      </c>
       <c r="D528">
         <v>2</v>
       </c>
@@ -12776,7 +14785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>6</v>
       </c>
@@ -12784,6 +14793,9 @@
         <f t="shared" si="332"/>
         <v>43379</v>
       </c>
+      <c r="C529">
+        <v>426</v>
+      </c>
       <c r="D529">
         <v>2</v>
       </c>
@@ -12794,7 +14806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>7</v>
       </c>
@@ -12802,6 +14814,9 @@
         <f t="shared" ref="B530" si="333">B529</f>
         <v>43379</v>
       </c>
+      <c r="C530">
+        <v>365</v>
+      </c>
       <c r="D530">
         <v>3</v>
       </c>
@@ -12812,7 +14827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>8</v>
       </c>
@@ -12820,6 +14835,9 @@
         <f t="shared" ref="B531" si="334">B522+1</f>
         <v>43379</v>
       </c>
+      <c r="C531">
+        <v>415</v>
+      </c>
       <c r="D531">
         <v>3</v>
       </c>
@@ -12830,7 +14848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>9</v>
       </c>
@@ -12838,6 +14856,9 @@
         <f t="shared" ref="B532" si="335">B531</f>
         <v>43379</v>
       </c>
+      <c r="C532">
+        <v>404</v>
+      </c>
       <c r="D532">
         <v>3</v>
       </c>
@@ -12848,7 +14869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>1</v>
       </c>
@@ -12884,7 +14905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>3</v>
       </c>
@@ -12902,7 +14923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>4</v>
       </c>
@@ -12920,7 +14941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5</v>
       </c>
@@ -12938,7 +14959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>6</v>
       </c>
@@ -12956,7 +14977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>7</v>
       </c>
@@ -12974,7 +14995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>8</v>
       </c>
@@ -12992,7 +15013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>9</v>
       </c>
@@ -13010,7 +15031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1</v>
       </c>
@@ -13046,7 +15067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>3</v>
       </c>
@@ -13064,7 +15085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>4</v>
       </c>
@@ -13082,7 +15103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>5</v>
       </c>
@@ -13100,7 +15121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>6</v>
       </c>
@@ -13118,7 +15139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>7</v>
       </c>
@@ -13136,7 +15157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>8</v>
       </c>
@@ -13154,7 +15175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>9</v>
       </c>
@@ -13172,7 +15193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>1</v>
       </c>
@@ -13208,7 +15229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>3</v>
       </c>
@@ -13226,7 +15247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>4</v>
       </c>
@@ -13244,7 +15265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>5</v>
       </c>
@@ -13262,7 +15283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>6</v>
       </c>
@@ -13280,7 +15301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>7</v>
       </c>
@@ -13298,7 +15319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>8</v>
       </c>
@@ -13316,7 +15337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>9</v>
       </c>
@@ -13335,13 +15356,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A559" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A559" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A221ABA0-CF2C-45B6-B472-87C958F7BD56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E32760AF-CB10-4D40-B20A-FAAA92265EF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -3729,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
   <dimension ref="A1:H559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="C533" sqref="C533"/>
+    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="C542" sqref="C542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14877,6 +14877,9 @@
         <f t="shared" ref="B533" si="336">B524+1</f>
         <v>43380</v>
       </c>
+      <c r="C533">
+        <v>389</v>
+      </c>
       <c r="D533">
         <v>1</v>
       </c>
@@ -14895,6 +14898,9 @@
         <f t="shared" ref="B534" si="337">B533</f>
         <v>43380</v>
       </c>
+      <c r="C534">
+        <v>357</v>
+      </c>
       <c r="D534">
         <v>1</v>
       </c>
@@ -14913,6 +14919,9 @@
         <f t="shared" ref="B535" si="338">B526+1</f>
         <v>43380</v>
       </c>
+      <c r="C535">
+        <v>359</v>
+      </c>
       <c r="D535">
         <v>1</v>
       </c>
@@ -14931,6 +14940,9 @@
         <f t="shared" ref="B536" si="339">B535</f>
         <v>43380</v>
       </c>
+      <c r="C536">
+        <v>406</v>
+      </c>
       <c r="D536">
         <v>2</v>
       </c>
@@ -14949,6 +14961,9 @@
         <f t="shared" ref="B537:B538" si="340">B528+1</f>
         <v>43380</v>
       </c>
+      <c r="C537">
+        <v>394</v>
+      </c>
       <c r="D537">
         <v>2</v>
       </c>
@@ -14967,6 +14982,9 @@
         <f t="shared" si="340"/>
         <v>43380</v>
       </c>
+      <c r="C538">
+        <v>423</v>
+      </c>
       <c r="D538">
         <v>2</v>
       </c>
@@ -14985,6 +15003,9 @@
         <f t="shared" ref="B539" si="341">B538</f>
         <v>43380</v>
       </c>
+      <c r="C539">
+        <v>365</v>
+      </c>
       <c r="D539">
         <v>3</v>
       </c>
@@ -15003,6 +15024,9 @@
         <f t="shared" ref="B540" si="342">B531+1</f>
         <v>43380</v>
       </c>
+      <c r="C540">
+        <v>414</v>
+      </c>
       <c r="D540">
         <v>3</v>
       </c>
@@ -15020,6 +15044,9 @@
       <c r="B541" s="1">
         <f t="shared" ref="B541" si="343">B540</f>
         <v>43380</v>
+      </c>
+      <c r="C541">
+        <v>400</v>
       </c>
       <c r="D541">
         <v>3</v>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E32760AF-CB10-4D40-B20A-FAAA92265EF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B68CA5D1-EA14-4734-B041-125B1D7F2B64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -3729,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
   <dimension ref="A1:H559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="C542" sqref="C542"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="C551" sqref="C551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15066,6 +15066,9 @@
         <f t="shared" ref="B542" si="344">B533+1</f>
         <v>43381</v>
       </c>
+      <c r="C542">
+        <v>386</v>
+      </c>
       <c r="D542">
         <v>1</v>
       </c>
@@ -15084,6 +15087,9 @@
         <f t="shared" ref="B543" si="345">B542</f>
         <v>43381</v>
       </c>
+      <c r="C543">
+        <v>355</v>
+      </c>
       <c r="D543">
         <v>1</v>
       </c>
@@ -15102,6 +15108,9 @@
         <f t="shared" ref="B544" si="346">B535+1</f>
         <v>43381</v>
       </c>
+      <c r="C544">
+        <v>354</v>
+      </c>
       <c r="D544">
         <v>1</v>
       </c>
@@ -15120,6 +15129,9 @@
         <f t="shared" ref="B545" si="347">B544</f>
         <v>43381</v>
       </c>
+      <c r="C545">
+        <v>401</v>
+      </c>
       <c r="D545">
         <v>2</v>
       </c>
@@ -15138,6 +15150,9 @@
         <f t="shared" ref="B546:B547" si="348">B537+1</f>
         <v>43381</v>
       </c>
+      <c r="C546">
+        <v>391</v>
+      </c>
       <c r="D546">
         <v>2</v>
       </c>
@@ -15156,6 +15171,9 @@
         <f t="shared" si="348"/>
         <v>43381</v>
       </c>
+      <c r="C547">
+        <v>416</v>
+      </c>
       <c r="D547">
         <v>2</v>
       </c>
@@ -15174,6 +15192,9 @@
         <f t="shared" ref="B548" si="349">B547</f>
         <v>43381</v>
       </c>
+      <c r="C548">
+        <v>363</v>
+      </c>
       <c r="D548">
         <v>3</v>
       </c>
@@ -15192,6 +15213,9 @@
         <f t="shared" ref="B549" si="350">B540+1</f>
         <v>43381</v>
       </c>
+      <c r="C549">
+        <v>409</v>
+      </c>
       <c r="D549">
         <v>3</v>
       </c>
@@ -15209,6 +15233,9 @@
       <c r="B550" s="1">
         <f t="shared" ref="B550" si="351">B549</f>
         <v>43381</v>
+      </c>
+      <c r="C550">
+        <v>396</v>
       </c>
       <c r="D550">
         <v>3</v>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B68CA5D1-EA14-4734-B041-125B1D7F2B64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3CE155E9-9059-4A77-9B05-F273DEEAA9DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -102,7 +102,10 @@
     <t>Weight_g</t>
   </si>
   <si>
-    <t>Deprivation Started</t>
+    <t>Deprivation Started at 10g</t>
+  </si>
+  <si>
+    <t>Start feeding 20g per day</t>
   </si>
 </sst>
 </file>
@@ -3727,10 +3730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:H559"/>
+  <dimension ref="A1:I622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="C551" sqref="C551"/>
+    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="C587" sqref="C587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11757,7 +11760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6</v>
       </c>
@@ -11778,7 +11781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>8</v>
       </c>
@@ -11820,7 +11823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>9</v>
       </c>
@@ -11841,7 +11844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -11862,7 +11865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -11883,7 +11886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>3</v>
       </c>
@@ -11904,7 +11907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>4</v>
       </c>
@@ -11925,7 +11928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>5</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>6</v>
       </c>
@@ -11967,7 +11970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>7</v>
       </c>
@@ -11988,7 +11991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>8</v>
       </c>
@@ -12009,7 +12012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>9</v>
       </c>
@@ -12030,7 +12033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1</v>
       </c>
@@ -12054,8 +12057,9 @@
         <v>24</v>
       </c>
       <c r="H398" s="4"/>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I398" s="4"/>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -12076,7 +12080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>3</v>
       </c>
@@ -14785,7 +14789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>6</v>
       </c>
@@ -14806,7 +14810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>7</v>
       </c>
@@ -14827,7 +14831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>8</v>
       </c>
@@ -14848,7 +14852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>9</v>
       </c>
@@ -14869,7 +14873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>1</v>
       </c>
@@ -14890,7 +14894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>2</v>
       </c>
@@ -14911,7 +14915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>3</v>
       </c>
@@ -14932,7 +14936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>4</v>
       </c>
@@ -14953,7 +14957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5</v>
       </c>
@@ -14974,7 +14978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>6</v>
       </c>
@@ -14995,7 +14999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>7</v>
       </c>
@@ -15016,7 +15020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>8</v>
       </c>
@@ -15037,7 +15041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>9</v>
       </c>
@@ -15058,7 +15062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1</v>
       </c>
@@ -15078,8 +15082,13 @@
       <c r="F542" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G542" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H542" s="4"/>
+      <c r="I542" s="4"/>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>2</v>
       </c>
@@ -15100,7 +15109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>3</v>
       </c>
@@ -15255,6 +15264,9 @@
         <f t="shared" ref="B551" si="352">B542+1</f>
         <v>43382</v>
       </c>
+      <c r="C551">
+        <v>388</v>
+      </c>
       <c r="D551">
         <v>1</v>
       </c>
@@ -15273,6 +15285,9 @@
         <f t="shared" ref="B552" si="353">B551</f>
         <v>43382</v>
       </c>
+      <c r="C552">
+        <v>361</v>
+      </c>
       <c r="D552">
         <v>1</v>
       </c>
@@ -15291,6 +15306,9 @@
         <f t="shared" ref="B553" si="354">B544+1</f>
         <v>43382</v>
       </c>
+      <c r="C553">
+        <v>355</v>
+      </c>
       <c r="D553">
         <v>1</v>
       </c>
@@ -15309,6 +15327,9 @@
         <f t="shared" ref="B554" si="355">B553</f>
         <v>43382</v>
       </c>
+      <c r="C554">
+        <v>397</v>
+      </c>
       <c r="D554">
         <v>2</v>
       </c>
@@ -15327,6 +15348,9 @@
         <f t="shared" ref="B555:B556" si="356">B546+1</f>
         <v>43382</v>
       </c>
+      <c r="C555">
+        <v>392</v>
+      </c>
       <c r="D555">
         <v>2</v>
       </c>
@@ -15345,6 +15369,9 @@
         <f t="shared" si="356"/>
         <v>43382</v>
       </c>
+      <c r="C556">
+        <v>416</v>
+      </c>
       <c r="D556">
         <v>2</v>
       </c>
@@ -15363,6 +15390,9 @@
         <f t="shared" ref="B557" si="357">B556</f>
         <v>43382</v>
       </c>
+      <c r="C557">
+        <v>359</v>
+      </c>
       <c r="D557">
         <v>3</v>
       </c>
@@ -15381,6 +15411,9 @@
         <f t="shared" ref="B558" si="358">B549+1</f>
         <v>43382</v>
       </c>
+      <c r="C558">
+        <v>409</v>
+      </c>
       <c r="D558">
         <v>3</v>
       </c>
@@ -15399,6 +15432,9 @@
         <f t="shared" ref="B559" si="359">B558</f>
         <v>43382</v>
       </c>
+      <c r="C559">
+        <v>400</v>
+      </c>
       <c r="D559">
         <v>3</v>
       </c>
@@ -15406,6 +15442,1221 @@
         <v>10</v>
       </c>
       <c r="F559" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>1</v>
+      </c>
+      <c r="B560" s="1">
+        <f t="shared" ref="B560" si="360">B551+1</f>
+        <v>43383</v>
+      </c>
+      <c r="C560">
+        <v>387</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+      <c r="E560" t="s">
+        <v>2</v>
+      </c>
+      <c r="F560" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>2</v>
+      </c>
+      <c r="B561" s="1">
+        <f t="shared" ref="B561" si="361">B560</f>
+        <v>43383</v>
+      </c>
+      <c r="C561">
+        <v>368</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+      <c r="E561" t="s">
+        <v>3</v>
+      </c>
+      <c r="F561" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>3</v>
+      </c>
+      <c r="B562" s="1">
+        <f t="shared" ref="B562" si="362">B553+1</f>
+        <v>43383</v>
+      </c>
+      <c r="C562">
+        <v>358</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="E562" t="s">
+        <v>4</v>
+      </c>
+      <c r="F562" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>4</v>
+      </c>
+      <c r="B563" s="1">
+        <f t="shared" ref="B563" si="363">B562</f>
+        <v>43383</v>
+      </c>
+      <c r="C563">
+        <v>400</v>
+      </c>
+      <c r="D563">
+        <v>2</v>
+      </c>
+      <c r="E563" t="s">
+        <v>6</v>
+      </c>
+      <c r="F563" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>5</v>
+      </c>
+      <c r="B564" s="1">
+        <f t="shared" ref="B564:B565" si="364">B555+1</f>
+        <v>43383</v>
+      </c>
+      <c r="C564">
+        <v>403</v>
+      </c>
+      <c r="D564">
+        <v>2</v>
+      </c>
+      <c r="E564" t="s">
+        <v>5</v>
+      </c>
+      <c r="F564" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>6</v>
+      </c>
+      <c r="B565" s="1">
+        <f t="shared" si="364"/>
+        <v>43383</v>
+      </c>
+      <c r="C565">
+        <v>418</v>
+      </c>
+      <c r="D565">
+        <v>2</v>
+      </c>
+      <c r="E565" t="s">
+        <v>7</v>
+      </c>
+      <c r="F565" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>7</v>
+      </c>
+      <c r="B566" s="1">
+        <f t="shared" ref="B566" si="365">B565</f>
+        <v>43383</v>
+      </c>
+      <c r="C566">
+        <v>366</v>
+      </c>
+      <c r="D566">
+        <v>3</v>
+      </c>
+      <c r="E566" t="s">
+        <v>8</v>
+      </c>
+      <c r="F566" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>8</v>
+      </c>
+      <c r="B567" s="1">
+        <f t="shared" ref="B567" si="366">B558+1</f>
+        <v>43383</v>
+      </c>
+      <c r="C567">
+        <v>413</v>
+      </c>
+      <c r="D567">
+        <v>3</v>
+      </c>
+      <c r="E567" t="s">
+        <v>9</v>
+      </c>
+      <c r="F567" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>9</v>
+      </c>
+      <c r="B568" s="1">
+        <f t="shared" ref="B568" si="367">B567</f>
+        <v>43383</v>
+      </c>
+      <c r="C568">
+        <v>406</v>
+      </c>
+      <c r="D568">
+        <v>3</v>
+      </c>
+      <c r="E568" t="s">
+        <v>10</v>
+      </c>
+      <c r="F568" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>1</v>
+      </c>
+      <c r="B569" s="1">
+        <f t="shared" ref="B569" si="368">B560+1</f>
+        <v>43384</v>
+      </c>
+      <c r="C569">
+        <v>395</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569" t="s">
+        <v>2</v>
+      </c>
+      <c r="F569" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>2</v>
+      </c>
+      <c r="B570" s="1">
+        <f t="shared" ref="B570" si="369">B569</f>
+        <v>43384</v>
+      </c>
+      <c r="C570">
+        <v>371</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570" t="s">
+        <v>3</v>
+      </c>
+      <c r="F570" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>3</v>
+      </c>
+      <c r="B571" s="1">
+        <f t="shared" ref="B571" si="370">B562+1</f>
+        <v>43384</v>
+      </c>
+      <c r="C571">
+        <v>363</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571" t="s">
+        <v>4</v>
+      </c>
+      <c r="F571" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>4</v>
+      </c>
+      <c r="B572" s="1">
+        <f t="shared" ref="B572" si="371">B571</f>
+        <v>43384</v>
+      </c>
+      <c r="C572">
+        <v>410</v>
+      </c>
+      <c r="D572">
+        <v>2</v>
+      </c>
+      <c r="E572" t="s">
+        <v>6</v>
+      </c>
+      <c r="F572" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>5</v>
+      </c>
+      <c r="B573" s="1">
+        <f t="shared" ref="B573:B574" si="372">B564+1</f>
+        <v>43384</v>
+      </c>
+      <c r="C573">
+        <v>403</v>
+      </c>
+      <c r="D573">
+        <v>2</v>
+      </c>
+      <c r="E573" t="s">
+        <v>5</v>
+      </c>
+      <c r="F573" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>6</v>
+      </c>
+      <c r="B574" s="1">
+        <f t="shared" si="372"/>
+        <v>43384</v>
+      </c>
+      <c r="C574">
+        <v>418</v>
+      </c>
+      <c r="D574">
+        <v>2</v>
+      </c>
+      <c r="E574" t="s">
+        <v>7</v>
+      </c>
+      <c r="F574" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>7</v>
+      </c>
+      <c r="B575" s="1">
+        <f t="shared" ref="B575" si="373">B574</f>
+        <v>43384</v>
+      </c>
+      <c r="C575">
+        <v>368</v>
+      </c>
+      <c r="D575">
+        <v>3</v>
+      </c>
+      <c r="E575" t="s">
+        <v>8</v>
+      </c>
+      <c r="F575" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>8</v>
+      </c>
+      <c r="B576" s="1">
+        <f t="shared" ref="B576" si="374">B567+1</f>
+        <v>43384</v>
+      </c>
+      <c r="C576">
+        <v>414</v>
+      </c>
+      <c r="D576">
+        <v>3</v>
+      </c>
+      <c r="E576" t="s">
+        <v>9</v>
+      </c>
+      <c r="F576" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>9</v>
+      </c>
+      <c r="B577" s="1">
+        <f t="shared" ref="B577" si="375">B576</f>
+        <v>43384</v>
+      </c>
+      <c r="C577">
+        <v>406</v>
+      </c>
+      <c r="D577">
+        <v>3</v>
+      </c>
+      <c r="E577" t="s">
+        <v>10</v>
+      </c>
+      <c r="F577" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>1</v>
+      </c>
+      <c r="B578" s="1">
+        <f t="shared" ref="B578" si="376">B569+1</f>
+        <v>43385</v>
+      </c>
+      <c r="C578">
+        <v>390</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
+      </c>
+      <c r="E578" t="s">
+        <v>2</v>
+      </c>
+      <c r="F578" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>2</v>
+      </c>
+      <c r="B579" s="1">
+        <f t="shared" ref="B579" si="377">B578</f>
+        <v>43385</v>
+      </c>
+      <c r="C579">
+        <v>378</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579" t="s">
+        <v>3</v>
+      </c>
+      <c r="F579" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>3</v>
+      </c>
+      <c r="B580" s="1">
+        <f t="shared" ref="B580" si="378">B571+1</f>
+        <v>43385</v>
+      </c>
+      <c r="C580">
+        <v>364</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+      <c r="E580" t="s">
+        <v>4</v>
+      </c>
+      <c r="F580" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>4</v>
+      </c>
+      <c r="B581" s="1">
+        <f t="shared" ref="B581" si="379">B580</f>
+        <v>43385</v>
+      </c>
+      <c r="C581">
+        <v>408</v>
+      </c>
+      <c r="D581">
+        <v>2</v>
+      </c>
+      <c r="E581" t="s">
+        <v>6</v>
+      </c>
+      <c r="F581" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>5</v>
+      </c>
+      <c r="B582" s="1">
+        <f t="shared" ref="B582:B583" si="380">B573+1</f>
+        <v>43385</v>
+      </c>
+      <c r="C582">
+        <v>399</v>
+      </c>
+      <c r="D582">
+        <v>2</v>
+      </c>
+      <c r="E582" t="s">
+        <v>5</v>
+      </c>
+      <c r="F582" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>6</v>
+      </c>
+      <c r="B583" s="1">
+        <f t="shared" si="380"/>
+        <v>43385</v>
+      </c>
+      <c r="C583">
+        <v>419</v>
+      </c>
+      <c r="D583">
+        <v>2</v>
+      </c>
+      <c r="E583" t="s">
+        <v>7</v>
+      </c>
+      <c r="F583" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>7</v>
+      </c>
+      <c r="B584" s="1">
+        <f t="shared" ref="B584" si="381">B583</f>
+        <v>43385</v>
+      </c>
+      <c r="C584">
+        <v>375</v>
+      </c>
+      <c r="D584">
+        <v>3</v>
+      </c>
+      <c r="E584" t="s">
+        <v>8</v>
+      </c>
+      <c r="F584" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>8</v>
+      </c>
+      <c r="B585" s="1">
+        <f t="shared" ref="B585" si="382">B576+1</f>
+        <v>43385</v>
+      </c>
+      <c r="C585">
+        <v>418</v>
+      </c>
+      <c r="D585">
+        <v>3</v>
+      </c>
+      <c r="E585" t="s">
+        <v>9</v>
+      </c>
+      <c r="F585" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>9</v>
+      </c>
+      <c r="B586" s="1">
+        <f t="shared" ref="B586" si="383">B585</f>
+        <v>43385</v>
+      </c>
+      <c r="C586">
+        <v>406</v>
+      </c>
+      <c r="D586">
+        <v>3</v>
+      </c>
+      <c r="E586" t="s">
+        <v>10</v>
+      </c>
+      <c r="F586" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>1</v>
+      </c>
+      <c r="B587" s="1">
+        <f t="shared" ref="B587" si="384">B578+1</f>
+        <v>43386</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="E587" t="s">
+        <v>2</v>
+      </c>
+      <c r="F587" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>2</v>
+      </c>
+      <c r="B588" s="1">
+        <f t="shared" ref="B588" si="385">B587</f>
+        <v>43386</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588" t="s">
+        <v>3</v>
+      </c>
+      <c r="F588" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>3</v>
+      </c>
+      <c r="B589" s="1">
+        <f t="shared" ref="B589" si="386">B580+1</f>
+        <v>43386</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589" t="s">
+        <v>4</v>
+      </c>
+      <c r="F589" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>4</v>
+      </c>
+      <c r="B590" s="1">
+        <f t="shared" ref="B590" si="387">B589</f>
+        <v>43386</v>
+      </c>
+      <c r="D590">
+        <v>2</v>
+      </c>
+      <c r="E590" t="s">
+        <v>6</v>
+      </c>
+      <c r="F590" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>5</v>
+      </c>
+      <c r="B591" s="1">
+        <f t="shared" ref="B591:B592" si="388">B582+1</f>
+        <v>43386</v>
+      </c>
+      <c r="D591">
+        <v>2</v>
+      </c>
+      <c r="E591" t="s">
+        <v>5</v>
+      </c>
+      <c r="F591" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>6</v>
+      </c>
+      <c r="B592" s="1">
+        <f t="shared" si="388"/>
+        <v>43386</v>
+      </c>
+      <c r="D592">
+        <v>2</v>
+      </c>
+      <c r="E592" t="s">
+        <v>7</v>
+      </c>
+      <c r="F592" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>7</v>
+      </c>
+      <c r="B593" s="1">
+        <f t="shared" ref="B593" si="389">B592</f>
+        <v>43386</v>
+      </c>
+      <c r="D593">
+        <v>3</v>
+      </c>
+      <c r="E593" t="s">
+        <v>8</v>
+      </c>
+      <c r="F593" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>8</v>
+      </c>
+      <c r="B594" s="1">
+        <f t="shared" ref="B594" si="390">B585+1</f>
+        <v>43386</v>
+      </c>
+      <c r="D594">
+        <v>3</v>
+      </c>
+      <c r="E594" t="s">
+        <v>9</v>
+      </c>
+      <c r="F594" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>9</v>
+      </c>
+      <c r="B595" s="1">
+        <f t="shared" ref="B595" si="391">B594</f>
+        <v>43386</v>
+      </c>
+      <c r="D595">
+        <v>3</v>
+      </c>
+      <c r="E595" t="s">
+        <v>10</v>
+      </c>
+      <c r="F595" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>1</v>
+      </c>
+      <c r="B596" s="1">
+        <f t="shared" ref="B596" si="392">B587+1</f>
+        <v>43387</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="E596" t="s">
+        <v>2</v>
+      </c>
+      <c r="F596" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>2</v>
+      </c>
+      <c r="B597" s="1">
+        <f t="shared" ref="B597" si="393">B596</f>
+        <v>43387</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597" t="s">
+        <v>3</v>
+      </c>
+      <c r="F597" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>3</v>
+      </c>
+      <c r="B598" s="1">
+        <f t="shared" ref="B598" si="394">B589+1</f>
+        <v>43387</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+      <c r="E598" t="s">
+        <v>4</v>
+      </c>
+      <c r="F598" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>4</v>
+      </c>
+      <c r="B599" s="1">
+        <f t="shared" ref="B599" si="395">B598</f>
+        <v>43387</v>
+      </c>
+      <c r="D599">
+        <v>2</v>
+      </c>
+      <c r="E599" t="s">
+        <v>6</v>
+      </c>
+      <c r="F599" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>5</v>
+      </c>
+      <c r="B600" s="1">
+        <f t="shared" ref="B600:B601" si="396">B591+1</f>
+        <v>43387</v>
+      </c>
+      <c r="D600">
+        <v>2</v>
+      </c>
+      <c r="E600" t="s">
+        <v>5</v>
+      </c>
+      <c r="F600" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>6</v>
+      </c>
+      <c r="B601" s="1">
+        <f t="shared" si="396"/>
+        <v>43387</v>
+      </c>
+      <c r="D601">
+        <v>2</v>
+      </c>
+      <c r="E601" t="s">
+        <v>7</v>
+      </c>
+      <c r="F601" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>7</v>
+      </c>
+      <c r="B602" s="1">
+        <f t="shared" ref="B602" si="397">B601</f>
+        <v>43387</v>
+      </c>
+      <c r="D602">
+        <v>3</v>
+      </c>
+      <c r="E602" t="s">
+        <v>8</v>
+      </c>
+      <c r="F602" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>8</v>
+      </c>
+      <c r="B603" s="1">
+        <f t="shared" ref="B603" si="398">B594+1</f>
+        <v>43387</v>
+      </c>
+      <c r="D603">
+        <v>3</v>
+      </c>
+      <c r="E603" t="s">
+        <v>9</v>
+      </c>
+      <c r="F603" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>9</v>
+      </c>
+      <c r="B604" s="1">
+        <f t="shared" ref="B604" si="399">B603</f>
+        <v>43387</v>
+      </c>
+      <c r="D604">
+        <v>3</v>
+      </c>
+      <c r="E604" t="s">
+        <v>10</v>
+      </c>
+      <c r="F604" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>1</v>
+      </c>
+      <c r="B605" s="1">
+        <f t="shared" ref="B605" si="400">B596+1</f>
+        <v>43388</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605" t="s">
+        <v>2</v>
+      </c>
+      <c r="F605" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>2</v>
+      </c>
+      <c r="B606" s="1">
+        <f t="shared" ref="B606" si="401">B605</f>
+        <v>43388</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606" t="s">
+        <v>3</v>
+      </c>
+      <c r="F606" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>3</v>
+      </c>
+      <c r="B607" s="1">
+        <f t="shared" ref="B607" si="402">B598+1</f>
+        <v>43388</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607" t="s">
+        <v>4</v>
+      </c>
+      <c r="F607" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>4</v>
+      </c>
+      <c r="B608" s="1">
+        <f t="shared" ref="B608" si="403">B607</f>
+        <v>43388</v>
+      </c>
+      <c r="D608">
+        <v>2</v>
+      </c>
+      <c r="E608" t="s">
+        <v>6</v>
+      </c>
+      <c r="F608" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>5</v>
+      </c>
+      <c r="B609" s="1">
+        <f t="shared" ref="B609:B610" si="404">B600+1</f>
+        <v>43388</v>
+      </c>
+      <c r="D609">
+        <v>2</v>
+      </c>
+      <c r="E609" t="s">
+        <v>5</v>
+      </c>
+      <c r="F609" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>6</v>
+      </c>
+      <c r="B610" s="1">
+        <f t="shared" si="404"/>
+        <v>43388</v>
+      </c>
+      <c r="D610">
+        <v>2</v>
+      </c>
+      <c r="E610" t="s">
+        <v>7</v>
+      </c>
+      <c r="F610" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>7</v>
+      </c>
+      <c r="B611" s="1">
+        <f t="shared" ref="B611" si="405">B610</f>
+        <v>43388</v>
+      </c>
+      <c r="D611">
+        <v>3</v>
+      </c>
+      <c r="E611" t="s">
+        <v>8</v>
+      </c>
+      <c r="F611" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>8</v>
+      </c>
+      <c r="B612" s="1">
+        <f t="shared" ref="B612" si="406">B603+1</f>
+        <v>43388</v>
+      </c>
+      <c r="D612">
+        <v>3</v>
+      </c>
+      <c r="E612" t="s">
+        <v>9</v>
+      </c>
+      <c r="F612" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>9</v>
+      </c>
+      <c r="B613" s="1">
+        <f t="shared" ref="B613" si="407">B612</f>
+        <v>43388</v>
+      </c>
+      <c r="D613">
+        <v>3</v>
+      </c>
+      <c r="E613" t="s">
+        <v>10</v>
+      </c>
+      <c r="F613" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>1</v>
+      </c>
+      <c r="B614" s="1">
+        <f t="shared" ref="B614" si="408">B605+1</f>
+        <v>43389</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
+      </c>
+      <c r="E614" t="s">
+        <v>2</v>
+      </c>
+      <c r="F614" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>2</v>
+      </c>
+      <c r="B615" s="1">
+        <f t="shared" ref="B615" si="409">B614</f>
+        <v>43389</v>
+      </c>
+      <c r="D615">
+        <v>1</v>
+      </c>
+      <c r="E615" t="s">
+        <v>3</v>
+      </c>
+      <c r="F615" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>3</v>
+      </c>
+      <c r="B616" s="1">
+        <f t="shared" ref="B616" si="410">B607+1</f>
+        <v>43389</v>
+      </c>
+      <c r="D616">
+        <v>1</v>
+      </c>
+      <c r="E616" t="s">
+        <v>4</v>
+      </c>
+      <c r="F616" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>4</v>
+      </c>
+      <c r="B617" s="1">
+        <f t="shared" ref="B617" si="411">B616</f>
+        <v>43389</v>
+      </c>
+      <c r="D617">
+        <v>2</v>
+      </c>
+      <c r="E617" t="s">
+        <v>6</v>
+      </c>
+      <c r="F617" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>5</v>
+      </c>
+      <c r="B618" s="1">
+        <f t="shared" ref="B618:B619" si="412">B609+1</f>
+        <v>43389</v>
+      </c>
+      <c r="D618">
+        <v>2</v>
+      </c>
+      <c r="E618" t="s">
+        <v>5</v>
+      </c>
+      <c r="F618" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>6</v>
+      </c>
+      <c r="B619" s="1">
+        <f t="shared" si="412"/>
+        <v>43389</v>
+      </c>
+      <c r="D619">
+        <v>2</v>
+      </c>
+      <c r="E619" t="s">
+        <v>7</v>
+      </c>
+      <c r="F619" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>7</v>
+      </c>
+      <c r="B620" s="1">
+        <f t="shared" ref="B620" si="413">B619</f>
+        <v>43389</v>
+      </c>
+      <c r="D620">
+        <v>3</v>
+      </c>
+      <c r="E620" t="s">
+        <v>8</v>
+      </c>
+      <c r="F620" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>8</v>
+      </c>
+      <c r="B621" s="1">
+        <f t="shared" ref="B621" si="414">B612+1</f>
+        <v>43389</v>
+      </c>
+      <c r="D621">
+        <v>3</v>
+      </c>
+      <c r="E621" t="s">
+        <v>9</v>
+      </c>
+      <c r="F621" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>9</v>
+      </c>
+      <c r="B622" s="1">
+        <f t="shared" ref="B622" si="415">B621</f>
+        <v>43389</v>
+      </c>
+      <c r="D622">
+        <v>3</v>
+      </c>
+      <c r="E622" t="s">
+        <v>10</v>
+      </c>
+      <c r="F622" t="s">
         <v>20</v>
       </c>
     </row>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3CE155E9-9059-4A77-9B05-F273DEEAA9DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8285644B-6F49-46E5-894C-70F98C2F7E43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rat Colony" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$559</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$622</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -3732,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
   <dimension ref="A1:I622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
-      <selection activeCell="C587" sqref="C587"/>
+    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
+      <selection activeCell="C596" sqref="C596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16020,6 +16020,9 @@
         <f t="shared" ref="B587" si="384">B578+1</f>
         <v>43386</v>
       </c>
+      <c r="C587">
+        <v>389</v>
+      </c>
       <c r="D587">
         <v>1</v>
       </c>
@@ -16038,6 +16041,9 @@
         <f t="shared" ref="B588" si="385">B587</f>
         <v>43386</v>
       </c>
+      <c r="C588">
+        <v>379</v>
+      </c>
       <c r="D588">
         <v>1</v>
       </c>
@@ -16056,6 +16062,9 @@
         <f t="shared" ref="B589" si="386">B580+1</f>
         <v>43386</v>
       </c>
+      <c r="C589">
+        <v>360</v>
+      </c>
       <c r="D589">
         <v>1</v>
       </c>
@@ -16074,6 +16083,9 @@
         <f t="shared" ref="B590" si="387">B589</f>
         <v>43386</v>
       </c>
+      <c r="C590">
+        <v>408</v>
+      </c>
       <c r="D590">
         <v>2</v>
       </c>
@@ -16092,6 +16104,9 @@
         <f t="shared" ref="B591:B592" si="388">B582+1</f>
         <v>43386</v>
       </c>
+      <c r="C591">
+        <v>400</v>
+      </c>
       <c r="D591">
         <v>2</v>
       </c>
@@ -16110,6 +16125,9 @@
         <f t="shared" si="388"/>
         <v>43386</v>
       </c>
+      <c r="C592">
+        <v>415</v>
+      </c>
       <c r="D592">
         <v>2</v>
       </c>
@@ -16128,6 +16146,9 @@
         <f t="shared" ref="B593" si="389">B592</f>
         <v>43386</v>
       </c>
+      <c r="C593">
+        <v>371</v>
+      </c>
       <c r="D593">
         <v>3</v>
       </c>
@@ -16146,6 +16167,9 @@
         <f t="shared" ref="B594" si="390">B585+1</f>
         <v>43386</v>
       </c>
+      <c r="C594">
+        <v>415</v>
+      </c>
       <c r="D594">
         <v>3</v>
       </c>
@@ -16164,6 +16188,9 @@
         <f t="shared" ref="B595" si="391">B594</f>
         <v>43386</v>
       </c>
+      <c r="C595">
+        <v>409</v>
+      </c>
       <c r="D595">
         <v>3</v>
       </c>
@@ -16661,7 +16688,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A559" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
+  <autoFilter ref="A1:A622" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8285644B-6F49-46E5-894C-70F98C2F7E43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01E018E8-6238-4766-BFD3-BA16E5BA6183}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -3732,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
   <dimension ref="A1:I622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="C596" sqref="C596"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="C610" sqref="C610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16209,6 +16209,9 @@
         <f t="shared" ref="B596" si="392">B587+1</f>
         <v>43387</v>
       </c>
+      <c r="C596">
+        <v>386</v>
+      </c>
       <c r="D596">
         <v>1</v>
       </c>
@@ -16227,6 +16230,9 @@
         <f t="shared" ref="B597" si="393">B596</f>
         <v>43387</v>
       </c>
+      <c r="C597">
+        <v>376</v>
+      </c>
       <c r="D597">
         <v>1</v>
       </c>
@@ -16245,6 +16251,9 @@
         <f t="shared" ref="B598" si="394">B589+1</f>
         <v>43387</v>
       </c>
+      <c r="C598">
+        <v>358</v>
+      </c>
       <c r="D598">
         <v>1</v>
       </c>
@@ -16263,6 +16272,9 @@
         <f t="shared" ref="B599" si="395">B598</f>
         <v>43387</v>
       </c>
+      <c r="C599">
+        <v>406</v>
+      </c>
       <c r="D599">
         <v>2</v>
       </c>
@@ -16281,6 +16293,9 @@
         <f t="shared" ref="B600:B601" si="396">B591+1</f>
         <v>43387</v>
       </c>
+      <c r="C600">
+        <v>404</v>
+      </c>
       <c r="D600">
         <v>2</v>
       </c>
@@ -16299,6 +16314,9 @@
         <f t="shared" si="396"/>
         <v>43387</v>
       </c>
+      <c r="C601">
+        <v>415</v>
+      </c>
       <c r="D601">
         <v>2</v>
       </c>
@@ -16317,6 +16335,9 @@
         <f t="shared" ref="B602" si="397">B601</f>
         <v>43387</v>
       </c>
+      <c r="C602">
+        <v>371</v>
+      </c>
       <c r="D602">
         <v>3</v>
       </c>
@@ -16335,6 +16356,9 @@
         <f t="shared" ref="B603" si="398">B594+1</f>
         <v>43387</v>
       </c>
+      <c r="C603">
+        <v>414</v>
+      </c>
       <c r="D603">
         <v>3</v>
       </c>
@@ -16353,6 +16377,9 @@
         <f t="shared" ref="B604" si="399">B603</f>
         <v>43387</v>
       </c>
+      <c r="C604">
+        <v>407</v>
+      </c>
       <c r="D604">
         <v>3</v>
       </c>
@@ -16371,6 +16398,9 @@
         <f t="shared" ref="B605" si="400">B596+1</f>
         <v>43388</v>
       </c>
+      <c r="C605">
+        <v>395</v>
+      </c>
       <c r="D605">
         <v>1</v>
       </c>
@@ -16389,6 +16419,9 @@
         <f t="shared" ref="B606" si="401">B605</f>
         <v>43388</v>
       </c>
+      <c r="C606">
+        <v>381</v>
+      </c>
       <c r="D606">
         <v>1</v>
       </c>
@@ -16407,6 +16440,9 @@
         <f t="shared" ref="B607" si="402">B598+1</f>
         <v>43388</v>
       </c>
+      <c r="C607">
+        <v>361</v>
+      </c>
       <c r="D607">
         <v>1</v>
       </c>
@@ -16425,6 +16461,9 @@
         <f t="shared" ref="B608" si="403">B607</f>
         <v>43388</v>
       </c>
+      <c r="C608">
+        <v>406</v>
+      </c>
       <c r="D608">
         <v>2</v>
       </c>
@@ -16443,6 +16482,9 @@
         <f t="shared" ref="B609:B610" si="404">B600+1</f>
         <v>43388</v>
       </c>
+      <c r="C609">
+        <v>406</v>
+      </c>
       <c r="D609">
         <v>2</v>
       </c>
@@ -16461,6 +16503,9 @@
         <f t="shared" si="404"/>
         <v>43388</v>
       </c>
+      <c r="C610">
+        <v>419</v>
+      </c>
       <c r="D610">
         <v>2</v>
       </c>
@@ -16479,6 +16524,9 @@
         <f t="shared" ref="B611" si="405">B610</f>
         <v>43388</v>
       </c>
+      <c r="C611">
+        <v>374</v>
+      </c>
       <c r="D611">
         <v>3</v>
       </c>
@@ -16497,6 +16545,9 @@
         <f t="shared" ref="B612" si="406">B603+1</f>
         <v>43388</v>
       </c>
+      <c r="C612">
+        <v>415</v>
+      </c>
       <c r="D612">
         <v>3</v>
       </c>
@@ -16514,6 +16565,9 @@
       <c r="B613" s="1">
         <f t="shared" ref="B613" si="407">B612</f>
         <v>43388</v>
+      </c>
+      <c r="C613">
+        <v>415</v>
       </c>
       <c r="D613">
         <v>3</v>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01E018E8-6238-4766-BFD3-BA16E5BA6183}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63226D97-D891-464D-BDCC-647EDDAC80D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rat Colony" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$622</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$676</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -3730,10 +3730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:I622"/>
+  <dimension ref="A1:I676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
-      <selection activeCell="C610" sqref="C610"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G451" sqref="G451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16587,6 +16588,9 @@
         <f t="shared" ref="B614" si="408">B605+1</f>
         <v>43389</v>
       </c>
+      <c r="C614">
+        <v>390</v>
+      </c>
       <c r="D614">
         <v>1</v>
       </c>
@@ -16605,6 +16609,9 @@
         <f t="shared" ref="B615" si="409">B614</f>
         <v>43389</v>
       </c>
+      <c r="C615">
+        <v>379</v>
+      </c>
       <c r="D615">
         <v>1</v>
       </c>
@@ -16623,6 +16630,9 @@
         <f t="shared" ref="B616" si="410">B607+1</f>
         <v>43389</v>
       </c>
+      <c r="C616">
+        <v>360</v>
+      </c>
       <c r="D616">
         <v>1</v>
       </c>
@@ -16641,6 +16651,9 @@
         <f t="shared" ref="B617" si="411">B616</f>
         <v>43389</v>
       </c>
+      <c r="C617">
+        <v>407</v>
+      </c>
       <c r="D617">
         <v>2</v>
       </c>
@@ -16659,6 +16672,9 @@
         <f t="shared" ref="B618:B619" si="412">B609+1</f>
         <v>43389</v>
       </c>
+      <c r="C618">
+        <v>408</v>
+      </c>
       <c r="D618">
         <v>2</v>
       </c>
@@ -16677,6 +16693,9 @@
         <f t="shared" si="412"/>
         <v>43389</v>
       </c>
+      <c r="C619">
+        <v>415</v>
+      </c>
       <c r="D619">
         <v>2</v>
       </c>
@@ -16695,6 +16714,9 @@
         <f t="shared" ref="B620" si="413">B619</f>
         <v>43389</v>
       </c>
+      <c r="C620">
+        <v>375</v>
+      </c>
       <c r="D620">
         <v>3</v>
       </c>
@@ -16713,6 +16735,9 @@
         <f t="shared" ref="B621" si="414">B612+1</f>
         <v>43389</v>
       </c>
+      <c r="C621">
+        <v>416</v>
+      </c>
       <c r="D621">
         <v>3</v>
       </c>
@@ -16731,6 +16756,9 @@
         <f t="shared" ref="B622" si="415">B621</f>
         <v>43389</v>
       </c>
+      <c r="C622">
+        <v>413</v>
+      </c>
       <c r="D622">
         <v>3</v>
       </c>
@@ -16741,8 +16769,1088 @@
         <v>20</v>
       </c>
     </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>1</v>
+      </c>
+      <c r="B623" s="1">
+        <f t="shared" ref="B623" si="416">B614+1</f>
+        <v>43390</v>
+      </c>
+      <c r="C623">
+        <v>393</v>
+      </c>
+      <c r="D623">
+        <v>1</v>
+      </c>
+      <c r="E623" t="s">
+        <v>2</v>
+      </c>
+      <c r="F623" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>2</v>
+      </c>
+      <c r="B624" s="1">
+        <f t="shared" ref="B624" si="417">B623</f>
+        <v>43390</v>
+      </c>
+      <c r="C624">
+        <v>384</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+      <c r="E624" t="s">
+        <v>3</v>
+      </c>
+      <c r="F624" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>3</v>
+      </c>
+      <c r="B625" s="1">
+        <f t="shared" ref="B625" si="418">B616+1</f>
+        <v>43390</v>
+      </c>
+      <c r="C625">
+        <v>361</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
+      </c>
+      <c r="E625" t="s">
+        <v>4</v>
+      </c>
+      <c r="F625" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>4</v>
+      </c>
+      <c r="B626" s="1">
+        <f t="shared" ref="B626" si="419">B625</f>
+        <v>43390</v>
+      </c>
+      <c r="C626">
+        <v>405</v>
+      </c>
+      <c r="D626">
+        <v>2</v>
+      </c>
+      <c r="E626" t="s">
+        <v>6</v>
+      </c>
+      <c r="F626" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>5</v>
+      </c>
+      <c r="B627" s="1">
+        <f t="shared" ref="B627:B628" si="420">B618+1</f>
+        <v>43390</v>
+      </c>
+      <c r="C627">
+        <v>406</v>
+      </c>
+      <c r="D627">
+        <v>2</v>
+      </c>
+      <c r="E627" t="s">
+        <v>5</v>
+      </c>
+      <c r="F627" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>6</v>
+      </c>
+      <c r="B628" s="1">
+        <f t="shared" si="420"/>
+        <v>43390</v>
+      </c>
+      <c r="C628">
+        <v>414</v>
+      </c>
+      <c r="D628">
+        <v>2</v>
+      </c>
+      <c r="E628" t="s">
+        <v>7</v>
+      </c>
+      <c r="F628" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>7</v>
+      </c>
+      <c r="B629" s="1">
+        <f t="shared" ref="B629" si="421">B628</f>
+        <v>43390</v>
+      </c>
+      <c r="C629">
+        <v>373</v>
+      </c>
+      <c r="D629">
+        <v>3</v>
+      </c>
+      <c r="E629" t="s">
+        <v>8</v>
+      </c>
+      <c r="F629" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>8</v>
+      </c>
+      <c r="B630" s="1">
+        <f t="shared" ref="B630" si="422">B621+1</f>
+        <v>43390</v>
+      </c>
+      <c r="C630">
+        <v>418</v>
+      </c>
+      <c r="D630">
+        <v>3</v>
+      </c>
+      <c r="E630" t="s">
+        <v>9</v>
+      </c>
+      <c r="F630" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>9</v>
+      </c>
+      <c r="B631" s="1">
+        <f t="shared" ref="B631" si="423">B630</f>
+        <v>43390</v>
+      </c>
+      <c r="C631">
+        <v>417</v>
+      </c>
+      <c r="D631">
+        <v>3</v>
+      </c>
+      <c r="E631" t="s">
+        <v>10</v>
+      </c>
+      <c r="F631" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>1</v>
+      </c>
+      <c r="B632" s="1">
+        <f t="shared" ref="B632" si="424">B623+1</f>
+        <v>43391</v>
+      </c>
+      <c r="C632">
+        <v>397</v>
+      </c>
+      <c r="D632">
+        <v>1</v>
+      </c>
+      <c r="E632" t="s">
+        <v>2</v>
+      </c>
+      <c r="F632" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>2</v>
+      </c>
+      <c r="B633" s="1">
+        <f t="shared" ref="B633" si="425">B632</f>
+        <v>43391</v>
+      </c>
+      <c r="C633">
+        <v>392</v>
+      </c>
+      <c r="D633">
+        <v>1</v>
+      </c>
+      <c r="E633" t="s">
+        <v>3</v>
+      </c>
+      <c r="F633" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>3</v>
+      </c>
+      <c r="B634" s="1">
+        <f t="shared" ref="B634" si="426">B625+1</f>
+        <v>43391</v>
+      </c>
+      <c r="C634">
+        <v>365</v>
+      </c>
+      <c r="D634">
+        <v>1</v>
+      </c>
+      <c r="E634" t="s">
+        <v>4</v>
+      </c>
+      <c r="F634" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>4</v>
+      </c>
+      <c r="B635" s="1">
+        <f t="shared" ref="B635" si="427">B634</f>
+        <v>43391</v>
+      </c>
+      <c r="C635">
+        <v>411</v>
+      </c>
+      <c r="D635">
+        <v>2</v>
+      </c>
+      <c r="E635" t="s">
+        <v>6</v>
+      </c>
+      <c r="F635" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>5</v>
+      </c>
+      <c r="B636" s="1">
+        <f t="shared" ref="B636:B637" si="428">B627+1</f>
+        <v>43391</v>
+      </c>
+      <c r="C636">
+        <v>417</v>
+      </c>
+      <c r="D636">
+        <v>2</v>
+      </c>
+      <c r="E636" t="s">
+        <v>5</v>
+      </c>
+      <c r="F636" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>6</v>
+      </c>
+      <c r="B637" s="1">
+        <f t="shared" si="428"/>
+        <v>43391</v>
+      </c>
+      <c r="C637">
+        <v>416</v>
+      </c>
+      <c r="D637">
+        <v>2</v>
+      </c>
+      <c r="E637" t="s">
+        <v>7</v>
+      </c>
+      <c r="F637" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>7</v>
+      </c>
+      <c r="B638" s="1">
+        <f t="shared" ref="B638" si="429">B637</f>
+        <v>43391</v>
+      </c>
+      <c r="C638">
+        <v>378</v>
+      </c>
+      <c r="D638">
+        <v>3</v>
+      </c>
+      <c r="E638" t="s">
+        <v>8</v>
+      </c>
+      <c r="F638" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>8</v>
+      </c>
+      <c r="B639" s="1">
+        <f t="shared" ref="B639" si="430">B630+1</f>
+        <v>43391</v>
+      </c>
+      <c r="C639">
+        <v>421</v>
+      </c>
+      <c r="D639">
+        <v>3</v>
+      </c>
+      <c r="E639" t="s">
+        <v>9</v>
+      </c>
+      <c r="F639" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>9</v>
+      </c>
+      <c r="B640" s="1">
+        <f t="shared" ref="B640" si="431">B639</f>
+        <v>43391</v>
+      </c>
+      <c r="C640">
+        <v>419</v>
+      </c>
+      <c r="D640">
+        <v>3</v>
+      </c>
+      <c r="E640" t="s">
+        <v>10</v>
+      </c>
+      <c r="F640" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>1</v>
+      </c>
+      <c r="B641" s="1">
+        <f t="shared" ref="B641" si="432">B632+1</f>
+        <v>43392</v>
+      </c>
+      <c r="C641">
+        <v>398</v>
+      </c>
+      <c r="D641">
+        <v>1</v>
+      </c>
+      <c r="E641" t="s">
+        <v>2</v>
+      </c>
+      <c r="F641" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>2</v>
+      </c>
+      <c r="B642" s="1">
+        <f t="shared" ref="B642" si="433">B641</f>
+        <v>43392</v>
+      </c>
+      <c r="C642">
+        <v>395</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642" t="s">
+        <v>3</v>
+      </c>
+      <c r="F642" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>3</v>
+      </c>
+      <c r="B643" s="1">
+        <f t="shared" ref="B643" si="434">B634+1</f>
+        <v>43392</v>
+      </c>
+      <c r="C643">
+        <v>367</v>
+      </c>
+      <c r="D643">
+        <v>1</v>
+      </c>
+      <c r="E643" t="s">
+        <v>4</v>
+      </c>
+      <c r="F643" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>4</v>
+      </c>
+      <c r="B644" s="1">
+        <f t="shared" ref="B644" si="435">B643</f>
+        <v>43392</v>
+      </c>
+      <c r="C644">
+        <v>412</v>
+      </c>
+      <c r="D644">
+        <v>2</v>
+      </c>
+      <c r="E644" t="s">
+        <v>6</v>
+      </c>
+      <c r="F644" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>5</v>
+      </c>
+      <c r="B645" s="1">
+        <f t="shared" ref="B645:B646" si="436">B636+1</f>
+        <v>43392</v>
+      </c>
+      <c r="C645">
+        <v>417</v>
+      </c>
+      <c r="D645">
+        <v>2</v>
+      </c>
+      <c r="E645" t="s">
+        <v>5</v>
+      </c>
+      <c r="F645" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>6</v>
+      </c>
+      <c r="B646" s="1">
+        <f t="shared" si="436"/>
+        <v>43392</v>
+      </c>
+      <c r="C646">
+        <v>421</v>
+      </c>
+      <c r="D646">
+        <v>2</v>
+      </c>
+      <c r="E646" t="s">
+        <v>7</v>
+      </c>
+      <c r="F646" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>7</v>
+      </c>
+      <c r="B647" s="1">
+        <f t="shared" ref="B647" si="437">B646</f>
+        <v>43392</v>
+      </c>
+      <c r="C647">
+        <v>375</v>
+      </c>
+      <c r="D647">
+        <v>3</v>
+      </c>
+      <c r="E647" t="s">
+        <v>8</v>
+      </c>
+      <c r="F647" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>8</v>
+      </c>
+      <c r="B648" s="1">
+        <f t="shared" ref="B648" si="438">B639+1</f>
+        <v>43392</v>
+      </c>
+      <c r="C648">
+        <v>418</v>
+      </c>
+      <c r="D648">
+        <v>3</v>
+      </c>
+      <c r="E648" t="s">
+        <v>9</v>
+      </c>
+      <c r="F648" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>9</v>
+      </c>
+      <c r="B649" s="1">
+        <f t="shared" ref="B649" si="439">B648</f>
+        <v>43392</v>
+      </c>
+      <c r="C649">
+        <v>417</v>
+      </c>
+      <c r="D649">
+        <v>3</v>
+      </c>
+      <c r="E649" t="s">
+        <v>10</v>
+      </c>
+      <c r="F649" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>1</v>
+      </c>
+      <c r="B650" s="1">
+        <f t="shared" ref="B650" si="440">B641+1</f>
+        <v>43393</v>
+      </c>
+      <c r="C650">
+        <v>400</v>
+      </c>
+      <c r="D650">
+        <v>1</v>
+      </c>
+      <c r="E650" t="s">
+        <v>2</v>
+      </c>
+      <c r="F650" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>2</v>
+      </c>
+      <c r="B651" s="1">
+        <f t="shared" ref="B651" si="441">B650</f>
+        <v>43393</v>
+      </c>
+      <c r="C651">
+        <v>404</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
+      </c>
+      <c r="E651" t="s">
+        <v>3</v>
+      </c>
+      <c r="F651" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>3</v>
+      </c>
+      <c r="B652" s="1">
+        <f t="shared" ref="B652" si="442">B643+1</f>
+        <v>43393</v>
+      </c>
+      <c r="C652">
+        <v>370</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
+      </c>
+      <c r="E652" t="s">
+        <v>4</v>
+      </c>
+      <c r="F652" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>4</v>
+      </c>
+      <c r="B653" s="1">
+        <f t="shared" ref="B653" si="443">B652</f>
+        <v>43393</v>
+      </c>
+      <c r="C653">
+        <v>419</v>
+      </c>
+      <c r="D653">
+        <v>2</v>
+      </c>
+      <c r="E653" t="s">
+        <v>6</v>
+      </c>
+      <c r="F653" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>5</v>
+      </c>
+      <c r="B654" s="1">
+        <f t="shared" ref="B654:B655" si="444">B645+1</f>
+        <v>43393</v>
+      </c>
+      <c r="C654">
+        <v>424</v>
+      </c>
+      <c r="D654">
+        <v>2</v>
+      </c>
+      <c r="E654" t="s">
+        <v>5</v>
+      </c>
+      <c r="F654" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>6</v>
+      </c>
+      <c r="B655" s="1">
+        <f t="shared" si="444"/>
+        <v>43393</v>
+      </c>
+      <c r="C655">
+        <v>424</v>
+      </c>
+      <c r="D655">
+        <v>2</v>
+      </c>
+      <c r="E655" t="s">
+        <v>7</v>
+      </c>
+      <c r="F655" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>7</v>
+      </c>
+      <c r="B656" s="1">
+        <f t="shared" ref="B656" si="445">B655</f>
+        <v>43393</v>
+      </c>
+      <c r="C656">
+        <v>378</v>
+      </c>
+      <c r="D656">
+        <v>3</v>
+      </c>
+      <c r="E656" t="s">
+        <v>8</v>
+      </c>
+      <c r="F656" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>8</v>
+      </c>
+      <c r="B657" s="1">
+        <f t="shared" ref="B657" si="446">B648+1</f>
+        <v>43393</v>
+      </c>
+      <c r="C657">
+        <v>419</v>
+      </c>
+      <c r="D657">
+        <v>3</v>
+      </c>
+      <c r="E657" t="s">
+        <v>9</v>
+      </c>
+      <c r="F657" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>9</v>
+      </c>
+      <c r="B658" s="1">
+        <f t="shared" ref="B658" si="447">B657</f>
+        <v>43393</v>
+      </c>
+      <c r="C658">
+        <v>424</v>
+      </c>
+      <c r="D658">
+        <v>3</v>
+      </c>
+      <c r="E658" t="s">
+        <v>10</v>
+      </c>
+      <c r="F658" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>1</v>
+      </c>
+      <c r="B659" s="1">
+        <f t="shared" ref="B659" si="448">B650+1</f>
+        <v>43394</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+      <c r="E659" t="s">
+        <v>2</v>
+      </c>
+      <c r="F659" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>2</v>
+      </c>
+      <c r="B660" s="1">
+        <f t="shared" ref="B660" si="449">B659</f>
+        <v>43394</v>
+      </c>
+      <c r="D660">
+        <v>1</v>
+      </c>
+      <c r="E660" t="s">
+        <v>3</v>
+      </c>
+      <c r="F660" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>3</v>
+      </c>
+      <c r="B661" s="1">
+        <f t="shared" ref="B661" si="450">B652+1</f>
+        <v>43394</v>
+      </c>
+      <c r="D661">
+        <v>1</v>
+      </c>
+      <c r="E661" t="s">
+        <v>4</v>
+      </c>
+      <c r="F661" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>4</v>
+      </c>
+      <c r="B662" s="1">
+        <f t="shared" ref="B662" si="451">B661</f>
+        <v>43394</v>
+      </c>
+      <c r="D662">
+        <v>2</v>
+      </c>
+      <c r="E662" t="s">
+        <v>6</v>
+      </c>
+      <c r="F662" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>5</v>
+      </c>
+      <c r="B663" s="1">
+        <f t="shared" ref="B663:B664" si="452">B654+1</f>
+        <v>43394</v>
+      </c>
+      <c r="D663">
+        <v>2</v>
+      </c>
+      <c r="E663" t="s">
+        <v>5</v>
+      </c>
+      <c r="F663" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>6</v>
+      </c>
+      <c r="B664" s="1">
+        <f t="shared" si="452"/>
+        <v>43394</v>
+      </c>
+      <c r="D664">
+        <v>2</v>
+      </c>
+      <c r="E664" t="s">
+        <v>7</v>
+      </c>
+      <c r="F664" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>7</v>
+      </c>
+      <c r="B665" s="1">
+        <f t="shared" ref="B665" si="453">B664</f>
+        <v>43394</v>
+      </c>
+      <c r="D665">
+        <v>3</v>
+      </c>
+      <c r="E665" t="s">
+        <v>8</v>
+      </c>
+      <c r="F665" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>8</v>
+      </c>
+      <c r="B666" s="1">
+        <f t="shared" ref="B666" si="454">B657+1</f>
+        <v>43394</v>
+      </c>
+      <c r="D666">
+        <v>3</v>
+      </c>
+      <c r="E666" t="s">
+        <v>9</v>
+      </c>
+      <c r="F666" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>9</v>
+      </c>
+      <c r="B667" s="1">
+        <f t="shared" ref="B667" si="455">B666</f>
+        <v>43394</v>
+      </c>
+      <c r="D667">
+        <v>3</v>
+      </c>
+      <c r="E667" t="s">
+        <v>10</v>
+      </c>
+      <c r="F667" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>1</v>
+      </c>
+      <c r="B668" s="1">
+        <f t="shared" ref="B668" si="456">B659+1</f>
+        <v>43395</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
+      </c>
+      <c r="E668" t="s">
+        <v>2</v>
+      </c>
+      <c r="F668" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>2</v>
+      </c>
+      <c r="B669" s="1">
+        <f t="shared" ref="B669" si="457">B668</f>
+        <v>43395</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
+      </c>
+      <c r="E669" t="s">
+        <v>3</v>
+      </c>
+      <c r="F669" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>3</v>
+      </c>
+      <c r="B670" s="1">
+        <f t="shared" ref="B670" si="458">B661+1</f>
+        <v>43395</v>
+      </c>
+      <c r="D670">
+        <v>1</v>
+      </c>
+      <c r="E670" t="s">
+        <v>4</v>
+      </c>
+      <c r="F670" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>4</v>
+      </c>
+      <c r="B671" s="1">
+        <f t="shared" ref="B671" si="459">B670</f>
+        <v>43395</v>
+      </c>
+      <c r="D671">
+        <v>2</v>
+      </c>
+      <c r="E671" t="s">
+        <v>6</v>
+      </c>
+      <c r="F671" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>5</v>
+      </c>
+      <c r="B672" s="1">
+        <f t="shared" ref="B672:B673" si="460">B663+1</f>
+        <v>43395</v>
+      </c>
+      <c r="D672">
+        <v>2</v>
+      </c>
+      <c r="E672" t="s">
+        <v>5</v>
+      </c>
+      <c r="F672" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>6</v>
+      </c>
+      <c r="B673" s="1">
+        <f t="shared" si="460"/>
+        <v>43395</v>
+      </c>
+      <c r="D673">
+        <v>2</v>
+      </c>
+      <c r="E673" t="s">
+        <v>7</v>
+      </c>
+      <c r="F673" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>7</v>
+      </c>
+      <c r="B674" s="1">
+        <f t="shared" ref="B674" si="461">B673</f>
+        <v>43395</v>
+      </c>
+      <c r="D674">
+        <v>3</v>
+      </c>
+      <c r="E674" t="s">
+        <v>8</v>
+      </c>
+      <c r="F674" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>8</v>
+      </c>
+      <c r="B675" s="1">
+        <f t="shared" ref="B675" si="462">B666+1</f>
+        <v>43395</v>
+      </c>
+      <c r="D675">
+        <v>3</v>
+      </c>
+      <c r="E675" t="s">
+        <v>9</v>
+      </c>
+      <c r="F675" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>9</v>
+      </c>
+      <c r="B676" s="1">
+        <f t="shared" ref="B676" si="463">B675</f>
+        <v>43395</v>
+      </c>
+      <c r="D676">
+        <v>3</v>
+      </c>
+      <c r="E676" t="s">
+        <v>10</v>
+      </c>
+      <c r="F676" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A622" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
+  <autoFilter ref="A1:A676" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63226D97-D891-464D-BDCC-647EDDAC80D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1551AC71-94B3-448B-8D81-DCA1A82717E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -3730,11 +3730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:I676"/>
+  <dimension ref="A1:I685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G451" sqref="G451"/>
+      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C668" sqref="C668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17533,6 +17533,9 @@
         <f t="shared" ref="B659" si="448">B650+1</f>
         <v>43394</v>
       </c>
+      <c r="C659">
+        <v>399</v>
+      </c>
       <c r="D659">
         <v>1</v>
       </c>
@@ -17551,6 +17554,9 @@
         <f t="shared" ref="B660" si="449">B659</f>
         <v>43394</v>
       </c>
+      <c r="C660">
+        <v>399</v>
+      </c>
       <c r="D660">
         <v>1</v>
       </c>
@@ -17569,6 +17575,9 @@
         <f t="shared" ref="B661" si="450">B652+1</f>
         <v>43394</v>
       </c>
+      <c r="C661">
+        <v>369</v>
+      </c>
       <c r="D661">
         <v>1</v>
       </c>
@@ -17587,6 +17596,9 @@
         <f t="shared" ref="B662" si="451">B661</f>
         <v>43394</v>
       </c>
+      <c r="C662">
+        <v>411</v>
+      </c>
       <c r="D662">
         <v>2</v>
       </c>
@@ -17605,6 +17617,9 @@
         <f t="shared" ref="B663:B664" si="452">B654+1</f>
         <v>43394</v>
       </c>
+      <c r="C663">
+        <v>421</v>
+      </c>
       <c r="D663">
         <v>2</v>
       </c>
@@ -17623,6 +17638,9 @@
         <f t="shared" si="452"/>
         <v>43394</v>
       </c>
+      <c r="C664">
+        <v>426</v>
+      </c>
       <c r="D664">
         <v>2</v>
       </c>
@@ -17641,6 +17659,9 @@
         <f t="shared" ref="B665" si="453">B664</f>
         <v>43394</v>
       </c>
+      <c r="C665">
+        <v>375</v>
+      </c>
       <c r="D665">
         <v>3</v>
       </c>
@@ -17659,6 +17680,9 @@
         <f t="shared" ref="B666" si="454">B657+1</f>
         <v>43394</v>
       </c>
+      <c r="C666">
+        <v>420</v>
+      </c>
       <c r="D666">
         <v>3</v>
       </c>
@@ -17677,6 +17701,9 @@
         <f t="shared" ref="B667" si="455">B666</f>
         <v>43394</v>
       </c>
+      <c r="C667">
+        <v>423</v>
+      </c>
       <c r="D667">
         <v>3</v>
       </c>
@@ -17846,6 +17873,168 @@
         <v>10</v>
       </c>
       <c r="F676" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>1</v>
+      </c>
+      <c r="B677" s="1">
+        <f t="shared" ref="B677" si="464">B668+1</f>
+        <v>43396</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677" t="s">
+        <v>2</v>
+      </c>
+      <c r="F677" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>2</v>
+      </c>
+      <c r="B678" s="1">
+        <f t="shared" ref="B678" si="465">B677</f>
+        <v>43396</v>
+      </c>
+      <c r="D678">
+        <v>1</v>
+      </c>
+      <c r="E678" t="s">
+        <v>3</v>
+      </c>
+      <c r="F678" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>3</v>
+      </c>
+      <c r="B679" s="1">
+        <f t="shared" ref="B679" si="466">B670+1</f>
+        <v>43396</v>
+      </c>
+      <c r="D679">
+        <v>1</v>
+      </c>
+      <c r="E679" t="s">
+        <v>4</v>
+      </c>
+      <c r="F679" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>4</v>
+      </c>
+      <c r="B680" s="1">
+        <f t="shared" ref="B680" si="467">B679</f>
+        <v>43396</v>
+      </c>
+      <c r="D680">
+        <v>2</v>
+      </c>
+      <c r="E680" t="s">
+        <v>6</v>
+      </c>
+      <c r="F680" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>5</v>
+      </c>
+      <c r="B681" s="1">
+        <f t="shared" ref="B681:B682" si="468">B672+1</f>
+        <v>43396</v>
+      </c>
+      <c r="D681">
+        <v>2</v>
+      </c>
+      <c r="E681" t="s">
+        <v>5</v>
+      </c>
+      <c r="F681" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>6</v>
+      </c>
+      <c r="B682" s="1">
+        <f t="shared" si="468"/>
+        <v>43396</v>
+      </c>
+      <c r="D682">
+        <v>2</v>
+      </c>
+      <c r="E682" t="s">
+        <v>7</v>
+      </c>
+      <c r="F682" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>7</v>
+      </c>
+      <c r="B683" s="1">
+        <f t="shared" ref="B683" si="469">B682</f>
+        <v>43396</v>
+      </c>
+      <c r="D683">
+        <v>3</v>
+      </c>
+      <c r="E683" t="s">
+        <v>8</v>
+      </c>
+      <c r="F683" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>8</v>
+      </c>
+      <c r="B684" s="1">
+        <f t="shared" ref="B684" si="470">B675+1</f>
+        <v>43396</v>
+      </c>
+      <c r="D684">
+        <v>3</v>
+      </c>
+      <c r="E684" t="s">
+        <v>9</v>
+      </c>
+      <c r="F684" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>9</v>
+      </c>
+      <c r="B685" s="1">
+        <f t="shared" ref="B685" si="471">B684</f>
+        <v>43396</v>
+      </c>
+      <c r="D685">
+        <v>3</v>
+      </c>
+      <c r="E685" t="s">
+        <v>10</v>
+      </c>
+      <c r="F685" t="s">
         <v>20</v>
       </c>
     </row>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1551AC71-94B3-448B-8D81-DCA1A82717E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF3C9425-9EF9-4316-999A-546205C9E02E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rat Colony" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$676</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$766</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -3730,11 +3730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:I685"/>
+  <dimension ref="A1:I766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C668" sqref="C668"/>
+      <pane ySplit="1" topLeftCell="A660" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B670" sqref="B670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17722,6 +17722,9 @@
         <f t="shared" ref="B668" si="456">B659+1</f>
         <v>43395</v>
       </c>
+      <c r="C668">
+        <v>399</v>
+      </c>
       <c r="D668">
         <v>1</v>
       </c>
@@ -17740,6 +17743,9 @@
         <f t="shared" ref="B669" si="457">B668</f>
         <v>43395</v>
       </c>
+      <c r="C669">
+        <v>398</v>
+      </c>
       <c r="D669">
         <v>1</v>
       </c>
@@ -17758,6 +17764,9 @@
         <f t="shared" ref="B670" si="458">B661+1</f>
         <v>43395</v>
       </c>
+      <c r="C670">
+        <v>374</v>
+      </c>
       <c r="D670">
         <v>1</v>
       </c>
@@ -17776,6 +17785,9 @@
         <f t="shared" ref="B671" si="459">B670</f>
         <v>43395</v>
       </c>
+      <c r="C671">
+        <v>407</v>
+      </c>
       <c r="D671">
         <v>2</v>
       </c>
@@ -17794,6 +17806,9 @@
         <f t="shared" ref="B672:B673" si="460">B663+1</f>
         <v>43395</v>
       </c>
+      <c r="C672">
+        <v>421</v>
+      </c>
       <c r="D672">
         <v>2</v>
       </c>
@@ -17812,6 +17827,9 @@
         <f t="shared" si="460"/>
         <v>43395</v>
       </c>
+      <c r="C673">
+        <v>424</v>
+      </c>
       <c r="D673">
         <v>2</v>
       </c>
@@ -17830,6 +17848,9 @@
         <f t="shared" ref="B674" si="461">B673</f>
         <v>43395</v>
       </c>
+      <c r="C674">
+        <v>376</v>
+      </c>
       <c r="D674">
         <v>3</v>
       </c>
@@ -17848,6 +17869,9 @@
         <f t="shared" ref="B675" si="462">B666+1</f>
         <v>43395</v>
       </c>
+      <c r="C675">
+        <v>421</v>
+      </c>
       <c r="D675">
         <v>3</v>
       </c>
@@ -17866,6 +17890,9 @@
         <f t="shared" ref="B676" si="463">B675</f>
         <v>43395</v>
       </c>
+      <c r="C676">
+        <v>429</v>
+      </c>
       <c r="D676">
         <v>3</v>
       </c>
@@ -17884,6 +17911,9 @@
         <f t="shared" ref="B677" si="464">B668+1</f>
         <v>43396</v>
       </c>
+      <c r="C677">
+        <v>407</v>
+      </c>
       <c r="D677">
         <v>1</v>
       </c>
@@ -17902,6 +17932,9 @@
         <f t="shared" ref="B678" si="465">B677</f>
         <v>43396</v>
       </c>
+      <c r="C678">
+        <v>409</v>
+      </c>
       <c r="D678">
         <v>1</v>
       </c>
@@ -17920,6 +17953,9 @@
         <f t="shared" ref="B679" si="466">B670+1</f>
         <v>43396</v>
       </c>
+      <c r="C679">
+        <v>377</v>
+      </c>
       <c r="D679">
         <v>1</v>
       </c>
@@ -17938,6 +17974,9 @@
         <f t="shared" ref="B680" si="467">B679</f>
         <v>43396</v>
       </c>
+      <c r="C680">
+        <v>422</v>
+      </c>
       <c r="D680">
         <v>2</v>
       </c>
@@ -17956,6 +17995,9 @@
         <f t="shared" ref="B681:B682" si="468">B672+1</f>
         <v>43396</v>
       </c>
+      <c r="C681">
+        <v>431</v>
+      </c>
       <c r="D681">
         <v>2</v>
       </c>
@@ -17974,6 +18016,9 @@
         <f t="shared" si="468"/>
         <v>43396</v>
       </c>
+      <c r="C682">
+        <v>429</v>
+      </c>
       <c r="D682">
         <v>2</v>
       </c>
@@ -17992,6 +18037,9 @@
         <f t="shared" ref="B683" si="469">B682</f>
         <v>43396</v>
       </c>
+      <c r="C683">
+        <v>382</v>
+      </c>
       <c r="D683">
         <v>3</v>
       </c>
@@ -18010,6 +18058,9 @@
         <f t="shared" ref="B684" si="470">B675+1</f>
         <v>43396</v>
       </c>
+      <c r="C684">
+        <v>425</v>
+      </c>
       <c r="D684">
         <v>3</v>
       </c>
@@ -18028,6 +18079,9 @@
         <f t="shared" ref="B685" si="471">B684</f>
         <v>43396</v>
       </c>
+      <c r="C685">
+        <v>433</v>
+      </c>
       <c r="D685">
         <v>3</v>
       </c>
@@ -18038,8 +18092,1547 @@
         <v>20</v>
       </c>
     </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>1</v>
+      </c>
+      <c r="B686" s="1">
+        <f t="shared" ref="B686" si="472">B677+1</f>
+        <v>43397</v>
+      </c>
+      <c r="C686">
+        <v>409</v>
+      </c>
+      <c r="D686">
+        <v>1</v>
+      </c>
+      <c r="E686" t="s">
+        <v>2</v>
+      </c>
+      <c r="F686" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>2</v>
+      </c>
+      <c r="B687" s="1">
+        <f t="shared" ref="B687" si="473">B686</f>
+        <v>43397</v>
+      </c>
+      <c r="C687">
+        <v>410</v>
+      </c>
+      <c r="D687">
+        <v>1</v>
+      </c>
+      <c r="E687" t="s">
+        <v>3</v>
+      </c>
+      <c r="F687" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>3</v>
+      </c>
+      <c r="B688" s="1">
+        <f t="shared" ref="B688" si="474">B679+1</f>
+        <v>43397</v>
+      </c>
+      <c r="C688">
+        <v>379</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
+      </c>
+      <c r="E688" t="s">
+        <v>4</v>
+      </c>
+      <c r="F688" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>4</v>
+      </c>
+      <c r="B689" s="1">
+        <f t="shared" ref="B689" si="475">B688</f>
+        <v>43397</v>
+      </c>
+      <c r="C689">
+        <v>410</v>
+      </c>
+      <c r="D689">
+        <v>2</v>
+      </c>
+      <c r="E689" t="s">
+        <v>6</v>
+      </c>
+      <c r="F689" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>5</v>
+      </c>
+      <c r="B690" s="1">
+        <f t="shared" ref="B690:B691" si="476">B681+1</f>
+        <v>43397</v>
+      </c>
+      <c r="C690">
+        <v>427</v>
+      </c>
+      <c r="D690">
+        <v>2</v>
+      </c>
+      <c r="E690" t="s">
+        <v>5</v>
+      </c>
+      <c r="F690" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>6</v>
+      </c>
+      <c r="B691" s="1">
+        <f t="shared" si="476"/>
+        <v>43397</v>
+      </c>
+      <c r="C691">
+        <v>428</v>
+      </c>
+      <c r="D691">
+        <v>2</v>
+      </c>
+      <c r="E691" t="s">
+        <v>7</v>
+      </c>
+      <c r="F691" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>7</v>
+      </c>
+      <c r="B692" s="1">
+        <f t="shared" ref="B692" si="477">B691</f>
+        <v>43397</v>
+      </c>
+      <c r="C692">
+        <v>383</v>
+      </c>
+      <c r="D692">
+        <v>3</v>
+      </c>
+      <c r="E692" t="s">
+        <v>8</v>
+      </c>
+      <c r="F692" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>8</v>
+      </c>
+      <c r="B693" s="1">
+        <f t="shared" ref="B693" si="478">B684+1</f>
+        <v>43397</v>
+      </c>
+      <c r="C693">
+        <v>426</v>
+      </c>
+      <c r="D693">
+        <v>3</v>
+      </c>
+      <c r="E693" t="s">
+        <v>9</v>
+      </c>
+      <c r="F693" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>9</v>
+      </c>
+      <c r="B694" s="1">
+        <f t="shared" ref="B694" si="479">B693</f>
+        <v>43397</v>
+      </c>
+      <c r="C694">
+        <v>438</v>
+      </c>
+      <c r="D694">
+        <v>3</v>
+      </c>
+      <c r="E694" t="s">
+        <v>10</v>
+      </c>
+      <c r="F694" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>1</v>
+      </c>
+      <c r="B695" s="1">
+        <f t="shared" ref="B695" si="480">B686+1</f>
+        <v>43398</v>
+      </c>
+      <c r="C695">
+        <v>418</v>
+      </c>
+      <c r="D695">
+        <v>1</v>
+      </c>
+      <c r="E695" t="s">
+        <v>2</v>
+      </c>
+      <c r="F695" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>2</v>
+      </c>
+      <c r="B696" s="1">
+        <f t="shared" ref="B696" si="481">B695</f>
+        <v>43398</v>
+      </c>
+      <c r="C696">
+        <v>423</v>
+      </c>
+      <c r="D696">
+        <v>1</v>
+      </c>
+      <c r="E696" t="s">
+        <v>3</v>
+      </c>
+      <c r="F696" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>3</v>
+      </c>
+      <c r="B697" s="1">
+        <f t="shared" ref="B697" si="482">B688+1</f>
+        <v>43398</v>
+      </c>
+      <c r="C697">
+        <v>393</v>
+      </c>
+      <c r="D697">
+        <v>1</v>
+      </c>
+      <c r="E697" t="s">
+        <v>4</v>
+      </c>
+      <c r="F697" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>4</v>
+      </c>
+      <c r="B698" s="1">
+        <f t="shared" ref="B698" si="483">B697</f>
+        <v>43398</v>
+      </c>
+      <c r="C698">
+        <v>429</v>
+      </c>
+      <c r="D698">
+        <v>2</v>
+      </c>
+      <c r="E698" t="s">
+        <v>6</v>
+      </c>
+      <c r="F698" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>5</v>
+      </c>
+      <c r="B699" s="1">
+        <f t="shared" ref="B699:B700" si="484">B690+1</f>
+        <v>43398</v>
+      </c>
+      <c r="C699">
+        <v>442</v>
+      </c>
+      <c r="D699">
+        <v>2</v>
+      </c>
+      <c r="E699" t="s">
+        <v>5</v>
+      </c>
+      <c r="F699" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>6</v>
+      </c>
+      <c r="B700" s="1">
+        <f t="shared" si="484"/>
+        <v>43398</v>
+      </c>
+      <c r="C700">
+        <v>436</v>
+      </c>
+      <c r="D700">
+        <v>2</v>
+      </c>
+      <c r="E700" t="s">
+        <v>7</v>
+      </c>
+      <c r="F700" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>7</v>
+      </c>
+      <c r="B701" s="1">
+        <f t="shared" ref="B701" si="485">B700</f>
+        <v>43398</v>
+      </c>
+      <c r="C701">
+        <v>391</v>
+      </c>
+      <c r="D701">
+        <v>3</v>
+      </c>
+      <c r="E701" t="s">
+        <v>8</v>
+      </c>
+      <c r="F701" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>8</v>
+      </c>
+      <c r="B702" s="1">
+        <f t="shared" ref="B702" si="486">B693+1</f>
+        <v>43398</v>
+      </c>
+      <c r="C702">
+        <v>434</v>
+      </c>
+      <c r="D702">
+        <v>3</v>
+      </c>
+      <c r="E702" t="s">
+        <v>9</v>
+      </c>
+      <c r="F702" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>9</v>
+      </c>
+      <c r="B703" s="1">
+        <f t="shared" ref="B703" si="487">B702</f>
+        <v>43398</v>
+      </c>
+      <c r="C703">
+        <v>443</v>
+      </c>
+      <c r="D703">
+        <v>3</v>
+      </c>
+      <c r="E703" t="s">
+        <v>10</v>
+      </c>
+      <c r="F703" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>1</v>
+      </c>
+      <c r="B704" s="1">
+        <f t="shared" ref="B704" si="488">B695+1</f>
+        <v>43399</v>
+      </c>
+      <c r="C704">
+        <v>411</v>
+      </c>
+      <c r="D704">
+        <v>1</v>
+      </c>
+      <c r="E704" t="s">
+        <v>2</v>
+      </c>
+      <c r="F704" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>2</v>
+      </c>
+      <c r="B705" s="1">
+        <f t="shared" ref="B705" si="489">B704</f>
+        <v>43399</v>
+      </c>
+      <c r="C705">
+        <v>421</v>
+      </c>
+      <c r="D705">
+        <v>1</v>
+      </c>
+      <c r="E705" t="s">
+        <v>3</v>
+      </c>
+      <c r="F705" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>3</v>
+      </c>
+      <c r="B706" s="1">
+        <f t="shared" ref="B706" si="490">B697+1</f>
+        <v>43399</v>
+      </c>
+      <c r="C706">
+        <v>385</v>
+      </c>
+      <c r="D706">
+        <v>1</v>
+      </c>
+      <c r="E706" t="s">
+        <v>4</v>
+      </c>
+      <c r="F706" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>4</v>
+      </c>
+      <c r="B707" s="1">
+        <f t="shared" ref="B707" si="491">B706</f>
+        <v>43399</v>
+      </c>
+      <c r="C707">
+        <v>423</v>
+      </c>
+      <c r="D707">
+        <v>2</v>
+      </c>
+      <c r="E707" t="s">
+        <v>6</v>
+      </c>
+      <c r="F707" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>5</v>
+      </c>
+      <c r="B708" s="1">
+        <f t="shared" ref="B708:B709" si="492">B699+1</f>
+        <v>43399</v>
+      </c>
+      <c r="C708">
+        <v>434</v>
+      </c>
+      <c r="D708">
+        <v>2</v>
+      </c>
+      <c r="E708" t="s">
+        <v>5</v>
+      </c>
+      <c r="F708" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>6</v>
+      </c>
+      <c r="B709" s="1">
+        <f t="shared" si="492"/>
+        <v>43399</v>
+      </c>
+      <c r="C709">
+        <v>441</v>
+      </c>
+      <c r="D709">
+        <v>2</v>
+      </c>
+      <c r="E709" t="s">
+        <v>7</v>
+      </c>
+      <c r="F709" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>7</v>
+      </c>
+      <c r="B710" s="1">
+        <f t="shared" ref="B710" si="493">B709</f>
+        <v>43399</v>
+      </c>
+      <c r="C710">
+        <v>385</v>
+      </c>
+      <c r="D710">
+        <v>3</v>
+      </c>
+      <c r="E710" t="s">
+        <v>8</v>
+      </c>
+      <c r="F710" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>8</v>
+      </c>
+      <c r="B711" s="1">
+        <f t="shared" ref="B711" si="494">B702+1</f>
+        <v>43399</v>
+      </c>
+      <c r="C711">
+        <v>433</v>
+      </c>
+      <c r="D711">
+        <v>3</v>
+      </c>
+      <c r="E711" t="s">
+        <v>9</v>
+      </c>
+      <c r="F711" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>9</v>
+      </c>
+      <c r="B712" s="1">
+        <f t="shared" ref="B712" si="495">B711</f>
+        <v>43399</v>
+      </c>
+      <c r="C712">
+        <v>439</v>
+      </c>
+      <c r="D712">
+        <v>3</v>
+      </c>
+      <c r="E712" t="s">
+        <v>10</v>
+      </c>
+      <c r="F712" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>1</v>
+      </c>
+      <c r="B713" s="1">
+        <f t="shared" ref="B713" si="496">B704+1</f>
+        <v>43400</v>
+      </c>
+      <c r="D713">
+        <v>1</v>
+      </c>
+      <c r="E713" t="s">
+        <v>2</v>
+      </c>
+      <c r="F713" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>2</v>
+      </c>
+      <c r="B714" s="1">
+        <f t="shared" ref="B714" si="497">B713</f>
+        <v>43400</v>
+      </c>
+      <c r="D714">
+        <v>1</v>
+      </c>
+      <c r="E714" t="s">
+        <v>3</v>
+      </c>
+      <c r="F714" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>3</v>
+      </c>
+      <c r="B715" s="1">
+        <f t="shared" ref="B715" si="498">B706+1</f>
+        <v>43400</v>
+      </c>
+      <c r="D715">
+        <v>1</v>
+      </c>
+      <c r="E715" t="s">
+        <v>4</v>
+      </c>
+      <c r="F715" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>4</v>
+      </c>
+      <c r="B716" s="1">
+        <f t="shared" ref="B716" si="499">B715</f>
+        <v>43400</v>
+      </c>
+      <c r="D716">
+        <v>2</v>
+      </c>
+      <c r="E716" t="s">
+        <v>6</v>
+      </c>
+      <c r="F716" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>5</v>
+      </c>
+      <c r="B717" s="1">
+        <f t="shared" ref="B717:B718" si="500">B708+1</f>
+        <v>43400</v>
+      </c>
+      <c r="D717">
+        <v>2</v>
+      </c>
+      <c r="E717" t="s">
+        <v>5</v>
+      </c>
+      <c r="F717" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>6</v>
+      </c>
+      <c r="B718" s="1">
+        <f t="shared" si="500"/>
+        <v>43400</v>
+      </c>
+      <c r="D718">
+        <v>2</v>
+      </c>
+      <c r="E718" t="s">
+        <v>7</v>
+      </c>
+      <c r="F718" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>7</v>
+      </c>
+      <c r="B719" s="1">
+        <f t="shared" ref="B719" si="501">B718</f>
+        <v>43400</v>
+      </c>
+      <c r="D719">
+        <v>3</v>
+      </c>
+      <c r="E719" t="s">
+        <v>8</v>
+      </c>
+      <c r="F719" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>8</v>
+      </c>
+      <c r="B720" s="1">
+        <f t="shared" ref="B720" si="502">B711+1</f>
+        <v>43400</v>
+      </c>
+      <c r="D720">
+        <v>3</v>
+      </c>
+      <c r="E720" t="s">
+        <v>9</v>
+      </c>
+      <c r="F720" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>9</v>
+      </c>
+      <c r="B721" s="1">
+        <f t="shared" ref="B721" si="503">B720</f>
+        <v>43400</v>
+      </c>
+      <c r="D721">
+        <v>3</v>
+      </c>
+      <c r="E721" t="s">
+        <v>10</v>
+      </c>
+      <c r="F721" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>1</v>
+      </c>
+      <c r="B722" s="1">
+        <f t="shared" ref="B722" si="504">B713+1</f>
+        <v>43401</v>
+      </c>
+      <c r="D722">
+        <v>1</v>
+      </c>
+      <c r="E722" t="s">
+        <v>2</v>
+      </c>
+      <c r="F722" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>2</v>
+      </c>
+      <c r="B723" s="1">
+        <f t="shared" ref="B723" si="505">B722</f>
+        <v>43401</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
+      </c>
+      <c r="E723" t="s">
+        <v>3</v>
+      </c>
+      <c r="F723" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>3</v>
+      </c>
+      <c r="B724" s="1">
+        <f t="shared" ref="B724" si="506">B715+1</f>
+        <v>43401</v>
+      </c>
+      <c r="D724">
+        <v>1</v>
+      </c>
+      <c r="E724" t="s">
+        <v>4</v>
+      </c>
+      <c r="F724" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>4</v>
+      </c>
+      <c r="B725" s="1">
+        <f t="shared" ref="B725" si="507">B724</f>
+        <v>43401</v>
+      </c>
+      <c r="D725">
+        <v>2</v>
+      </c>
+      <c r="E725" t="s">
+        <v>6</v>
+      </c>
+      <c r="F725" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>5</v>
+      </c>
+      <c r="B726" s="1">
+        <f t="shared" ref="B726:B727" si="508">B717+1</f>
+        <v>43401</v>
+      </c>
+      <c r="D726">
+        <v>2</v>
+      </c>
+      <c r="E726" t="s">
+        <v>5</v>
+      </c>
+      <c r="F726" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>6</v>
+      </c>
+      <c r="B727" s="1">
+        <f t="shared" si="508"/>
+        <v>43401</v>
+      </c>
+      <c r="D727">
+        <v>2</v>
+      </c>
+      <c r="E727" t="s">
+        <v>7</v>
+      </c>
+      <c r="F727" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>7</v>
+      </c>
+      <c r="B728" s="1">
+        <f t="shared" ref="B728" si="509">B727</f>
+        <v>43401</v>
+      </c>
+      <c r="D728">
+        <v>3</v>
+      </c>
+      <c r="E728" t="s">
+        <v>8</v>
+      </c>
+      <c r="F728" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>8</v>
+      </c>
+      <c r="B729" s="1">
+        <f t="shared" ref="B729" si="510">B720+1</f>
+        <v>43401</v>
+      </c>
+      <c r="D729">
+        <v>3</v>
+      </c>
+      <c r="E729" t="s">
+        <v>9</v>
+      </c>
+      <c r="F729" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>9</v>
+      </c>
+      <c r="B730" s="1">
+        <f t="shared" ref="B730" si="511">B729</f>
+        <v>43401</v>
+      </c>
+      <c r="D730">
+        <v>3</v>
+      </c>
+      <c r="E730" t="s">
+        <v>10</v>
+      </c>
+      <c r="F730" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>1</v>
+      </c>
+      <c r="B731" s="1">
+        <f t="shared" ref="B731" si="512">B722+1</f>
+        <v>43402</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
+      </c>
+      <c r="E731" t="s">
+        <v>2</v>
+      </c>
+      <c r="F731" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>2</v>
+      </c>
+      <c r="B732" s="1">
+        <f t="shared" ref="B732" si="513">B731</f>
+        <v>43402</v>
+      </c>
+      <c r="D732">
+        <v>1</v>
+      </c>
+      <c r="E732" t="s">
+        <v>3</v>
+      </c>
+      <c r="F732" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>3</v>
+      </c>
+      <c r="B733" s="1">
+        <f t="shared" ref="B733" si="514">B724+1</f>
+        <v>43402</v>
+      </c>
+      <c r="D733">
+        <v>1</v>
+      </c>
+      <c r="E733" t="s">
+        <v>4</v>
+      </c>
+      <c r="F733" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>4</v>
+      </c>
+      <c r="B734" s="1">
+        <f t="shared" ref="B734" si="515">B733</f>
+        <v>43402</v>
+      </c>
+      <c r="D734">
+        <v>2</v>
+      </c>
+      <c r="E734" t="s">
+        <v>6</v>
+      </c>
+      <c r="F734" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>5</v>
+      </c>
+      <c r="B735" s="1">
+        <f t="shared" ref="B735:B736" si="516">B726+1</f>
+        <v>43402</v>
+      </c>
+      <c r="D735">
+        <v>2</v>
+      </c>
+      <c r="E735" t="s">
+        <v>5</v>
+      </c>
+      <c r="F735" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>6</v>
+      </c>
+      <c r="B736" s="1">
+        <f t="shared" si="516"/>
+        <v>43402</v>
+      </c>
+      <c r="D736">
+        <v>2</v>
+      </c>
+      <c r="E736" t="s">
+        <v>7</v>
+      </c>
+      <c r="F736" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>7</v>
+      </c>
+      <c r="B737" s="1">
+        <f t="shared" ref="B737" si="517">B736</f>
+        <v>43402</v>
+      </c>
+      <c r="D737">
+        <v>3</v>
+      </c>
+      <c r="E737" t="s">
+        <v>8</v>
+      </c>
+      <c r="F737" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>8</v>
+      </c>
+      <c r="B738" s="1">
+        <f t="shared" ref="B738" si="518">B729+1</f>
+        <v>43402</v>
+      </c>
+      <c r="D738">
+        <v>3</v>
+      </c>
+      <c r="E738" t="s">
+        <v>9</v>
+      </c>
+      <c r="F738" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>9</v>
+      </c>
+      <c r="B739" s="1">
+        <f t="shared" ref="B739" si="519">B738</f>
+        <v>43402</v>
+      </c>
+      <c r="D739">
+        <v>3</v>
+      </c>
+      <c r="E739" t="s">
+        <v>10</v>
+      </c>
+      <c r="F739" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>1</v>
+      </c>
+      <c r="B740" s="1">
+        <f t="shared" ref="B740" si="520">B731+1</f>
+        <v>43403</v>
+      </c>
+      <c r="D740">
+        <v>1</v>
+      </c>
+      <c r="E740" t="s">
+        <v>2</v>
+      </c>
+      <c r="F740" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>2</v>
+      </c>
+      <c r="B741" s="1">
+        <f t="shared" ref="B741" si="521">B740</f>
+        <v>43403</v>
+      </c>
+      <c r="D741">
+        <v>1</v>
+      </c>
+      <c r="E741" t="s">
+        <v>3</v>
+      </c>
+      <c r="F741" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>3</v>
+      </c>
+      <c r="B742" s="1">
+        <f t="shared" ref="B742" si="522">B733+1</f>
+        <v>43403</v>
+      </c>
+      <c r="D742">
+        <v>1</v>
+      </c>
+      <c r="E742" t="s">
+        <v>4</v>
+      </c>
+      <c r="F742" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>4</v>
+      </c>
+      <c r="B743" s="1">
+        <f t="shared" ref="B743" si="523">B742</f>
+        <v>43403</v>
+      </c>
+      <c r="D743">
+        <v>2</v>
+      </c>
+      <c r="E743" t="s">
+        <v>6</v>
+      </c>
+      <c r="F743" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>5</v>
+      </c>
+      <c r="B744" s="1">
+        <f t="shared" ref="B744:B745" si="524">B735+1</f>
+        <v>43403</v>
+      </c>
+      <c r="D744">
+        <v>2</v>
+      </c>
+      <c r="E744" t="s">
+        <v>5</v>
+      </c>
+      <c r="F744" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>6</v>
+      </c>
+      <c r="B745" s="1">
+        <f t="shared" si="524"/>
+        <v>43403</v>
+      </c>
+      <c r="D745">
+        <v>2</v>
+      </c>
+      <c r="E745" t="s">
+        <v>7</v>
+      </c>
+      <c r="F745" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>7</v>
+      </c>
+      <c r="B746" s="1">
+        <f t="shared" ref="B746" si="525">B745</f>
+        <v>43403</v>
+      </c>
+      <c r="D746">
+        <v>3</v>
+      </c>
+      <c r="E746" t="s">
+        <v>8</v>
+      </c>
+      <c r="F746" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>8</v>
+      </c>
+      <c r="B747" s="1">
+        <f t="shared" ref="B747" si="526">B738+1</f>
+        <v>43403</v>
+      </c>
+      <c r="D747">
+        <v>3</v>
+      </c>
+      <c r="E747" t="s">
+        <v>9</v>
+      </c>
+      <c r="F747" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>9</v>
+      </c>
+      <c r="B748" s="1">
+        <f t="shared" ref="B748" si="527">B747</f>
+        <v>43403</v>
+      </c>
+      <c r="D748">
+        <v>3</v>
+      </c>
+      <c r="E748" t="s">
+        <v>10</v>
+      </c>
+      <c r="F748" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>1</v>
+      </c>
+      <c r="B749" s="1">
+        <f t="shared" ref="B749" si="528">B740+1</f>
+        <v>43404</v>
+      </c>
+      <c r="D749">
+        <v>1</v>
+      </c>
+      <c r="E749" t="s">
+        <v>2</v>
+      </c>
+      <c r="F749" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>2</v>
+      </c>
+      <c r="B750" s="1">
+        <f t="shared" ref="B750" si="529">B749</f>
+        <v>43404</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+      <c r="E750" t="s">
+        <v>3</v>
+      </c>
+      <c r="F750" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>3</v>
+      </c>
+      <c r="B751" s="1">
+        <f t="shared" ref="B751" si="530">B742+1</f>
+        <v>43404</v>
+      </c>
+      <c r="D751">
+        <v>1</v>
+      </c>
+      <c r="E751" t="s">
+        <v>4</v>
+      </c>
+      <c r="F751" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>4</v>
+      </c>
+      <c r="B752" s="1">
+        <f t="shared" ref="B752" si="531">B751</f>
+        <v>43404</v>
+      </c>
+      <c r="D752">
+        <v>2</v>
+      </c>
+      <c r="E752" t="s">
+        <v>6</v>
+      </c>
+      <c r="F752" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>5</v>
+      </c>
+      <c r="B753" s="1">
+        <f t="shared" ref="B753:B754" si="532">B744+1</f>
+        <v>43404</v>
+      </c>
+      <c r="D753">
+        <v>2</v>
+      </c>
+      <c r="E753" t="s">
+        <v>5</v>
+      </c>
+      <c r="F753" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>6</v>
+      </c>
+      <c r="B754" s="1">
+        <f t="shared" si="532"/>
+        <v>43404</v>
+      </c>
+      <c r="D754">
+        <v>2</v>
+      </c>
+      <c r="E754" t="s">
+        <v>7</v>
+      </c>
+      <c r="F754" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>7</v>
+      </c>
+      <c r="B755" s="1">
+        <f t="shared" ref="B755" si="533">B754</f>
+        <v>43404</v>
+      </c>
+      <c r="D755">
+        <v>3</v>
+      </c>
+      <c r="E755" t="s">
+        <v>8</v>
+      </c>
+      <c r="F755" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>8</v>
+      </c>
+      <c r="B756" s="1">
+        <f t="shared" ref="B756" si="534">B747+1</f>
+        <v>43404</v>
+      </c>
+      <c r="D756">
+        <v>3</v>
+      </c>
+      <c r="E756" t="s">
+        <v>9</v>
+      </c>
+      <c r="F756" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>9</v>
+      </c>
+      <c r="B757" s="1">
+        <f t="shared" ref="B757" si="535">B756</f>
+        <v>43404</v>
+      </c>
+      <c r="D757">
+        <v>3</v>
+      </c>
+      <c r="E757" t="s">
+        <v>10</v>
+      </c>
+      <c r="F757" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>1</v>
+      </c>
+      <c r="B758" s="1">
+        <f t="shared" ref="B758" si="536">B749+1</f>
+        <v>43405</v>
+      </c>
+      <c r="D758">
+        <v>1</v>
+      </c>
+      <c r="E758" t="s">
+        <v>2</v>
+      </c>
+      <c r="F758" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>2</v>
+      </c>
+      <c r="B759" s="1">
+        <f t="shared" ref="B759" si="537">B758</f>
+        <v>43405</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759" t="s">
+        <v>3</v>
+      </c>
+      <c r="F759" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>3</v>
+      </c>
+      <c r="B760" s="1">
+        <f t="shared" ref="B760" si="538">B751+1</f>
+        <v>43405</v>
+      </c>
+      <c r="D760">
+        <v>1</v>
+      </c>
+      <c r="E760" t="s">
+        <v>4</v>
+      </c>
+      <c r="F760" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>4</v>
+      </c>
+      <c r="B761" s="1">
+        <f t="shared" ref="B761" si="539">B760</f>
+        <v>43405</v>
+      </c>
+      <c r="D761">
+        <v>2</v>
+      </c>
+      <c r="E761" t="s">
+        <v>6</v>
+      </c>
+      <c r="F761" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>5</v>
+      </c>
+      <c r="B762" s="1">
+        <f t="shared" ref="B762:B763" si="540">B753+1</f>
+        <v>43405</v>
+      </c>
+      <c r="D762">
+        <v>2</v>
+      </c>
+      <c r="E762" t="s">
+        <v>5</v>
+      </c>
+      <c r="F762" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>6</v>
+      </c>
+      <c r="B763" s="1">
+        <f t="shared" si="540"/>
+        <v>43405</v>
+      </c>
+      <c r="D763">
+        <v>2</v>
+      </c>
+      <c r="E763" t="s">
+        <v>7</v>
+      </c>
+      <c r="F763" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>7</v>
+      </c>
+      <c r="B764" s="1">
+        <f t="shared" ref="B764" si="541">B763</f>
+        <v>43405</v>
+      </c>
+      <c r="D764">
+        <v>3</v>
+      </c>
+      <c r="E764" t="s">
+        <v>8</v>
+      </c>
+      <c r="F764" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>8</v>
+      </c>
+      <c r="B765" s="1">
+        <f t="shared" ref="B765" si="542">B756+1</f>
+        <v>43405</v>
+      </c>
+      <c r="D765">
+        <v>3</v>
+      </c>
+      <c r="E765" t="s">
+        <v>9</v>
+      </c>
+      <c r="F765" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>9</v>
+      </c>
+      <c r="B766" s="1">
+        <f t="shared" ref="B766" si="543">B765</f>
+        <v>43405</v>
+      </c>
+      <c r="D766">
+        <v>3</v>
+      </c>
+      <c r="E766" t="s">
+        <v>10</v>
+      </c>
+      <c r="F766" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A676" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
+  <autoFilter ref="A1:A766" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF3C9425-9EF9-4316-999A-546205C9E02E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6DB67A57-31B2-4817-A222-6BE3272AEE00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -3733,8 +3733,8 @@
   <dimension ref="A1:I766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A660" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B670" sqref="B670"/>
+      <pane ySplit="1" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C739" sqref="C739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18667,6 +18667,9 @@
         <f t="shared" ref="B713" si="496">B704+1</f>
         <v>43400</v>
       </c>
+      <c r="C713">
+        <v>410</v>
+      </c>
       <c r="D713">
         <v>1</v>
       </c>
@@ -18685,6 +18688,9 @@
         <f t="shared" ref="B714" si="497">B713</f>
         <v>43400</v>
       </c>
+      <c r="C714">
+        <v>419</v>
+      </c>
       <c r="D714">
         <v>1</v>
       </c>
@@ -18703,6 +18709,9 @@
         <f t="shared" ref="B715" si="498">B706+1</f>
         <v>43400</v>
       </c>
+      <c r="C715">
+        <v>386</v>
+      </c>
       <c r="D715">
         <v>1</v>
       </c>
@@ -18721,6 +18730,9 @@
         <f t="shared" ref="B716" si="499">B715</f>
         <v>43400</v>
       </c>
+      <c r="C716">
+        <v>420</v>
+      </c>
       <c r="D716">
         <v>2</v>
       </c>
@@ -18739,6 +18751,9 @@
         <f t="shared" ref="B717:B718" si="500">B708+1</f>
         <v>43400</v>
       </c>
+      <c r="C717">
+        <v>430</v>
+      </c>
       <c r="D717">
         <v>2</v>
       </c>
@@ -18757,6 +18772,9 @@
         <f t="shared" si="500"/>
         <v>43400</v>
       </c>
+      <c r="C718">
+        <v>436</v>
+      </c>
       <c r="D718">
         <v>2</v>
       </c>
@@ -18775,6 +18793,9 @@
         <f t="shared" ref="B719" si="501">B718</f>
         <v>43400</v>
       </c>
+      <c r="C719">
+        <v>384</v>
+      </c>
       <c r="D719">
         <v>3</v>
       </c>
@@ -18793,6 +18814,9 @@
         <f t="shared" ref="B720" si="502">B711+1</f>
         <v>43400</v>
       </c>
+      <c r="C720">
+        <v>434</v>
+      </c>
       <c r="D720">
         <v>3</v>
       </c>
@@ -18811,6 +18835,9 @@
         <f t="shared" ref="B721" si="503">B720</f>
         <v>43400</v>
       </c>
+      <c r="C721">
+        <v>440</v>
+      </c>
       <c r="D721">
         <v>3</v>
       </c>
@@ -18829,6 +18856,9 @@
         <f t="shared" ref="B722" si="504">B713+1</f>
         <v>43401</v>
       </c>
+      <c r="C722">
+        <v>406</v>
+      </c>
       <c r="D722">
         <v>1</v>
       </c>
@@ -18847,6 +18877,9 @@
         <f t="shared" ref="B723" si="505">B722</f>
         <v>43401</v>
       </c>
+      <c r="C723">
+        <v>414</v>
+      </c>
       <c r="D723">
         <v>1</v>
       </c>
@@ -18865,6 +18898,9 @@
         <f t="shared" ref="B724" si="506">B715+1</f>
         <v>43401</v>
       </c>
+      <c r="C724">
+        <v>383</v>
+      </c>
       <c r="D724">
         <v>1</v>
       </c>
@@ -18883,6 +18919,9 @@
         <f t="shared" ref="B725" si="507">B724</f>
         <v>43401</v>
       </c>
+      <c r="C725">
+        <v>418</v>
+      </c>
       <c r="D725">
         <v>2</v>
       </c>
@@ -18901,6 +18940,9 @@
         <f t="shared" ref="B726:B727" si="508">B717+1</f>
         <v>43401</v>
       </c>
+      <c r="C726">
+        <v>431</v>
+      </c>
       <c r="D726">
         <v>2</v>
       </c>
@@ -18919,6 +18961,9 @@
         <f t="shared" si="508"/>
         <v>43401</v>
       </c>
+      <c r="C727">
+        <v>431</v>
+      </c>
       <c r="D727">
         <v>2</v>
       </c>
@@ -18937,6 +18982,9 @@
         <f t="shared" ref="B728" si="509">B727</f>
         <v>43401</v>
       </c>
+      <c r="C728">
+        <v>387</v>
+      </c>
       <c r="D728">
         <v>3</v>
       </c>
@@ -18955,6 +19003,9 @@
         <f t="shared" ref="B729" si="510">B720+1</f>
         <v>43401</v>
       </c>
+      <c r="C729">
+        <v>430</v>
+      </c>
       <c r="D729">
         <v>3</v>
       </c>
@@ -18973,6 +19024,9 @@
         <f t="shared" ref="B730" si="511">B729</f>
         <v>43401</v>
       </c>
+      <c r="C730">
+        <v>440</v>
+      </c>
       <c r="D730">
         <v>3</v>
       </c>
@@ -18991,6 +19045,9 @@
         <f t="shared" ref="B731" si="512">B722+1</f>
         <v>43402</v>
       </c>
+      <c r="C731">
+        <v>411</v>
+      </c>
       <c r="D731">
         <v>1</v>
       </c>
@@ -19009,6 +19066,9 @@
         <f t="shared" ref="B732" si="513">B731</f>
         <v>43402</v>
       </c>
+      <c r="C732">
+        <v>419</v>
+      </c>
       <c r="D732">
         <v>1</v>
       </c>
@@ -19027,6 +19087,9 @@
         <f t="shared" ref="B733" si="514">B724+1</f>
         <v>43402</v>
       </c>
+      <c r="C733">
+        <v>383</v>
+      </c>
       <c r="D733">
         <v>1</v>
       </c>
@@ -19045,6 +19108,9 @@
         <f t="shared" ref="B734" si="515">B733</f>
         <v>43402</v>
       </c>
+      <c r="C734">
+        <v>414</v>
+      </c>
       <c r="D734">
         <v>2</v>
       </c>
@@ -19063,6 +19129,9 @@
         <f t="shared" ref="B735:B736" si="516">B726+1</f>
         <v>43402</v>
       </c>
+      <c r="C735">
+        <v>434</v>
+      </c>
       <c r="D735">
         <v>2</v>
       </c>
@@ -19081,6 +19150,9 @@
         <f t="shared" si="516"/>
         <v>43402</v>
       </c>
+      <c r="C736">
+        <v>437</v>
+      </c>
       <c r="D736">
         <v>2</v>
       </c>
@@ -19099,6 +19171,9 @@
         <f t="shared" ref="B737" si="517">B736</f>
         <v>43402</v>
       </c>
+      <c r="C737">
+        <v>382</v>
+      </c>
       <c r="D737">
         <v>3</v>
       </c>
@@ -19117,6 +19192,9 @@
         <f t="shared" ref="B738" si="518">B729+1</f>
         <v>43402</v>
       </c>
+      <c r="C738">
+        <v>435</v>
+      </c>
       <c r="D738">
         <v>3</v>
       </c>
@@ -19134,6 +19212,9 @@
       <c r="B739" s="1">
         <f t="shared" ref="B739" si="519">B738</f>
         <v>43402</v>
+      </c>
+      <c r="C739">
+        <v>437</v>
       </c>
       <c r="D739">
         <v>3</v>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6DB67A57-31B2-4817-A222-6BE3272AEE00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5BEE3ADC-53C0-4596-B47B-5C6EACD64BCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rat Colony" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$766</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$802</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -3730,11 +3730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:I766"/>
+  <dimension ref="A1:I802"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C739" sqref="C739"/>
+      <pane ySplit="1" topLeftCell="A722" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E757" sqref="E757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19234,6 +19234,9 @@
         <f t="shared" ref="B740" si="520">B731+1</f>
         <v>43403</v>
       </c>
+      <c r="C740">
+        <v>412</v>
+      </c>
       <c r="D740">
         <v>1</v>
       </c>
@@ -19252,6 +19255,9 @@
         <f t="shared" ref="B741" si="521">B740</f>
         <v>43403</v>
       </c>
+      <c r="C741">
+        <v>422</v>
+      </c>
       <c r="D741">
         <v>1</v>
       </c>
@@ -19270,6 +19276,9 @@
         <f t="shared" ref="B742" si="522">B733+1</f>
         <v>43403</v>
       </c>
+      <c r="C742">
+        <v>380</v>
+      </c>
       <c r="D742">
         <v>1</v>
       </c>
@@ -19288,6 +19297,9 @@
         <f t="shared" ref="B743" si="523">B742</f>
         <v>43403</v>
       </c>
+      <c r="C743">
+        <v>422</v>
+      </c>
       <c r="D743">
         <v>2</v>
       </c>
@@ -19306,6 +19318,9 @@
         <f t="shared" ref="B744:B745" si="524">B735+1</f>
         <v>43403</v>
       </c>
+      <c r="C744">
+        <v>440</v>
+      </c>
       <c r="D744">
         <v>2</v>
       </c>
@@ -19324,6 +19339,9 @@
         <f t="shared" si="524"/>
         <v>43403</v>
       </c>
+      <c r="C745">
+        <v>435</v>
+      </c>
       <c r="D745">
         <v>2</v>
       </c>
@@ -19342,6 +19360,9 @@
         <f t="shared" ref="B746" si="525">B745</f>
         <v>43403</v>
       </c>
+      <c r="C746">
+        <v>385</v>
+      </c>
       <c r="D746">
         <v>3</v>
       </c>
@@ -19360,6 +19381,9 @@
         <f t="shared" ref="B747" si="526">B738+1</f>
         <v>43403</v>
       </c>
+      <c r="C747">
+        <v>436</v>
+      </c>
       <c r="D747">
         <v>3</v>
       </c>
@@ -19378,6 +19402,9 @@
         <f t="shared" ref="B748" si="527">B747</f>
         <v>43403</v>
       </c>
+      <c r="C748">
+        <v>446</v>
+      </c>
       <c r="D748">
         <v>3</v>
       </c>
@@ -19396,6 +19423,9 @@
         <f t="shared" ref="B749" si="528">B740+1</f>
         <v>43404</v>
       </c>
+      <c r="C749">
+        <v>405</v>
+      </c>
       <c r="D749">
         <v>1</v>
       </c>
@@ -19414,6 +19444,9 @@
         <f t="shared" ref="B750" si="529">B749</f>
         <v>43404</v>
       </c>
+      <c r="C750">
+        <v>418</v>
+      </c>
       <c r="D750">
         <v>1</v>
       </c>
@@ -19432,6 +19465,9 @@
         <f t="shared" ref="B751" si="530">B742+1</f>
         <v>43404</v>
       </c>
+      <c r="C751">
+        <v>380</v>
+      </c>
       <c r="D751">
         <v>1</v>
       </c>
@@ -19450,6 +19486,9 @@
         <f t="shared" ref="B752" si="531">B751</f>
         <v>43404</v>
       </c>
+      <c r="C752">
+        <v>419</v>
+      </c>
       <c r="D752">
         <v>2</v>
       </c>
@@ -19468,6 +19507,9 @@
         <f t="shared" ref="B753:B754" si="532">B744+1</f>
         <v>43404</v>
       </c>
+      <c r="C753">
+        <v>432</v>
+      </c>
       <c r="D753">
         <v>2</v>
       </c>
@@ -19486,6 +19528,9 @@
         <f t="shared" si="532"/>
         <v>43404</v>
       </c>
+      <c r="C754">
+        <v>431</v>
+      </c>
       <c r="D754">
         <v>2</v>
       </c>
@@ -19504,6 +19549,9 @@
         <f t="shared" ref="B755" si="533">B754</f>
         <v>43404</v>
       </c>
+      <c r="C755">
+        <v>382</v>
+      </c>
       <c r="D755">
         <v>3</v>
       </c>
@@ -19522,6 +19570,9 @@
         <f t="shared" ref="B756" si="534">B747+1</f>
         <v>43404</v>
       </c>
+      <c r="C756">
+        <v>432</v>
+      </c>
       <c r="D756">
         <v>3</v>
       </c>
@@ -19540,6 +19591,9 @@
         <f t="shared" ref="B757" si="535">B756</f>
         <v>43404</v>
       </c>
+      <c r="C757">
+        <v>445</v>
+      </c>
       <c r="D757">
         <v>3</v>
       </c>
@@ -19558,6 +19612,9 @@
         <f t="shared" ref="B758" si="536">B749+1</f>
         <v>43405</v>
       </c>
+      <c r="C758">
+        <v>413</v>
+      </c>
       <c r="D758">
         <v>1</v>
       </c>
@@ -19576,6 +19633,9 @@
         <f t="shared" ref="B759" si="537">B758</f>
         <v>43405</v>
       </c>
+      <c r="C759">
+        <v>424</v>
+      </c>
       <c r="D759">
         <v>1</v>
       </c>
@@ -19594,6 +19654,9 @@
         <f t="shared" ref="B760" si="538">B751+1</f>
         <v>43405</v>
       </c>
+      <c r="C760">
+        <v>391</v>
+      </c>
       <c r="D760">
         <v>1</v>
       </c>
@@ -19612,6 +19675,9 @@
         <f t="shared" ref="B761" si="539">B760</f>
         <v>43405</v>
       </c>
+      <c r="C761">
+        <v>430</v>
+      </c>
       <c r="D761">
         <v>2</v>
       </c>
@@ -19630,6 +19696,9 @@
         <f t="shared" ref="B762:B763" si="540">B753+1</f>
         <v>43405</v>
       </c>
+      <c r="C762">
+        <v>443</v>
+      </c>
       <c r="D762">
         <v>2</v>
       </c>
@@ -19648,6 +19717,9 @@
         <f t="shared" si="540"/>
         <v>43405</v>
       </c>
+      <c r="C763">
+        <v>438</v>
+      </c>
       <c r="D763">
         <v>2</v>
       </c>
@@ -19666,6 +19738,9 @@
         <f t="shared" ref="B764" si="541">B763</f>
         <v>43405</v>
       </c>
+      <c r="C764">
+        <v>390</v>
+      </c>
       <c r="D764">
         <v>3</v>
       </c>
@@ -19684,6 +19759,9 @@
         <f t="shared" ref="B765" si="542">B756+1</f>
         <v>43405</v>
       </c>
+      <c r="C765">
+        <v>436</v>
+      </c>
       <c r="D765">
         <v>3</v>
       </c>
@@ -19702,6 +19780,9 @@
         <f t="shared" ref="B766" si="543">B765</f>
         <v>43405</v>
       </c>
+      <c r="C766">
+        <v>454</v>
+      </c>
       <c r="D766">
         <v>3</v>
       </c>
@@ -19712,8 +19793,683 @@
         <v>20</v>
       </c>
     </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>1</v>
+      </c>
+      <c r="B767" s="1">
+        <f t="shared" ref="B767" si="544">B758+1</f>
+        <v>43406</v>
+      </c>
+      <c r="C767">
+        <v>412</v>
+      </c>
+      <c r="D767">
+        <v>1</v>
+      </c>
+      <c r="E767" t="s">
+        <v>2</v>
+      </c>
+      <c r="F767" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>2</v>
+      </c>
+      <c r="B768" s="1">
+        <f t="shared" ref="B768" si="545">B767</f>
+        <v>43406</v>
+      </c>
+      <c r="C768">
+        <v>426</v>
+      </c>
+      <c r="D768">
+        <v>1</v>
+      </c>
+      <c r="E768" t="s">
+        <v>3</v>
+      </c>
+      <c r="F768" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>3</v>
+      </c>
+      <c r="B769" s="1">
+        <f t="shared" ref="B769" si="546">B760+1</f>
+        <v>43406</v>
+      </c>
+      <c r="C769">
+        <v>387</v>
+      </c>
+      <c r="D769">
+        <v>1</v>
+      </c>
+      <c r="E769" t="s">
+        <v>4</v>
+      </c>
+      <c r="F769" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>4</v>
+      </c>
+      <c r="B770" s="1">
+        <f t="shared" ref="B770" si="547">B769</f>
+        <v>43406</v>
+      </c>
+      <c r="C770">
+        <v>431</v>
+      </c>
+      <c r="D770">
+        <v>2</v>
+      </c>
+      <c r="E770" t="s">
+        <v>6</v>
+      </c>
+      <c r="F770" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>5</v>
+      </c>
+      <c r="B771" s="1">
+        <f t="shared" ref="B771:B772" si="548">B762+1</f>
+        <v>43406</v>
+      </c>
+      <c r="C771">
+        <v>442</v>
+      </c>
+      <c r="D771">
+        <v>2</v>
+      </c>
+      <c r="E771" t="s">
+        <v>5</v>
+      </c>
+      <c r="F771" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>6</v>
+      </c>
+      <c r="B772" s="1">
+        <f t="shared" si="548"/>
+        <v>43406</v>
+      </c>
+      <c r="C772">
+        <v>438</v>
+      </c>
+      <c r="D772">
+        <v>2</v>
+      </c>
+      <c r="E772" t="s">
+        <v>7</v>
+      </c>
+      <c r="F772" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>7</v>
+      </c>
+      <c r="B773" s="1">
+        <f t="shared" ref="B773" si="549">B772</f>
+        <v>43406</v>
+      </c>
+      <c r="C773">
+        <v>389</v>
+      </c>
+      <c r="D773">
+        <v>3</v>
+      </c>
+      <c r="E773" t="s">
+        <v>8</v>
+      </c>
+      <c r="F773" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>8</v>
+      </c>
+      <c r="B774" s="1">
+        <f t="shared" ref="B774" si="550">B765+1</f>
+        <v>43406</v>
+      </c>
+      <c r="C774">
+        <v>440</v>
+      </c>
+      <c r="D774">
+        <v>3</v>
+      </c>
+      <c r="E774" t="s">
+        <v>9</v>
+      </c>
+      <c r="F774" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>9</v>
+      </c>
+      <c r="B775" s="1">
+        <f t="shared" ref="B775" si="551">B774</f>
+        <v>43406</v>
+      </c>
+      <c r="C775">
+        <v>456</v>
+      </c>
+      <c r="D775">
+        <v>3</v>
+      </c>
+      <c r="E775" t="s">
+        <v>10</v>
+      </c>
+      <c r="F775" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>1</v>
+      </c>
+      <c r="B776" s="1">
+        <f t="shared" ref="B776" si="552">B767+1</f>
+        <v>43407</v>
+      </c>
+      <c r="D776">
+        <v>1</v>
+      </c>
+      <c r="E776" t="s">
+        <v>2</v>
+      </c>
+      <c r="F776" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>2</v>
+      </c>
+      <c r="B777" s="1">
+        <f t="shared" ref="B777" si="553">B776</f>
+        <v>43407</v>
+      </c>
+      <c r="D777">
+        <v>1</v>
+      </c>
+      <c r="E777" t="s">
+        <v>3</v>
+      </c>
+      <c r="F777" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>3</v>
+      </c>
+      <c r="B778" s="1">
+        <f t="shared" ref="B778" si="554">B769+1</f>
+        <v>43407</v>
+      </c>
+      <c r="D778">
+        <v>1</v>
+      </c>
+      <c r="E778" t="s">
+        <v>4</v>
+      </c>
+      <c r="F778" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>4</v>
+      </c>
+      <c r="B779" s="1">
+        <f t="shared" ref="B779" si="555">B778</f>
+        <v>43407</v>
+      </c>
+      <c r="D779">
+        <v>2</v>
+      </c>
+      <c r="E779" t="s">
+        <v>6</v>
+      </c>
+      <c r="F779" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>5</v>
+      </c>
+      <c r="B780" s="1">
+        <f t="shared" ref="B780:B781" si="556">B771+1</f>
+        <v>43407</v>
+      </c>
+      <c r="D780">
+        <v>2</v>
+      </c>
+      <c r="E780" t="s">
+        <v>5</v>
+      </c>
+      <c r="F780" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>6</v>
+      </c>
+      <c r="B781" s="1">
+        <f t="shared" si="556"/>
+        <v>43407</v>
+      </c>
+      <c r="D781">
+        <v>2</v>
+      </c>
+      <c r="E781" t="s">
+        <v>7</v>
+      </c>
+      <c r="F781" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>7</v>
+      </c>
+      <c r="B782" s="1">
+        <f t="shared" ref="B782" si="557">B781</f>
+        <v>43407</v>
+      </c>
+      <c r="D782">
+        <v>3</v>
+      </c>
+      <c r="E782" t="s">
+        <v>8</v>
+      </c>
+      <c r="F782" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>8</v>
+      </c>
+      <c r="B783" s="1">
+        <f t="shared" ref="B783" si="558">B774+1</f>
+        <v>43407</v>
+      </c>
+      <c r="D783">
+        <v>3</v>
+      </c>
+      <c r="E783" t="s">
+        <v>9</v>
+      </c>
+      <c r="F783" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>9</v>
+      </c>
+      <c r="B784" s="1">
+        <f t="shared" ref="B784" si="559">B783</f>
+        <v>43407</v>
+      </c>
+      <c r="D784">
+        <v>3</v>
+      </c>
+      <c r="E784" t="s">
+        <v>10</v>
+      </c>
+      <c r="F784" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>1</v>
+      </c>
+      <c r="B785" s="1">
+        <f t="shared" ref="B785" si="560">B776+1</f>
+        <v>43408</v>
+      </c>
+      <c r="D785">
+        <v>1</v>
+      </c>
+      <c r="E785" t="s">
+        <v>2</v>
+      </c>
+      <c r="F785" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>2</v>
+      </c>
+      <c r="B786" s="1">
+        <f t="shared" ref="B786" si="561">B785</f>
+        <v>43408</v>
+      </c>
+      <c r="D786">
+        <v>1</v>
+      </c>
+      <c r="E786" t="s">
+        <v>3</v>
+      </c>
+      <c r="F786" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>3</v>
+      </c>
+      <c r="B787" s="1">
+        <f t="shared" ref="B787" si="562">B778+1</f>
+        <v>43408</v>
+      </c>
+      <c r="D787">
+        <v>1</v>
+      </c>
+      <c r="E787" t="s">
+        <v>4</v>
+      </c>
+      <c r="F787" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>4</v>
+      </c>
+      <c r="B788" s="1">
+        <f t="shared" ref="B788" si="563">B787</f>
+        <v>43408</v>
+      </c>
+      <c r="D788">
+        <v>2</v>
+      </c>
+      <c r="E788" t="s">
+        <v>6</v>
+      </c>
+      <c r="F788" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>5</v>
+      </c>
+      <c r="B789" s="1">
+        <f t="shared" ref="B789:B790" si="564">B780+1</f>
+        <v>43408</v>
+      </c>
+      <c r="D789">
+        <v>2</v>
+      </c>
+      <c r="E789" t="s">
+        <v>5</v>
+      </c>
+      <c r="F789" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>6</v>
+      </c>
+      <c r="B790" s="1">
+        <f t="shared" si="564"/>
+        <v>43408</v>
+      </c>
+      <c r="D790">
+        <v>2</v>
+      </c>
+      <c r="E790" t="s">
+        <v>7</v>
+      </c>
+      <c r="F790" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>7</v>
+      </c>
+      <c r="B791" s="1">
+        <f t="shared" ref="B791" si="565">B790</f>
+        <v>43408</v>
+      </c>
+      <c r="D791">
+        <v>3</v>
+      </c>
+      <c r="E791" t="s">
+        <v>8</v>
+      </c>
+      <c r="F791" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>8</v>
+      </c>
+      <c r="B792" s="1">
+        <f t="shared" ref="B792" si="566">B783+1</f>
+        <v>43408</v>
+      </c>
+      <c r="D792">
+        <v>3</v>
+      </c>
+      <c r="E792" t="s">
+        <v>9</v>
+      </c>
+      <c r="F792" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>9</v>
+      </c>
+      <c r="B793" s="1">
+        <f t="shared" ref="B793" si="567">B792</f>
+        <v>43408</v>
+      </c>
+      <c r="D793">
+        <v>3</v>
+      </c>
+      <c r="E793" t="s">
+        <v>10</v>
+      </c>
+      <c r="F793" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>1</v>
+      </c>
+      <c r="B794" s="1">
+        <f t="shared" ref="B794" si="568">B785+1</f>
+        <v>43409</v>
+      </c>
+      <c r="D794">
+        <v>1</v>
+      </c>
+      <c r="E794" t="s">
+        <v>2</v>
+      </c>
+      <c r="F794" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>2</v>
+      </c>
+      <c r="B795" s="1">
+        <f t="shared" ref="B795" si="569">B794</f>
+        <v>43409</v>
+      </c>
+      <c r="D795">
+        <v>1</v>
+      </c>
+      <c r="E795" t="s">
+        <v>3</v>
+      </c>
+      <c r="F795" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>3</v>
+      </c>
+      <c r="B796" s="1">
+        <f t="shared" ref="B796" si="570">B787+1</f>
+        <v>43409</v>
+      </c>
+      <c r="D796">
+        <v>1</v>
+      </c>
+      <c r="E796" t="s">
+        <v>4</v>
+      </c>
+      <c r="F796" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>4</v>
+      </c>
+      <c r="B797" s="1">
+        <f t="shared" ref="B797" si="571">B796</f>
+        <v>43409</v>
+      </c>
+      <c r="D797">
+        <v>2</v>
+      </c>
+      <c r="E797" t="s">
+        <v>6</v>
+      </c>
+      <c r="F797" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>5</v>
+      </c>
+      <c r="B798" s="1">
+        <f t="shared" ref="B798:B799" si="572">B789+1</f>
+        <v>43409</v>
+      </c>
+      <c r="D798">
+        <v>2</v>
+      </c>
+      <c r="E798" t="s">
+        <v>5</v>
+      </c>
+      <c r="F798" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>6</v>
+      </c>
+      <c r="B799" s="1">
+        <f t="shared" si="572"/>
+        <v>43409</v>
+      </c>
+      <c r="D799">
+        <v>2</v>
+      </c>
+      <c r="E799" t="s">
+        <v>7</v>
+      </c>
+      <c r="F799" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>7</v>
+      </c>
+      <c r="B800" s="1">
+        <f t="shared" ref="B800" si="573">B799</f>
+        <v>43409</v>
+      </c>
+      <c r="D800">
+        <v>3</v>
+      </c>
+      <c r="E800" t="s">
+        <v>8</v>
+      </c>
+      <c r="F800" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>8</v>
+      </c>
+      <c r="B801" s="1">
+        <f t="shared" ref="B801" si="574">B792+1</f>
+        <v>43409</v>
+      </c>
+      <c r="D801">
+        <v>3</v>
+      </c>
+      <c r="E801" t="s">
+        <v>9</v>
+      </c>
+      <c r="F801" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>9</v>
+      </c>
+      <c r="B802" s="1">
+        <f t="shared" ref="B802" si="575">B801</f>
+        <v>43409</v>
+      </c>
+      <c r="D802">
+        <v>3</v>
+      </c>
+      <c r="E802" t="s">
+        <v>10</v>
+      </c>
+      <c r="F802" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A766" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
+  <autoFilter ref="A1:A802" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5BEE3ADC-53C0-4596-B47B-5C6EACD64BCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{566BF0DB-5733-41D3-BBFC-B52CC051AF0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -3730,11 +3730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:I802"/>
+  <dimension ref="A1:I884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A722" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E757" sqref="E757"/>
+      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C848" sqref="C848"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19990,6 +19990,9 @@
         <f t="shared" ref="B776" si="552">B767+1</f>
         <v>43407</v>
       </c>
+      <c r="C776">
+        <v>411</v>
+      </c>
       <c r="D776">
         <v>1</v>
       </c>
@@ -20008,6 +20011,9 @@
         <f t="shared" ref="B777" si="553">B776</f>
         <v>43407</v>
       </c>
+      <c r="C777">
+        <v>424</v>
+      </c>
       <c r="D777">
         <v>1</v>
       </c>
@@ -20026,6 +20032,9 @@
         <f t="shared" ref="B778" si="554">B769+1</f>
         <v>43407</v>
       </c>
+      <c r="C778">
+        <v>386</v>
+      </c>
       <c r="D778">
         <v>1</v>
       </c>
@@ -20044,6 +20053,9 @@
         <f t="shared" ref="B779" si="555">B778</f>
         <v>43407</v>
       </c>
+      <c r="C779">
+        <v>427</v>
+      </c>
       <c r="D779">
         <v>2</v>
       </c>
@@ -20062,6 +20074,9 @@
         <f t="shared" ref="B780:B781" si="556">B771+1</f>
         <v>43407</v>
       </c>
+      <c r="C780">
+        <v>439</v>
+      </c>
       <c r="D780">
         <v>2</v>
       </c>
@@ -20080,6 +20095,9 @@
         <f t="shared" si="556"/>
         <v>43407</v>
       </c>
+      <c r="C781">
+        <v>440</v>
+      </c>
       <c r="D781">
         <v>2</v>
       </c>
@@ -20098,6 +20116,9 @@
         <f t="shared" ref="B782" si="557">B781</f>
         <v>43407</v>
       </c>
+      <c r="C782">
+        <v>390</v>
+      </c>
       <c r="D782">
         <v>3</v>
       </c>
@@ -20116,6 +20137,9 @@
         <f t="shared" ref="B783" si="558">B774+1</f>
         <v>43407</v>
       </c>
+      <c r="C783">
+        <v>437</v>
+      </c>
       <c r="D783">
         <v>3</v>
       </c>
@@ -20134,6 +20158,9 @@
         <f t="shared" ref="B784" si="559">B783</f>
         <v>43407</v>
       </c>
+      <c r="C784">
+        <v>453</v>
+      </c>
       <c r="D784">
         <v>3</v>
       </c>
@@ -20152,6 +20179,9 @@
         <f t="shared" ref="B785" si="560">B776+1</f>
         <v>43408</v>
       </c>
+      <c r="C785">
+        <v>409</v>
+      </c>
       <c r="D785">
         <v>1</v>
       </c>
@@ -20170,6 +20200,9 @@
         <f t="shared" ref="B786" si="561">B785</f>
         <v>43408</v>
       </c>
+      <c r="C786">
+        <v>424</v>
+      </c>
       <c r="D786">
         <v>1</v>
       </c>
@@ -20188,6 +20221,9 @@
         <f t="shared" ref="B787" si="562">B778+1</f>
         <v>43408</v>
       </c>
+      <c r="C787">
+        <v>385</v>
+      </c>
       <c r="D787">
         <v>1</v>
       </c>
@@ -20206,6 +20242,9 @@
         <f t="shared" ref="B788" si="563">B787</f>
         <v>43408</v>
       </c>
+      <c r="C788">
+        <v>423</v>
+      </c>
       <c r="D788">
         <v>2</v>
       </c>
@@ -20224,6 +20263,9 @@
         <f t="shared" ref="B789:B790" si="564">B780+1</f>
         <v>43408</v>
       </c>
+      <c r="C789">
+        <v>442</v>
+      </c>
       <c r="D789">
         <v>2</v>
       </c>
@@ -20242,6 +20284,9 @@
         <f t="shared" si="564"/>
         <v>43408</v>
       </c>
+      <c r="C790">
+        <v>439</v>
+      </c>
       <c r="D790">
         <v>2</v>
       </c>
@@ -20260,6 +20305,9 @@
         <f t="shared" ref="B791" si="565">B790</f>
         <v>43408</v>
       </c>
+      <c r="C791">
+        <v>395</v>
+      </c>
       <c r="D791">
         <v>3</v>
       </c>
@@ -20278,6 +20326,9 @@
         <f t="shared" ref="B792" si="566">B783+1</f>
         <v>43408</v>
       </c>
+      <c r="C792">
+        <v>440</v>
+      </c>
       <c r="D792">
         <v>3</v>
       </c>
@@ -20296,6 +20347,9 @@
         <f t="shared" ref="B793" si="567">B792</f>
         <v>43408</v>
       </c>
+      <c r="C793">
+        <v>452</v>
+      </c>
       <c r="D793">
         <v>3</v>
       </c>
@@ -20314,6 +20368,9 @@
         <f t="shared" ref="B794" si="568">B785+1</f>
         <v>43409</v>
       </c>
+      <c r="C794">
+        <v>415</v>
+      </c>
       <c r="D794">
         <v>1</v>
       </c>
@@ -20332,6 +20389,9 @@
         <f t="shared" ref="B795" si="569">B794</f>
         <v>43409</v>
       </c>
+      <c r="C795">
+        <v>432</v>
+      </c>
       <c r="D795">
         <v>1</v>
       </c>
@@ -20350,6 +20410,9 @@
         <f t="shared" ref="B796" si="570">B787+1</f>
         <v>43409</v>
       </c>
+      <c r="C796">
+        <v>393</v>
+      </c>
       <c r="D796">
         <v>1</v>
       </c>
@@ -20368,6 +20431,9 @@
         <f t="shared" ref="B797" si="571">B796</f>
         <v>43409</v>
       </c>
+      <c r="C797">
+        <v>431</v>
+      </c>
       <c r="D797">
         <v>2</v>
       </c>
@@ -20386,6 +20452,9 @@
         <f t="shared" ref="B798:B799" si="572">B789+1</f>
         <v>43409</v>
       </c>
+      <c r="C798">
+        <v>447</v>
+      </c>
       <c r="D798">
         <v>2</v>
       </c>
@@ -20404,6 +20473,9 @@
         <f t="shared" si="572"/>
         <v>43409</v>
       </c>
+      <c r="C799">
+        <v>445</v>
+      </c>
       <c r="D799">
         <v>2</v>
       </c>
@@ -20422,6 +20494,9 @@
         <f t="shared" ref="B800" si="573">B799</f>
         <v>43409</v>
       </c>
+      <c r="C800">
+        <v>394</v>
+      </c>
       <c r="D800">
         <v>3</v>
       </c>
@@ -20440,6 +20515,9 @@
         <f t="shared" ref="B801" si="574">B792+1</f>
         <v>43409</v>
       </c>
+      <c r="C801">
+        <v>446</v>
+      </c>
       <c r="D801">
         <v>3</v>
       </c>
@@ -20458,6 +20536,9 @@
         <f t="shared" ref="B802" si="575">B801</f>
         <v>43409</v>
       </c>
+      <c r="C802">
+        <v>459</v>
+      </c>
       <c r="D802">
         <v>3</v>
       </c>
@@ -20467,6 +20548,1602 @@
       <c r="F802" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>1</v>
+      </c>
+      <c r="B803" s="1">
+        <f t="shared" ref="B803" si="576">B794+1</f>
+        <v>43410</v>
+      </c>
+      <c r="C803">
+        <v>416</v>
+      </c>
+      <c r="D803">
+        <v>1</v>
+      </c>
+      <c r="E803" t="s">
+        <v>2</v>
+      </c>
+      <c r="F803" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>2</v>
+      </c>
+      <c r="B804" s="1">
+        <f t="shared" ref="B804" si="577">B803</f>
+        <v>43410</v>
+      </c>
+      <c r="C804">
+        <v>435</v>
+      </c>
+      <c r="D804">
+        <v>1</v>
+      </c>
+      <c r="E804" t="s">
+        <v>3</v>
+      </c>
+      <c r="F804" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>3</v>
+      </c>
+      <c r="B805" s="1">
+        <f t="shared" ref="B805" si="578">B796+1</f>
+        <v>43410</v>
+      </c>
+      <c r="C805">
+        <v>394</v>
+      </c>
+      <c r="D805">
+        <v>1</v>
+      </c>
+      <c r="E805" t="s">
+        <v>4</v>
+      </c>
+      <c r="F805" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>4</v>
+      </c>
+      <c r="B806" s="1">
+        <f t="shared" ref="B806" si="579">B805</f>
+        <v>43410</v>
+      </c>
+      <c r="C806">
+        <v>427</v>
+      </c>
+      <c r="D806">
+        <v>2</v>
+      </c>
+      <c r="E806" t="s">
+        <v>6</v>
+      </c>
+      <c r="F806" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>5</v>
+      </c>
+      <c r="B807" s="1">
+        <f t="shared" ref="B807:B808" si="580">B798+1</f>
+        <v>43410</v>
+      </c>
+      <c r="C807">
+        <v>447</v>
+      </c>
+      <c r="D807">
+        <v>2</v>
+      </c>
+      <c r="E807" t="s">
+        <v>5</v>
+      </c>
+      <c r="F807" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>6</v>
+      </c>
+      <c r="B808" s="1">
+        <f t="shared" si="580"/>
+        <v>43410</v>
+      </c>
+      <c r="C808">
+        <v>446</v>
+      </c>
+      <c r="D808">
+        <v>2</v>
+      </c>
+      <c r="E808" t="s">
+        <v>7</v>
+      </c>
+      <c r="F808" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>7</v>
+      </c>
+      <c r="B809" s="1">
+        <f t="shared" ref="B809" si="581">B808</f>
+        <v>43410</v>
+      </c>
+      <c r="C809">
+        <v>396</v>
+      </c>
+      <c r="D809">
+        <v>3</v>
+      </c>
+      <c r="E809" t="s">
+        <v>8</v>
+      </c>
+      <c r="F809" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>8</v>
+      </c>
+      <c r="B810" s="1">
+        <f t="shared" ref="B810" si="582">B801+1</f>
+        <v>43410</v>
+      </c>
+      <c r="C810">
+        <v>443</v>
+      </c>
+      <c r="D810">
+        <v>3</v>
+      </c>
+      <c r="E810" t="s">
+        <v>9</v>
+      </c>
+      <c r="F810" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>9</v>
+      </c>
+      <c r="B811" s="1">
+        <f t="shared" ref="B811" si="583">B810</f>
+        <v>43410</v>
+      </c>
+      <c r="C811">
+        <v>460</v>
+      </c>
+      <c r="D811">
+        <v>3</v>
+      </c>
+      <c r="E811" t="s">
+        <v>10</v>
+      </c>
+      <c r="F811" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>1</v>
+      </c>
+      <c r="B812" s="1">
+        <f t="shared" ref="B812:B848" si="584">B803+1</f>
+        <v>43411</v>
+      </c>
+      <c r="C812">
+        <v>417</v>
+      </c>
+      <c r="D812">
+        <v>3.5</v>
+      </c>
+      <c r="E812" t="s">
+        <v>2</v>
+      </c>
+      <c r="F812" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>2</v>
+      </c>
+      <c r="B813" s="1">
+        <f t="shared" ref="B813:B849" si="585">B812</f>
+        <v>43411</v>
+      </c>
+      <c r="C813">
+        <v>435</v>
+      </c>
+      <c r="D813">
+        <v>3.8</v>
+      </c>
+      <c r="E813" t="s">
+        <v>3</v>
+      </c>
+      <c r="F813" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>3</v>
+      </c>
+      <c r="B814" s="1">
+        <f t="shared" ref="B814:B850" si="586">B805+1</f>
+        <v>43411</v>
+      </c>
+      <c r="C814">
+        <v>399</v>
+      </c>
+      <c r="D814">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E814" t="s">
+        <v>4</v>
+      </c>
+      <c r="F814" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>4</v>
+      </c>
+      <c r="B815" s="1">
+        <f t="shared" ref="B815:B851" si="587">B814</f>
+        <v>43411</v>
+      </c>
+      <c r="C815">
+        <v>429</v>
+      </c>
+      <c r="D815">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E815" t="s">
+        <v>6</v>
+      </c>
+      <c r="F815" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>5</v>
+      </c>
+      <c r="B816" s="1">
+        <f t="shared" ref="B816:B853" si="588">B807+1</f>
+        <v>43411</v>
+      </c>
+      <c r="C816">
+        <v>447</v>
+      </c>
+      <c r="D816">
+        <v>4.7</v>
+      </c>
+      <c r="E816" t="s">
+        <v>5</v>
+      </c>
+      <c r="F816" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>6</v>
+      </c>
+      <c r="B817" s="1">
+        <f t="shared" si="588"/>
+        <v>43411</v>
+      </c>
+      <c r="C817">
+        <v>443</v>
+      </c>
+      <c r="D817">
+        <v>5</v>
+      </c>
+      <c r="E817" t="s">
+        <v>7</v>
+      </c>
+      <c r="F817" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>7</v>
+      </c>
+      <c r="B818" s="1">
+        <f t="shared" ref="B818:B845" si="589">B817</f>
+        <v>43411</v>
+      </c>
+      <c r="C818">
+        <v>394</v>
+      </c>
+      <c r="D818">
+        <v>5.3</v>
+      </c>
+      <c r="E818" t="s">
+        <v>8</v>
+      </c>
+      <c r="F818" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>8</v>
+      </c>
+      <c r="B819" s="1">
+        <f t="shared" ref="B819:B846" si="590">B810+1</f>
+        <v>43411</v>
+      </c>
+      <c r="C819">
+        <v>442</v>
+      </c>
+      <c r="D819">
+        <v>5.6</v>
+      </c>
+      <c r="E819" t="s">
+        <v>9</v>
+      </c>
+      <c r="F819" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>9</v>
+      </c>
+      <c r="B820" s="1">
+        <f t="shared" ref="B820:B847" si="591">B819</f>
+        <v>43411</v>
+      </c>
+      <c r="C820">
+        <v>455</v>
+      </c>
+      <c r="D820">
+        <v>5.9</v>
+      </c>
+      <c r="E820" t="s">
+        <v>10</v>
+      </c>
+      <c r="F820" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>1</v>
+      </c>
+      <c r="B821" s="1">
+        <f t="shared" si="584"/>
+        <v>43412</v>
+      </c>
+      <c r="C821">
+        <v>424</v>
+      </c>
+      <c r="D821">
+        <v>6.2</v>
+      </c>
+      <c r="E821" t="s">
+        <v>2</v>
+      </c>
+      <c r="F821" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>2</v>
+      </c>
+      <c r="B822" s="1">
+        <f t="shared" si="585"/>
+        <v>43412</v>
+      </c>
+      <c r="C822">
+        <v>442</v>
+      </c>
+      <c r="D822">
+        <v>6.5</v>
+      </c>
+      <c r="E822" t="s">
+        <v>3</v>
+      </c>
+      <c r="F822" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>3</v>
+      </c>
+      <c r="B823" s="1">
+        <f t="shared" si="586"/>
+        <v>43412</v>
+      </c>
+      <c r="C823">
+        <v>402</v>
+      </c>
+      <c r="D823">
+        <v>6.8</v>
+      </c>
+      <c r="E823" t="s">
+        <v>4</v>
+      </c>
+      <c r="F823" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>4</v>
+      </c>
+      <c r="B824" s="1">
+        <f t="shared" si="587"/>
+        <v>43412</v>
+      </c>
+      <c r="C824">
+        <v>438</v>
+      </c>
+      <c r="D824">
+        <v>7.1</v>
+      </c>
+      <c r="E824" t="s">
+        <v>6</v>
+      </c>
+      <c r="F824" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>5</v>
+      </c>
+      <c r="B825" s="1">
+        <f t="shared" si="588"/>
+        <v>43412</v>
+      </c>
+      <c r="C825">
+        <v>455</v>
+      </c>
+      <c r="D825">
+        <v>7.4</v>
+      </c>
+      <c r="E825" t="s">
+        <v>5</v>
+      </c>
+      <c r="F825" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>6</v>
+      </c>
+      <c r="B826" s="1">
+        <f t="shared" si="588"/>
+        <v>43412</v>
+      </c>
+      <c r="C826">
+        <v>446</v>
+      </c>
+      <c r="D826">
+        <v>7.7</v>
+      </c>
+      <c r="E826" t="s">
+        <v>7</v>
+      </c>
+      <c r="F826" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>7</v>
+      </c>
+      <c r="B827" s="1">
+        <f t="shared" si="589"/>
+        <v>43412</v>
+      </c>
+      <c r="C827">
+        <v>402</v>
+      </c>
+      <c r="D827">
+        <v>8</v>
+      </c>
+      <c r="E827" t="s">
+        <v>8</v>
+      </c>
+      <c r="F827" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>8</v>
+      </c>
+      <c r="B828" s="1">
+        <f t="shared" si="590"/>
+        <v>43412</v>
+      </c>
+      <c r="C828">
+        <v>457</v>
+      </c>
+      <c r="D828">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E828" t="s">
+        <v>9</v>
+      </c>
+      <c r="F828" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>9</v>
+      </c>
+      <c r="B829" s="1">
+        <f t="shared" si="591"/>
+        <v>43412</v>
+      </c>
+      <c r="C829">
+        <v>467</v>
+      </c>
+      <c r="D829">
+        <v>8.6</v>
+      </c>
+      <c r="E829" t="s">
+        <v>10</v>
+      </c>
+      <c r="F829" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>1</v>
+      </c>
+      <c r="B830" s="1">
+        <f t="shared" si="584"/>
+        <v>43413</v>
+      </c>
+      <c r="C830">
+        <v>418</v>
+      </c>
+      <c r="D830">
+        <v>8.9</v>
+      </c>
+      <c r="E830" t="s">
+        <v>2</v>
+      </c>
+      <c r="F830" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>2</v>
+      </c>
+      <c r="B831" s="1">
+        <f t="shared" si="585"/>
+        <v>43413</v>
+      </c>
+      <c r="C831">
+        <v>435</v>
+      </c>
+      <c r="D831">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E831" t="s">
+        <v>3</v>
+      </c>
+      <c r="F831" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>3</v>
+      </c>
+      <c r="B832" s="1">
+        <f t="shared" si="586"/>
+        <v>43413</v>
+      </c>
+      <c r="C832">
+        <v>400</v>
+      </c>
+      <c r="D832">
+        <v>9.5</v>
+      </c>
+      <c r="E832" t="s">
+        <v>4</v>
+      </c>
+      <c r="F832" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>4</v>
+      </c>
+      <c r="B833" s="1">
+        <f t="shared" si="587"/>
+        <v>43413</v>
+      </c>
+      <c r="C833">
+        <v>434</v>
+      </c>
+      <c r="D833">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E833" t="s">
+        <v>6</v>
+      </c>
+      <c r="F833" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>5</v>
+      </c>
+      <c r="B834" s="1">
+        <f t="shared" si="588"/>
+        <v>43413</v>
+      </c>
+      <c r="C834">
+        <v>448</v>
+      </c>
+      <c r="D834">
+        <v>10.1</v>
+      </c>
+      <c r="E834" t="s">
+        <v>5</v>
+      </c>
+      <c r="F834" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>6</v>
+      </c>
+      <c r="B835" s="1">
+        <f t="shared" si="588"/>
+        <v>43413</v>
+      </c>
+      <c r="C835">
+        <v>446</v>
+      </c>
+      <c r="D835">
+        <v>10.4</v>
+      </c>
+      <c r="E835" t="s">
+        <v>7</v>
+      </c>
+      <c r="F835" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>7</v>
+      </c>
+      <c r="B836" s="1">
+        <f t="shared" si="589"/>
+        <v>43413</v>
+      </c>
+      <c r="C836">
+        <v>398</v>
+      </c>
+      <c r="D836">
+        <v>10.7</v>
+      </c>
+      <c r="E836" t="s">
+        <v>8</v>
+      </c>
+      <c r="F836" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>8</v>
+      </c>
+      <c r="B837" s="1">
+        <f t="shared" si="590"/>
+        <v>43413</v>
+      </c>
+      <c r="C837">
+        <v>442</v>
+      </c>
+      <c r="D837">
+        <v>11</v>
+      </c>
+      <c r="E837" t="s">
+        <v>9</v>
+      </c>
+      <c r="F837" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>9</v>
+      </c>
+      <c r="B838" s="1">
+        <f t="shared" si="591"/>
+        <v>43413</v>
+      </c>
+      <c r="C838">
+        <v>459</v>
+      </c>
+      <c r="D838">
+        <v>11.3</v>
+      </c>
+      <c r="E838" t="s">
+        <v>10</v>
+      </c>
+      <c r="F838" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>1</v>
+      </c>
+      <c r="B839" s="1">
+        <f t="shared" si="584"/>
+        <v>43414</v>
+      </c>
+      <c r="C839">
+        <v>417</v>
+      </c>
+      <c r="D839">
+        <v>11.6</v>
+      </c>
+      <c r="E839" t="s">
+        <v>2</v>
+      </c>
+      <c r="F839" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>2</v>
+      </c>
+      <c r="B840" s="1">
+        <f t="shared" si="585"/>
+        <v>43414</v>
+      </c>
+      <c r="C840">
+        <v>437</v>
+      </c>
+      <c r="D840">
+        <v>11.9</v>
+      </c>
+      <c r="E840" t="s">
+        <v>3</v>
+      </c>
+      <c r="F840" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>3</v>
+      </c>
+      <c r="B841" s="1">
+        <f t="shared" si="586"/>
+        <v>43414</v>
+      </c>
+      <c r="C841">
+        <v>400</v>
+      </c>
+      <c r="D841">
+        <v>12.2</v>
+      </c>
+      <c r="E841" t="s">
+        <v>4</v>
+      </c>
+      <c r="F841" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>4</v>
+      </c>
+      <c r="B842" s="1">
+        <f t="shared" si="587"/>
+        <v>43414</v>
+      </c>
+      <c r="C842">
+        <v>432</v>
+      </c>
+      <c r="D842">
+        <v>12.5</v>
+      </c>
+      <c r="E842" t="s">
+        <v>6</v>
+      </c>
+      <c r="F842" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>5</v>
+      </c>
+      <c r="B843" s="1">
+        <f t="shared" si="588"/>
+        <v>43414</v>
+      </c>
+      <c r="C843">
+        <v>447</v>
+      </c>
+      <c r="D843">
+        <v>12.8</v>
+      </c>
+      <c r="E843" t="s">
+        <v>5</v>
+      </c>
+      <c r="F843" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>6</v>
+      </c>
+      <c r="B844" s="1">
+        <f t="shared" si="588"/>
+        <v>43414</v>
+      </c>
+      <c r="C844">
+        <v>443</v>
+      </c>
+      <c r="D844">
+        <v>13.1</v>
+      </c>
+      <c r="E844" t="s">
+        <v>7</v>
+      </c>
+      <c r="F844" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>7</v>
+      </c>
+      <c r="B845" s="1">
+        <f t="shared" si="589"/>
+        <v>43414</v>
+      </c>
+      <c r="C845">
+        <v>397</v>
+      </c>
+      <c r="D845">
+        <v>13.4</v>
+      </c>
+      <c r="E845" t="s">
+        <v>8</v>
+      </c>
+      <c r="F845" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>8</v>
+      </c>
+      <c r="B846" s="1">
+        <f t="shared" si="590"/>
+        <v>43414</v>
+      </c>
+      <c r="C846">
+        <v>443</v>
+      </c>
+      <c r="D846">
+        <v>13.7</v>
+      </c>
+      <c r="E846" t="s">
+        <v>9</v>
+      </c>
+      <c r="F846" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>9</v>
+      </c>
+      <c r="B847" s="1">
+        <f t="shared" si="591"/>
+        <v>43414</v>
+      </c>
+      <c r="C847">
+        <v>457</v>
+      </c>
+      <c r="D847">
+        <v>14</v>
+      </c>
+      <c r="E847" t="s">
+        <v>10</v>
+      </c>
+      <c r="F847" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>1</v>
+      </c>
+      <c r="B848" s="1">
+        <f t="shared" si="584"/>
+        <v>43415</v>
+      </c>
+      <c r="D848">
+        <v>14.3</v>
+      </c>
+      <c r="E848" t="s">
+        <v>2</v>
+      </c>
+      <c r="F848" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>2</v>
+      </c>
+      <c r="B849" s="1">
+        <f t="shared" si="585"/>
+        <v>43415</v>
+      </c>
+      <c r="D849">
+        <v>14.6</v>
+      </c>
+      <c r="E849" t="s">
+        <v>3</v>
+      </c>
+      <c r="F849" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>3</v>
+      </c>
+      <c r="B850" s="1">
+        <f t="shared" si="586"/>
+        <v>43415</v>
+      </c>
+      <c r="D850">
+        <v>14.9</v>
+      </c>
+      <c r="E850" t="s">
+        <v>4</v>
+      </c>
+      <c r="F850" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>4</v>
+      </c>
+      <c r="B851" s="1">
+        <f t="shared" si="587"/>
+        <v>43415</v>
+      </c>
+      <c r="D851">
+        <v>15.2</v>
+      </c>
+      <c r="E851" t="s">
+        <v>6</v>
+      </c>
+      <c r="F851" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>5</v>
+      </c>
+      <c r="B852" s="1">
+        <f t="shared" si="588"/>
+        <v>43415</v>
+      </c>
+      <c r="D852">
+        <v>15.5</v>
+      </c>
+      <c r="E852" t="s">
+        <v>5</v>
+      </c>
+      <c r="F852" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>6</v>
+      </c>
+      <c r="B853" s="1">
+        <f t="shared" si="588"/>
+        <v>43415</v>
+      </c>
+      <c r="D853">
+        <v>15.8</v>
+      </c>
+      <c r="E853" t="s">
+        <v>2</v>
+      </c>
+      <c r="F853" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>7</v>
+      </c>
+      <c r="B854" s="1">
+        <f t="shared" ref="B854" si="592">B853</f>
+        <v>43415</v>
+      </c>
+      <c r="D854">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E854" t="s">
+        <v>3</v>
+      </c>
+      <c r="F854" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>8</v>
+      </c>
+      <c r="B855" s="1">
+        <f t="shared" ref="B855" si="593">B846+1</f>
+        <v>43415</v>
+      </c>
+      <c r="D855">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E855" t="s">
+        <v>4</v>
+      </c>
+      <c r="F855" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>9</v>
+      </c>
+      <c r="B856" s="1">
+        <f t="shared" ref="B856" si="594">B855</f>
+        <v>43415</v>
+      </c>
+      <c r="D856">
+        <v>16.7</v>
+      </c>
+      <c r="E856" t="s">
+        <v>6</v>
+      </c>
+      <c r="F856" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>1</v>
+      </c>
+      <c r="B857" s="1">
+        <f t="shared" ref="B857:B858" si="595">B848+1</f>
+        <v>43416</v>
+      </c>
+      <c r="D857">
+        <v>17</v>
+      </c>
+      <c r="E857" t="s">
+        <v>5</v>
+      </c>
+      <c r="F857" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>2</v>
+      </c>
+      <c r="B858" s="1">
+        <f t="shared" si="595"/>
+        <v>43416</v>
+      </c>
+      <c r="D858">
+        <v>17.3</v>
+      </c>
+      <c r="E858" t="s">
+        <v>7</v>
+      </c>
+      <c r="F858" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>3</v>
+      </c>
+      <c r="B859" s="1">
+        <f t="shared" ref="B859" si="596">B858</f>
+        <v>43416</v>
+      </c>
+      <c r="D859">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E859" t="s">
+        <v>8</v>
+      </c>
+      <c r="F859" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>4</v>
+      </c>
+      <c r="B860" s="1">
+        <f t="shared" ref="B860" si="597">B851+1</f>
+        <v>43416</v>
+      </c>
+      <c r="D860">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E860" t="s">
+        <v>9</v>
+      </c>
+      <c r="F860" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>5</v>
+      </c>
+      <c r="B861" s="1">
+        <f t="shared" ref="B861" si="598">B860</f>
+        <v>43416</v>
+      </c>
+      <c r="D861">
+        <v>18.2</v>
+      </c>
+      <c r="E861" t="s">
+        <v>10</v>
+      </c>
+      <c r="F861" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>6</v>
+      </c>
+      <c r="B862" s="1">
+        <f t="shared" ref="B862:B880" si="599">B853+1</f>
+        <v>43416</v>
+      </c>
+      <c r="D862">
+        <v>18.5</v>
+      </c>
+      <c r="E862" t="s">
+        <v>2</v>
+      </c>
+      <c r="F862" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>7</v>
+      </c>
+      <c r="B863" s="1">
+        <f t="shared" ref="B863:B881" si="600">B862</f>
+        <v>43416</v>
+      </c>
+      <c r="D863">
+        <v>18.8</v>
+      </c>
+      <c r="E863" t="s">
+        <v>3</v>
+      </c>
+      <c r="F863" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>8</v>
+      </c>
+      <c r="B864" s="1">
+        <f t="shared" ref="B864:B882" si="601">B855+1</f>
+        <v>43416</v>
+      </c>
+      <c r="D864">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E864" t="s">
+        <v>4</v>
+      </c>
+      <c r="F864" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>9</v>
+      </c>
+      <c r="B865" s="1">
+        <f t="shared" ref="B865:B883" si="602">B864</f>
+        <v>43416</v>
+      </c>
+      <c r="D865">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E865" t="s">
+        <v>6</v>
+      </c>
+      <c r="F865" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>1</v>
+      </c>
+      <c r="B866" s="1">
+        <f t="shared" ref="B866:B884" si="603">B857+1</f>
+        <v>43417</v>
+      </c>
+      <c r="D866">
+        <v>19.7</v>
+      </c>
+      <c r="E866" t="s">
+        <v>5</v>
+      </c>
+      <c r="F866" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>2</v>
+      </c>
+      <c r="B867" s="1">
+        <f t="shared" si="603"/>
+        <v>43417</v>
+      </c>
+      <c r="D867">
+        <v>20</v>
+      </c>
+      <c r="E867" t="s">
+        <v>7</v>
+      </c>
+      <c r="F867" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>3</v>
+      </c>
+      <c r="B868" s="1">
+        <f t="shared" ref="B868:B877" si="604">B867</f>
+        <v>43417</v>
+      </c>
+      <c r="D868">
+        <v>20.3</v>
+      </c>
+      <c r="E868" t="s">
+        <v>8</v>
+      </c>
+      <c r="F868" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>4</v>
+      </c>
+      <c r="B869" s="1">
+        <f t="shared" ref="B869:B878" si="605">B860+1</f>
+        <v>43417</v>
+      </c>
+      <c r="D869">
+        <v>20.6</v>
+      </c>
+      <c r="E869" t="s">
+        <v>9</v>
+      </c>
+      <c r="F869" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>5</v>
+      </c>
+      <c r="B870" s="1">
+        <f t="shared" ref="B870:B879" si="606">B869</f>
+        <v>43417</v>
+      </c>
+      <c r="D870">
+        <v>20.9</v>
+      </c>
+      <c r="E870" t="s">
+        <v>10</v>
+      </c>
+      <c r="F870" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>6</v>
+      </c>
+      <c r="B871" s="1">
+        <f t="shared" si="599"/>
+        <v>43417</v>
+      </c>
+      <c r="D871">
+        <v>21.2</v>
+      </c>
+      <c r="E871" t="s">
+        <v>2</v>
+      </c>
+      <c r="F871" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>7</v>
+      </c>
+      <c r="B872" s="1">
+        <f t="shared" si="600"/>
+        <v>43417</v>
+      </c>
+      <c r="D872">
+        <v>21.5</v>
+      </c>
+      <c r="E872" t="s">
+        <v>3</v>
+      </c>
+      <c r="F872" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>8</v>
+      </c>
+      <c r="B873" s="1">
+        <f t="shared" si="601"/>
+        <v>43417</v>
+      </c>
+      <c r="D873">
+        <v>21.8</v>
+      </c>
+      <c r="E873" t="s">
+        <v>4</v>
+      </c>
+      <c r="F873" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>9</v>
+      </c>
+      <c r="B874" s="1">
+        <f t="shared" si="602"/>
+        <v>43417</v>
+      </c>
+      <c r="D874">
+        <v>22.1</v>
+      </c>
+      <c r="E874" t="s">
+        <v>6</v>
+      </c>
+      <c r="F874" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>1</v>
+      </c>
+      <c r="B875" s="1">
+        <f t="shared" si="603"/>
+        <v>43418</v>
+      </c>
+      <c r="D875">
+        <v>22.4</v>
+      </c>
+      <c r="E875" t="s">
+        <v>5</v>
+      </c>
+      <c r="F875" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>2</v>
+      </c>
+      <c r="B876" s="1">
+        <f t="shared" si="603"/>
+        <v>43418</v>
+      </c>
+      <c r="D876">
+        <v>22.7</v>
+      </c>
+      <c r="E876" t="s">
+        <v>7</v>
+      </c>
+      <c r="F876" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>3</v>
+      </c>
+      <c r="B877" s="1">
+        <f t="shared" si="604"/>
+        <v>43418</v>
+      </c>
+      <c r="D877">
+        <v>23</v>
+      </c>
+      <c r="E877" t="s">
+        <v>8</v>
+      </c>
+      <c r="F877" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>4</v>
+      </c>
+      <c r="B878" s="1">
+        <f t="shared" si="605"/>
+        <v>43418</v>
+      </c>
+      <c r="D878">
+        <v>23.3</v>
+      </c>
+      <c r="E878" t="s">
+        <v>9</v>
+      </c>
+      <c r="F878" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>5</v>
+      </c>
+      <c r="B879" s="1">
+        <f t="shared" si="606"/>
+        <v>43418</v>
+      </c>
+      <c r="D879">
+        <v>23.6</v>
+      </c>
+      <c r="E879" t="s">
+        <v>10</v>
+      </c>
+      <c r="F879" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>6</v>
+      </c>
+      <c r="B880" s="1">
+        <f t="shared" si="599"/>
+        <v>43418</v>
+      </c>
+      <c r="D880">
+        <v>23.9</v>
+      </c>
+      <c r="E880" t="s">
+        <v>2</v>
+      </c>
+      <c r="F880" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>7</v>
+      </c>
+      <c r="B881" s="1">
+        <f t="shared" si="600"/>
+        <v>43418</v>
+      </c>
+      <c r="D881">
+        <v>24.2</v>
+      </c>
+      <c r="E881" t="s">
+        <v>3</v>
+      </c>
+      <c r="F881" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>8</v>
+      </c>
+      <c r="B882" s="1">
+        <f t="shared" si="601"/>
+        <v>43418</v>
+      </c>
+      <c r="D882">
+        <v>24.5</v>
+      </c>
+      <c r="E882" t="s">
+        <v>4</v>
+      </c>
+      <c r="F882" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>9</v>
+      </c>
+      <c r="B883" s="1">
+        <f t="shared" si="602"/>
+        <v>43418</v>
+      </c>
+      <c r="D883">
+        <v>24.8</v>
+      </c>
+      <c r="E883" t="s">
+        <v>6</v>
+      </c>
+      <c r="F883" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B884" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A802" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{566BF0DB-5733-41D3-BBFC-B52CC051AF0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08F2BC73-8DD5-4A1F-BA2E-9B1F93AE6950}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rat Colony" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$802</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$937</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Start feeding 20g per day</t>
+  </si>
+  <si>
+    <t>*12 pieces of food</t>
+  </si>
+  <si>
+    <t>*8 pieces of food</t>
   </si>
 </sst>
 </file>
@@ -3730,11 +3736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:I884"/>
+  <dimension ref="A1:I937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C848" sqref="C848"/>
+      <pane ySplit="1" topLeftCell="A857" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G867" sqref="G867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3743,6 +3749,7 @@
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20750,7 +20757,7 @@
         <v>417</v>
       </c>
       <c r="D812">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E812" t="s">
         <v>2</v>
@@ -20771,7 +20778,7 @@
         <v>435</v>
       </c>
       <c r="D813">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="E813" t="s">
         <v>3</v>
@@ -20792,7 +20799,7 @@
         <v>399</v>
       </c>
       <c r="D814">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E814" t="s">
         <v>4</v>
@@ -20813,7 +20820,7 @@
         <v>429</v>
       </c>
       <c r="D815">
-        <v>4.4000000000000004</v>
+        <v>2</v>
       </c>
       <c r="E815" t="s">
         <v>6</v>
@@ -20834,7 +20841,7 @@
         <v>447</v>
       </c>
       <c r="D816">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="E816" t="s">
         <v>5</v>
@@ -20855,7 +20862,7 @@
         <v>443</v>
       </c>
       <c r="D817">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E817" t="s">
         <v>7</v>
@@ -20876,7 +20883,7 @@
         <v>394</v>
       </c>
       <c r="D818">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="E818" t="s">
         <v>8</v>
@@ -20897,7 +20904,7 @@
         <v>442</v>
       </c>
       <c r="D819">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="E819" t="s">
         <v>9</v>
@@ -20918,7 +20925,7 @@
         <v>455</v>
       </c>
       <c r="D820">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="E820" t="s">
         <v>10</v>
@@ -20939,7 +20946,7 @@
         <v>424</v>
       </c>
       <c r="D821">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="E821" t="s">
         <v>2</v>
@@ -20960,7 +20967,7 @@
         <v>442</v>
       </c>
       <c r="D822">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="E822" t="s">
         <v>3</v>
@@ -20981,7 +20988,7 @@
         <v>402</v>
       </c>
       <c r="D823">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="E823" t="s">
         <v>4</v>
@@ -21002,7 +21009,7 @@
         <v>438</v>
       </c>
       <c r="D824">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="E824" t="s">
         <v>6</v>
@@ -21023,7 +21030,7 @@
         <v>455</v>
       </c>
       <c r="D825">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="E825" t="s">
         <v>5</v>
@@ -21044,7 +21051,7 @@
         <v>446</v>
       </c>
       <c r="D826">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="E826" t="s">
         <v>7</v>
@@ -21065,7 +21072,7 @@
         <v>402</v>
       </c>
       <c r="D827">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E827" t="s">
         <v>8</v>
@@ -21086,7 +21093,7 @@
         <v>457</v>
       </c>
       <c r="D828">
-        <v>8.3000000000000007</v>
+        <v>3</v>
       </c>
       <c r="E828" t="s">
         <v>9</v>
@@ -21107,7 +21114,7 @@
         <v>467</v>
       </c>
       <c r="D829">
-        <v>8.6</v>
+        <v>3</v>
       </c>
       <c r="E829" t="s">
         <v>10</v>
@@ -21128,7 +21135,7 @@
         <v>418</v>
       </c>
       <c r="D830">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="E830" t="s">
         <v>2</v>
@@ -21149,7 +21156,7 @@
         <v>435</v>
       </c>
       <c r="D831">
-        <v>9.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="E831" t="s">
         <v>3</v>
@@ -21170,7 +21177,7 @@
         <v>400</v>
       </c>
       <c r="D832">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="E832" t="s">
         <v>4</v>
@@ -21191,7 +21198,7 @@
         <v>434</v>
       </c>
       <c r="D833">
-        <v>9.8000000000000007</v>
+        <v>2</v>
       </c>
       <c r="E833" t="s">
         <v>6</v>
@@ -21212,7 +21219,7 @@
         <v>448</v>
       </c>
       <c r="D834">
-        <v>10.1</v>
+        <v>2</v>
       </c>
       <c r="E834" t="s">
         <v>5</v>
@@ -21233,7 +21240,7 @@
         <v>446</v>
       </c>
       <c r="D835">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="E835" t="s">
         <v>7</v>
@@ -21254,7 +21261,7 @@
         <v>398</v>
       </c>
       <c r="D836">
-        <v>10.7</v>
+        <v>3</v>
       </c>
       <c r="E836" t="s">
         <v>8</v>
@@ -21275,7 +21282,7 @@
         <v>442</v>
       </c>
       <c r="D837">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E837" t="s">
         <v>9</v>
@@ -21296,7 +21303,7 @@
         <v>459</v>
       </c>
       <c r="D838">
-        <v>11.3</v>
+        <v>3</v>
       </c>
       <c r="E838" t="s">
         <v>10</v>
@@ -21317,7 +21324,7 @@
         <v>417</v>
       </c>
       <c r="D839">
-        <v>11.6</v>
+        <v>1</v>
       </c>
       <c r="E839" t="s">
         <v>2</v>
@@ -21338,7 +21345,7 @@
         <v>437</v>
       </c>
       <c r="D840">
-        <v>11.9</v>
+        <v>1</v>
       </c>
       <c r="E840" t="s">
         <v>3</v>
@@ -21359,7 +21366,7 @@
         <v>400</v>
       </c>
       <c r="D841">
-        <v>12.2</v>
+        <v>1</v>
       </c>
       <c r="E841" t="s">
         <v>4</v>
@@ -21380,7 +21387,7 @@
         <v>432</v>
       </c>
       <c r="D842">
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="E842" t="s">
         <v>6</v>
@@ -21401,7 +21408,7 @@
         <v>447</v>
       </c>
       <c r="D843">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="E843" t="s">
         <v>5</v>
@@ -21422,7 +21429,7 @@
         <v>443</v>
       </c>
       <c r="D844">
-        <v>13.1</v>
+        <v>2</v>
       </c>
       <c r="E844" t="s">
         <v>7</v>
@@ -21443,7 +21450,7 @@
         <v>397</v>
       </c>
       <c r="D845">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="E845" t="s">
         <v>8</v>
@@ -21464,7 +21471,7 @@
         <v>443</v>
       </c>
       <c r="D846">
-        <v>13.7</v>
+        <v>3</v>
       </c>
       <c r="E846" t="s">
         <v>9</v>
@@ -21485,7 +21492,7 @@
         <v>457</v>
       </c>
       <c r="D847">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E847" t="s">
         <v>10</v>
@@ -21502,8 +21509,11 @@
         <f t="shared" si="584"/>
         <v>43415</v>
       </c>
+      <c r="C848">
+        <v>414</v>
+      </c>
       <c r="D848">
-        <v>14.3</v>
+        <v>1</v>
       </c>
       <c r="E848" t="s">
         <v>2</v>
@@ -21520,8 +21530,11 @@
         <f t="shared" si="585"/>
         <v>43415</v>
       </c>
+      <c r="C849">
+        <v>433</v>
+      </c>
       <c r="D849">
-        <v>14.6</v>
+        <v>1</v>
       </c>
       <c r="E849" t="s">
         <v>3</v>
@@ -21538,8 +21551,11 @@
         <f t="shared" si="586"/>
         <v>43415</v>
       </c>
+      <c r="C850">
+        <v>400</v>
+      </c>
       <c r="D850">
-        <v>14.9</v>
+        <v>1</v>
       </c>
       <c r="E850" t="s">
         <v>4</v>
@@ -21556,8 +21572,11 @@
         <f t="shared" si="587"/>
         <v>43415</v>
       </c>
+      <c r="C851">
+        <v>430</v>
+      </c>
       <c r="D851">
-        <v>15.2</v>
+        <v>2</v>
       </c>
       <c r="E851" t="s">
         <v>6</v>
@@ -21574,8 +21593,11 @@
         <f t="shared" si="588"/>
         <v>43415</v>
       </c>
+      <c r="C852">
+        <v>447</v>
+      </c>
       <c r="D852">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="E852" t="s">
         <v>5</v>
@@ -21592,14 +21614,17 @@
         <f t="shared" si="588"/>
         <v>43415</v>
       </c>
+      <c r="C853">
+        <v>441</v>
+      </c>
       <c r="D853">
-        <v>15.8</v>
+        <v>2</v>
       </c>
       <c r="E853" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F853" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
@@ -21610,14 +21635,17 @@
         <f t="shared" ref="B854" si="592">B853</f>
         <v>43415</v>
       </c>
+      <c r="C854">
+        <v>398</v>
+      </c>
       <c r="D854">
-        <v>16.100000000000001</v>
+        <v>3</v>
       </c>
       <c r="E854" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F854" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
@@ -21628,14 +21656,17 @@
         <f t="shared" ref="B855" si="593">B846+1</f>
         <v>43415</v>
       </c>
+      <c r="C855">
+        <v>441</v>
+      </c>
       <c r="D855">
-        <v>16.399999999999999</v>
+        <v>3</v>
       </c>
       <c r="E855" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F855" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.25">
@@ -21646,14 +21677,17 @@
         <f t="shared" ref="B856" si="594">B855</f>
         <v>43415</v>
       </c>
+      <c r="C856">
+        <v>456</v>
+      </c>
       <c r="D856">
-        <v>16.7</v>
+        <v>3</v>
       </c>
       <c r="E856" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F856" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
@@ -21664,14 +21698,17 @@
         <f t="shared" ref="B857:B858" si="595">B848+1</f>
         <v>43416</v>
       </c>
+      <c r="C857">
+        <v>417</v>
+      </c>
       <c r="D857">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E857" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F857" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
@@ -21682,14 +21719,17 @@
         <f t="shared" si="595"/>
         <v>43416</v>
       </c>
+      <c r="C858">
+        <v>436</v>
+      </c>
       <c r="D858">
-        <v>17.3</v>
+        <v>1</v>
       </c>
       <c r="E858" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F858" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
@@ -21700,14 +21740,17 @@
         <f t="shared" ref="B859" si="596">B858</f>
         <v>43416</v>
       </c>
+      <c r="C859">
+        <v>405</v>
+      </c>
       <c r="D859">
-        <v>17.600000000000001</v>
+        <v>1</v>
       </c>
       <c r="E859" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F859" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
@@ -21718,14 +21761,17 @@
         <f t="shared" ref="B860" si="597">B851+1</f>
         <v>43416</v>
       </c>
+      <c r="C860">
+        <v>434</v>
+      </c>
       <c r="D860">
-        <v>17.899999999999999</v>
+        <v>2</v>
       </c>
       <c r="E860" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F860" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.25">
@@ -21736,14 +21782,17 @@
         <f t="shared" ref="B861" si="598">B860</f>
         <v>43416</v>
       </c>
+      <c r="C861">
+        <v>451</v>
+      </c>
       <c r="D861">
-        <v>18.2</v>
+        <v>2</v>
       </c>
       <c r="E861" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F861" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
@@ -21754,14 +21803,17 @@
         <f t="shared" ref="B862:B880" si="599">B853+1</f>
         <v>43416</v>
       </c>
+      <c r="C862">
+        <v>443</v>
+      </c>
       <c r="D862">
-        <v>18.5</v>
+        <v>2</v>
       </c>
       <c r="E862" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F862" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
@@ -21772,14 +21824,17 @@
         <f t="shared" ref="B863:B881" si="600">B862</f>
         <v>43416</v>
       </c>
+      <c r="C863">
+        <v>398</v>
+      </c>
       <c r="D863">
-        <v>18.8</v>
+        <v>3</v>
       </c>
       <c r="E863" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F863" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.25">
@@ -21790,17 +21845,20 @@
         <f t="shared" ref="B864:B882" si="601">B855+1</f>
         <v>43416</v>
       </c>
+      <c r="C864">
+        <v>443</v>
+      </c>
       <c r="D864">
-        <v>19.100000000000001</v>
+        <v>3</v>
       </c>
       <c r="E864" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F864" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>9</v>
       </c>
@@ -21808,35 +21866,44 @@
         <f t="shared" ref="B865:B883" si="602">B864</f>
         <v>43416</v>
       </c>
+      <c r="C865">
+        <v>457</v>
+      </c>
       <c r="D865">
-        <v>19.399999999999999</v>
+        <v>3</v>
       </c>
       <c r="E865" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F865" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>1</v>
       </c>
       <c r="B866" s="1">
-        <f t="shared" ref="B866:B884" si="603">B857+1</f>
+        <f t="shared" ref="B866:B876" si="603">B857+1</f>
         <v>43417</v>
       </c>
+      <c r="C866">
+        <v>409</v>
+      </c>
       <c r="D866">
-        <v>19.7</v>
+        <v>1</v>
       </c>
       <c r="E866" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F866" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G866" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>2</v>
       </c>
@@ -21844,17 +21911,20 @@
         <f t="shared" si="603"/>
         <v>43417</v>
       </c>
+      <c r="C867">
+        <v>428</v>
+      </c>
       <c r="D867">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E867" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F867" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>3</v>
       </c>
@@ -21862,17 +21932,20 @@
         <f t="shared" ref="B868:B877" si="604">B867</f>
         <v>43417</v>
       </c>
+      <c r="C868">
+        <v>398</v>
+      </c>
       <c r="D868">
-        <v>20.3</v>
+        <v>1</v>
       </c>
       <c r="E868" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F868" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>4</v>
       </c>
@@ -21880,17 +21953,23 @@
         <f t="shared" ref="B869:B878" si="605">B860+1</f>
         <v>43417</v>
       </c>
+      <c r="C869">
+        <v>433</v>
+      </c>
       <c r="D869">
-        <v>20.6</v>
+        <v>2</v>
       </c>
       <c r="E869" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F869" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G869" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>5</v>
       </c>
@@ -21898,17 +21977,20 @@
         <f t="shared" ref="B870:B879" si="606">B869</f>
         <v>43417</v>
       </c>
+      <c r="C870">
+        <v>451</v>
+      </c>
       <c r="D870">
-        <v>20.9</v>
+        <v>2</v>
       </c>
       <c r="E870" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F870" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>6</v>
       </c>
@@ -21916,17 +21998,20 @@
         <f t="shared" si="599"/>
         <v>43417</v>
       </c>
+      <c r="C871">
+        <v>447</v>
+      </c>
       <c r="D871">
-        <v>21.2</v>
+        <v>2</v>
       </c>
       <c r="E871" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F871" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>7</v>
       </c>
@@ -21934,17 +22019,23 @@
         <f t="shared" si="600"/>
         <v>43417</v>
       </c>
+      <c r="C872">
+        <v>392</v>
+      </c>
       <c r="D872">
-        <v>21.5</v>
+        <v>3</v>
       </c>
       <c r="E872" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F872" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G872" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>8</v>
       </c>
@@ -21952,17 +22043,20 @@
         <f t="shared" si="601"/>
         <v>43417</v>
       </c>
+      <c r="C873">
+        <v>435</v>
+      </c>
       <c r="D873">
-        <v>21.8</v>
+        <v>3</v>
       </c>
       <c r="E873" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F873" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>9</v>
       </c>
@@ -21970,17 +22064,20 @@
         <f t="shared" si="602"/>
         <v>43417</v>
       </c>
+      <c r="C874">
+        <v>454</v>
+      </c>
       <c r="D874">
-        <v>22.1</v>
+        <v>3</v>
       </c>
       <c r="E874" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F874" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>1</v>
       </c>
@@ -21988,17 +22085,20 @@
         <f t="shared" si="603"/>
         <v>43418</v>
       </c>
+      <c r="C875">
+        <v>409</v>
+      </c>
       <c r="D875">
-        <v>22.4</v>
+        <v>1</v>
       </c>
       <c r="E875" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F875" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>2</v>
       </c>
@@ -22006,17 +22106,20 @@
         <f t="shared" si="603"/>
         <v>43418</v>
       </c>
+      <c r="C876">
+        <v>426</v>
+      </c>
       <c r="D876">
-        <v>22.7</v>
+        <v>1</v>
       </c>
       <c r="E876" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F876" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>3</v>
       </c>
@@ -22024,17 +22127,20 @@
         <f t="shared" si="604"/>
         <v>43418</v>
       </c>
+      <c r="C877">
+        <v>402</v>
+      </c>
       <c r="D877">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E877" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F877" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>4</v>
       </c>
@@ -22042,17 +22148,20 @@
         <f t="shared" si="605"/>
         <v>43418</v>
       </c>
+      <c r="C878">
+        <v>428</v>
+      </c>
       <c r="D878">
-        <v>23.3</v>
+        <v>2</v>
       </c>
       <c r="E878" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F878" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>5</v>
       </c>
@@ -22060,17 +22169,20 @@
         <f t="shared" si="606"/>
         <v>43418</v>
       </c>
+      <c r="C879">
+        <v>455</v>
+      </c>
       <c r="D879">
-        <v>23.6</v>
+        <v>2</v>
       </c>
       <c r="E879" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F879" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>6</v>
       </c>
@@ -22078,14 +22190,17 @@
         <f t="shared" si="599"/>
         <v>43418</v>
       </c>
+      <c r="C880">
+        <v>443</v>
+      </c>
       <c r="D880">
-        <v>23.9</v>
+        <v>2</v>
       </c>
       <c r="E880" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F880" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
@@ -22096,14 +22211,17 @@
         <f t="shared" si="600"/>
         <v>43418</v>
       </c>
+      <c r="C881">
+        <v>395</v>
+      </c>
       <c r="D881">
-        <v>24.2</v>
+        <v>3</v>
       </c>
       <c r="E881" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F881" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
@@ -22114,14 +22232,17 @@
         <f t="shared" si="601"/>
         <v>43418</v>
       </c>
+      <c r="C882">
+        <v>435</v>
+      </c>
       <c r="D882">
-        <v>24.5</v>
+        <v>3</v>
       </c>
       <c r="E882" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F882" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.25">
@@ -22132,21 +22253,1047 @@
         <f t="shared" si="602"/>
         <v>43418</v>
       </c>
+      <c r="C883">
+        <v>447</v>
+      </c>
       <c r="D883">
-        <v>24.8</v>
+        <v>3</v>
       </c>
       <c r="E883" t="s">
+        <v>10</v>
+      </c>
+      <c r="F883" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>1</v>
+      </c>
+      <c r="B884" s="1">
+        <f t="shared" ref="B884:B885" si="607">B875+1</f>
+        <v>43419</v>
+      </c>
+      <c r="C884">
+        <v>409</v>
+      </c>
+      <c r="D884">
+        <v>1</v>
+      </c>
+      <c r="E884" t="s">
+        <v>2</v>
+      </c>
+      <c r="F884" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>2</v>
+      </c>
+      <c r="B885" s="1">
+        <f t="shared" si="607"/>
+        <v>43419</v>
+      </c>
+      <c r="C885">
+        <v>428</v>
+      </c>
+      <c r="D885">
+        <v>1</v>
+      </c>
+      <c r="E885" t="s">
+        <v>3</v>
+      </c>
+      <c r="F885" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>3</v>
+      </c>
+      <c r="B886" s="1">
+        <f t="shared" ref="B886" si="608">B885</f>
+        <v>43419</v>
+      </c>
+      <c r="C886">
+        <v>395</v>
+      </c>
+      <c r="D886">
+        <v>1</v>
+      </c>
+      <c r="E886" t="s">
+        <v>4</v>
+      </c>
+      <c r="F886" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>4</v>
+      </c>
+      <c r="B887" s="1">
+        <f t="shared" ref="B887" si="609">B878+1</f>
+        <v>43419</v>
+      </c>
+      <c r="C887">
+        <v>439</v>
+      </c>
+      <c r="D887">
+        <v>2</v>
+      </c>
+      <c r="E887" t="s">
         <v>6</v>
       </c>
-      <c r="F883" t="s">
+      <c r="F887" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B884" s="1"/>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>5</v>
+      </c>
+      <c r="B888" s="1">
+        <f t="shared" ref="B888" si="610">B887</f>
+        <v>43419</v>
+      </c>
+      <c r="C888">
+        <v>460</v>
+      </c>
+      <c r="D888">
+        <v>2</v>
+      </c>
+      <c r="E888" t="s">
+        <v>5</v>
+      </c>
+      <c r="F888" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>6</v>
+      </c>
+      <c r="B889" s="1">
+        <f t="shared" ref="B889" si="611">B880+1</f>
+        <v>43419</v>
+      </c>
+      <c r="C889">
+        <v>452</v>
+      </c>
+      <c r="D889">
+        <v>2</v>
+      </c>
+      <c r="E889" t="s">
+        <v>7</v>
+      </c>
+      <c r="F889" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>7</v>
+      </c>
+      <c r="B890" s="1">
+        <f t="shared" ref="B890" si="612">B889</f>
+        <v>43419</v>
+      </c>
+      <c r="C890">
+        <v>386</v>
+      </c>
+      <c r="D890">
+        <v>3</v>
+      </c>
+      <c r="E890" t="s">
+        <v>8</v>
+      </c>
+      <c r="F890" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>8</v>
+      </c>
+      <c r="B891" s="1">
+        <f t="shared" ref="B891" si="613">B882+1</f>
+        <v>43419</v>
+      </c>
+      <c r="C891">
+        <v>436</v>
+      </c>
+      <c r="D891">
+        <v>3</v>
+      </c>
+      <c r="E891" t="s">
+        <v>9</v>
+      </c>
+      <c r="F891" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>9</v>
+      </c>
+      <c r="B892" s="1">
+        <f t="shared" ref="B892" si="614">B891</f>
+        <v>43419</v>
+      </c>
+      <c r="C892">
+        <v>454</v>
+      </c>
+      <c r="D892">
+        <v>3</v>
+      </c>
+      <c r="E892" t="s">
+        <v>10</v>
+      </c>
+      <c r="F892" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>1</v>
+      </c>
+      <c r="B893" s="1">
+        <f t="shared" ref="B893:B894" si="615">B884+1</f>
+        <v>43420</v>
+      </c>
+      <c r="C893">
+        <v>407</v>
+      </c>
+      <c r="D893">
+        <v>1</v>
+      </c>
+      <c r="E893" t="s">
+        <v>2</v>
+      </c>
+      <c r="F893" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>2</v>
+      </c>
+      <c r="B894" s="1">
+        <f t="shared" si="615"/>
+        <v>43420</v>
+      </c>
+      <c r="C894">
+        <v>422</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+      <c r="E894" t="s">
+        <v>3</v>
+      </c>
+      <c r="F894" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>3</v>
+      </c>
+      <c r="B895" s="1">
+        <f t="shared" ref="B895" si="616">B894</f>
+        <v>43420</v>
+      </c>
+      <c r="C895">
+        <v>395</v>
+      </c>
+      <c r="D895">
+        <v>1</v>
+      </c>
+      <c r="E895" t="s">
+        <v>4</v>
+      </c>
+      <c r="F895" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>4</v>
+      </c>
+      <c r="B896" s="1">
+        <f t="shared" ref="B896" si="617">B887+1</f>
+        <v>43420</v>
+      </c>
+      <c r="C896">
+        <v>437</v>
+      </c>
+      <c r="D896">
+        <v>2</v>
+      </c>
+      <c r="E896" t="s">
+        <v>6</v>
+      </c>
+      <c r="F896" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>5</v>
+      </c>
+      <c r="B897" s="1">
+        <f t="shared" ref="B897" si="618">B896</f>
+        <v>43420</v>
+      </c>
+      <c r="C897">
+        <v>458</v>
+      </c>
+      <c r="D897">
+        <v>2</v>
+      </c>
+      <c r="E897" t="s">
+        <v>5</v>
+      </c>
+      <c r="F897" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>6</v>
+      </c>
+      <c r="B898" s="1">
+        <f t="shared" ref="B898" si="619">B889+1</f>
+        <v>43420</v>
+      </c>
+      <c r="C898">
+        <v>454</v>
+      </c>
+      <c r="D898">
+        <v>2</v>
+      </c>
+      <c r="E898" t="s">
+        <v>7</v>
+      </c>
+      <c r="F898" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>7</v>
+      </c>
+      <c r="B899" s="1">
+        <f t="shared" ref="B899" si="620">B898</f>
+        <v>43420</v>
+      </c>
+      <c r="C899">
+        <v>384</v>
+      </c>
+      <c r="D899">
+        <v>3</v>
+      </c>
+      <c r="E899" t="s">
+        <v>8</v>
+      </c>
+      <c r="F899" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>8</v>
+      </c>
+      <c r="B900" s="1">
+        <f t="shared" ref="B900" si="621">B891+1</f>
+        <v>43420</v>
+      </c>
+      <c r="C900">
+        <v>430</v>
+      </c>
+      <c r="D900">
+        <v>3</v>
+      </c>
+      <c r="E900" t="s">
+        <v>9</v>
+      </c>
+      <c r="F900" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>9</v>
+      </c>
+      <c r="B901" s="1">
+        <f t="shared" ref="B901" si="622">B900</f>
+        <v>43420</v>
+      </c>
+      <c r="C901">
+        <v>448</v>
+      </c>
+      <c r="D901">
+        <v>3</v>
+      </c>
+      <c r="E901" t="s">
+        <v>10</v>
+      </c>
+      <c r="F901" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>1</v>
+      </c>
+      <c r="B902" s="1">
+        <f t="shared" ref="B902:B903" si="623">B893+1</f>
+        <v>43421</v>
+      </c>
+      <c r="D902">
+        <v>1</v>
+      </c>
+      <c r="E902" t="s">
+        <v>2</v>
+      </c>
+      <c r="F902" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>2</v>
+      </c>
+      <c r="B903" s="1">
+        <f t="shared" si="623"/>
+        <v>43421</v>
+      </c>
+      <c r="D903">
+        <v>1</v>
+      </c>
+      <c r="E903" t="s">
+        <v>3</v>
+      </c>
+      <c r="F903" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>3</v>
+      </c>
+      <c r="B904" s="1">
+        <f t="shared" ref="B904" si="624">B903</f>
+        <v>43421</v>
+      </c>
+      <c r="D904">
+        <v>1</v>
+      </c>
+      <c r="E904" t="s">
+        <v>4</v>
+      </c>
+      <c r="F904" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>4</v>
+      </c>
+      <c r="B905" s="1">
+        <f t="shared" ref="B905" si="625">B896+1</f>
+        <v>43421</v>
+      </c>
+      <c r="D905">
+        <v>2</v>
+      </c>
+      <c r="E905" t="s">
+        <v>6</v>
+      </c>
+      <c r="F905" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>5</v>
+      </c>
+      <c r="B906" s="1">
+        <f t="shared" ref="B906" si="626">B905</f>
+        <v>43421</v>
+      </c>
+      <c r="D906">
+        <v>2</v>
+      </c>
+      <c r="E906" t="s">
+        <v>5</v>
+      </c>
+      <c r="F906" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>6</v>
+      </c>
+      <c r="B907" s="1">
+        <f t="shared" ref="B907" si="627">B898+1</f>
+        <v>43421</v>
+      </c>
+      <c r="D907">
+        <v>2</v>
+      </c>
+      <c r="E907" t="s">
+        <v>7</v>
+      </c>
+      <c r="F907" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>7</v>
+      </c>
+      <c r="B908" s="1">
+        <f t="shared" ref="B908" si="628">B907</f>
+        <v>43421</v>
+      </c>
+      <c r="D908">
+        <v>3</v>
+      </c>
+      <c r="E908" t="s">
+        <v>8</v>
+      </c>
+      <c r="F908" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>8</v>
+      </c>
+      <c r="B909" s="1">
+        <f t="shared" ref="B909" si="629">B900+1</f>
+        <v>43421</v>
+      </c>
+      <c r="D909">
+        <v>3</v>
+      </c>
+      <c r="E909" t="s">
+        <v>9</v>
+      </c>
+      <c r="F909" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>9</v>
+      </c>
+      <c r="B910" s="1">
+        <f t="shared" ref="B910" si="630">B909</f>
+        <v>43421</v>
+      </c>
+      <c r="D910">
+        <v>3</v>
+      </c>
+      <c r="E910" t="s">
+        <v>10</v>
+      </c>
+      <c r="F910" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>1</v>
+      </c>
+      <c r="B911" s="1">
+        <f t="shared" ref="B911:B912" si="631">B902+1</f>
+        <v>43422</v>
+      </c>
+      <c r="D911">
+        <v>1</v>
+      </c>
+      <c r="E911" t="s">
+        <v>2</v>
+      </c>
+      <c r="F911" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>2</v>
+      </c>
+      <c r="B912" s="1">
+        <f t="shared" si="631"/>
+        <v>43422</v>
+      </c>
+      <c r="D912">
+        <v>1</v>
+      </c>
+      <c r="E912" t="s">
+        <v>3</v>
+      </c>
+      <c r="F912" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>3</v>
+      </c>
+      <c r="B913" s="1">
+        <f t="shared" ref="B913" si="632">B912</f>
+        <v>43422</v>
+      </c>
+      <c r="D913">
+        <v>1</v>
+      </c>
+      <c r="E913" t="s">
+        <v>4</v>
+      </c>
+      <c r="F913" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>4</v>
+      </c>
+      <c r="B914" s="1">
+        <f t="shared" ref="B914" si="633">B905+1</f>
+        <v>43422</v>
+      </c>
+      <c r="D914">
+        <v>2</v>
+      </c>
+      <c r="E914" t="s">
+        <v>6</v>
+      </c>
+      <c r="F914" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>5</v>
+      </c>
+      <c r="B915" s="1">
+        <f t="shared" ref="B915" si="634">B914</f>
+        <v>43422</v>
+      </c>
+      <c r="D915">
+        <v>2</v>
+      </c>
+      <c r="E915" t="s">
+        <v>5</v>
+      </c>
+      <c r="F915" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>6</v>
+      </c>
+      <c r="B916" s="1">
+        <f t="shared" ref="B916" si="635">B907+1</f>
+        <v>43422</v>
+      </c>
+      <c r="D916">
+        <v>2</v>
+      </c>
+      <c r="E916" t="s">
+        <v>7</v>
+      </c>
+      <c r="F916" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>7</v>
+      </c>
+      <c r="B917" s="1">
+        <f t="shared" ref="B917" si="636">B916</f>
+        <v>43422</v>
+      </c>
+      <c r="D917">
+        <v>3</v>
+      </c>
+      <c r="E917" t="s">
+        <v>8</v>
+      </c>
+      <c r="F917" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>8</v>
+      </c>
+      <c r="B918" s="1">
+        <f t="shared" ref="B918" si="637">B909+1</f>
+        <v>43422</v>
+      </c>
+      <c r="D918">
+        <v>3</v>
+      </c>
+      <c r="E918" t="s">
+        <v>9</v>
+      </c>
+      <c r="F918" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>9</v>
+      </c>
+      <c r="B919" s="1">
+        <f t="shared" ref="B919" si="638">B918</f>
+        <v>43422</v>
+      </c>
+      <c r="D919">
+        <v>3</v>
+      </c>
+      <c r="E919" t="s">
+        <v>10</v>
+      </c>
+      <c r="F919" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>1</v>
+      </c>
+      <c r="B920" s="1">
+        <f t="shared" ref="B920:B921" si="639">B911+1</f>
+        <v>43423</v>
+      </c>
+      <c r="D920">
+        <v>1</v>
+      </c>
+      <c r="E920" t="s">
+        <v>2</v>
+      </c>
+      <c r="F920" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>2</v>
+      </c>
+      <c r="B921" s="1">
+        <f t="shared" si="639"/>
+        <v>43423</v>
+      </c>
+      <c r="D921">
+        <v>1</v>
+      </c>
+      <c r="E921" t="s">
+        <v>3</v>
+      </c>
+      <c r="F921" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>3</v>
+      </c>
+      <c r="B922" s="1">
+        <f t="shared" ref="B922" si="640">B921</f>
+        <v>43423</v>
+      </c>
+      <c r="D922">
+        <v>1</v>
+      </c>
+      <c r="E922" t="s">
+        <v>4</v>
+      </c>
+      <c r="F922" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>4</v>
+      </c>
+      <c r="B923" s="1">
+        <f t="shared" ref="B923" si="641">B914+1</f>
+        <v>43423</v>
+      </c>
+      <c r="D923">
+        <v>2</v>
+      </c>
+      <c r="E923" t="s">
+        <v>6</v>
+      </c>
+      <c r="F923" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>5</v>
+      </c>
+      <c r="B924" s="1">
+        <f t="shared" ref="B924" si="642">B923</f>
+        <v>43423</v>
+      </c>
+      <c r="D924">
+        <v>2</v>
+      </c>
+      <c r="E924" t="s">
+        <v>5</v>
+      </c>
+      <c r="F924" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>6</v>
+      </c>
+      <c r="B925" s="1">
+        <f t="shared" ref="B925" si="643">B916+1</f>
+        <v>43423</v>
+      </c>
+      <c r="D925">
+        <v>2</v>
+      </c>
+      <c r="E925" t="s">
+        <v>7</v>
+      </c>
+      <c r="F925" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>7</v>
+      </c>
+      <c r="B926" s="1">
+        <f t="shared" ref="B926" si="644">B925</f>
+        <v>43423</v>
+      </c>
+      <c r="D926">
+        <v>3</v>
+      </c>
+      <c r="E926" t="s">
+        <v>8</v>
+      </c>
+      <c r="F926" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>8</v>
+      </c>
+      <c r="B927" s="1">
+        <f t="shared" ref="B927" si="645">B918+1</f>
+        <v>43423</v>
+      </c>
+      <c r="D927">
+        <v>3</v>
+      </c>
+      <c r="E927" t="s">
+        <v>9</v>
+      </c>
+      <c r="F927" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>9</v>
+      </c>
+      <c r="B928" s="1">
+        <f t="shared" ref="B928" si="646">B927</f>
+        <v>43423</v>
+      </c>
+      <c r="D928">
+        <v>3</v>
+      </c>
+      <c r="E928" t="s">
+        <v>10</v>
+      </c>
+      <c r="F928" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>1</v>
+      </c>
+      <c r="B929" s="1">
+        <f t="shared" ref="B929:B930" si="647">B920+1</f>
+        <v>43424</v>
+      </c>
+      <c r="D929">
+        <v>1</v>
+      </c>
+      <c r="E929" t="s">
+        <v>2</v>
+      </c>
+      <c r="F929" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>2</v>
+      </c>
+      <c r="B930" s="1">
+        <f t="shared" si="647"/>
+        <v>43424</v>
+      </c>
+      <c r="D930">
+        <v>1</v>
+      </c>
+      <c r="E930" t="s">
+        <v>3</v>
+      </c>
+      <c r="F930" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>3</v>
+      </c>
+      <c r="B931" s="1">
+        <f t="shared" ref="B931" si="648">B930</f>
+        <v>43424</v>
+      </c>
+      <c r="D931">
+        <v>1</v>
+      </c>
+      <c r="E931" t="s">
+        <v>4</v>
+      </c>
+      <c r="F931" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>4</v>
+      </c>
+      <c r="B932" s="1">
+        <f t="shared" ref="B932" si="649">B923+1</f>
+        <v>43424</v>
+      </c>
+      <c r="D932">
+        <v>2</v>
+      </c>
+      <c r="E932" t="s">
+        <v>6</v>
+      </c>
+      <c r="F932" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>5</v>
+      </c>
+      <c r="B933" s="1">
+        <f t="shared" ref="B933" si="650">B932</f>
+        <v>43424</v>
+      </c>
+      <c r="D933">
+        <v>2</v>
+      </c>
+      <c r="E933" t="s">
+        <v>5</v>
+      </c>
+      <c r="F933" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>6</v>
+      </c>
+      <c r="B934" s="1">
+        <f t="shared" ref="B934" si="651">B925+1</f>
+        <v>43424</v>
+      </c>
+      <c r="D934">
+        <v>2</v>
+      </c>
+      <c r="E934" t="s">
+        <v>7</v>
+      </c>
+      <c r="F934" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>7</v>
+      </c>
+      <c r="B935" s="1">
+        <f t="shared" ref="B935" si="652">B934</f>
+        <v>43424</v>
+      </c>
+      <c r="D935">
+        <v>3</v>
+      </c>
+      <c r="E935" t="s">
+        <v>8</v>
+      </c>
+      <c r="F935" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>8</v>
+      </c>
+      <c r="B936" s="1">
+        <f t="shared" ref="B936" si="653">B927+1</f>
+        <v>43424</v>
+      </c>
+      <c r="D936">
+        <v>3</v>
+      </c>
+      <c r="E936" t="s">
+        <v>9</v>
+      </c>
+      <c r="F936" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>9</v>
+      </c>
+      <c r="B937" s="1">
+        <f t="shared" ref="B937" si="654">B936</f>
+        <v>43424</v>
+      </c>
+      <c r="D937">
+        <v>3</v>
+      </c>
+      <c r="E937" t="s">
+        <v>10</v>
+      </c>
+      <c r="F937" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A802" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
+  <autoFilter ref="A1:A937" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08F2BC73-8DD5-4A1F-BA2E-9B1F93AE6950}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{148F051D-1C3A-4530-9EC5-3DF0A03D206E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -3739,8 +3739,8 @@
   <dimension ref="A1:I937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A857" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G867" sqref="G867"/>
+      <pane ySplit="1" topLeftCell="A903" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C911" sqref="C911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22652,6 +22652,9 @@
         <f t="shared" ref="B902:B903" si="623">B893+1</f>
         <v>43421</v>
       </c>
+      <c r="C902">
+        <v>405</v>
+      </c>
       <c r="D902">
         <v>1</v>
       </c>
@@ -22670,6 +22673,9 @@
         <f t="shared" si="623"/>
         <v>43421</v>
       </c>
+      <c r="C903">
+        <v>421</v>
+      </c>
       <c r="D903">
         <v>1</v>
       </c>
@@ -22688,6 +22694,9 @@
         <f t="shared" ref="B904" si="624">B903</f>
         <v>43421</v>
       </c>
+      <c r="C904">
+        <v>393</v>
+      </c>
       <c r="D904">
         <v>1</v>
       </c>
@@ -22706,6 +22715,9 @@
         <f t="shared" ref="B905" si="625">B896+1</f>
         <v>43421</v>
       </c>
+      <c r="C905">
+        <v>434</v>
+      </c>
       <c r="D905">
         <v>2</v>
       </c>
@@ -22724,6 +22736,9 @@
         <f t="shared" ref="B906" si="626">B905</f>
         <v>43421</v>
       </c>
+      <c r="C906">
+        <v>456</v>
+      </c>
       <c r="D906">
         <v>2</v>
       </c>
@@ -22742,6 +22757,9 @@
         <f t="shared" ref="B907" si="627">B898+1</f>
         <v>43421</v>
       </c>
+      <c r="C907">
+        <v>454</v>
+      </c>
       <c r="D907">
         <v>2</v>
       </c>
@@ -22760,6 +22778,9 @@
         <f t="shared" ref="B908" si="628">B907</f>
         <v>43421</v>
       </c>
+      <c r="C908">
+        <v>383</v>
+      </c>
       <c r="D908">
         <v>3</v>
       </c>
@@ -22778,6 +22799,9 @@
         <f t="shared" ref="B909" si="629">B900+1</f>
         <v>43421</v>
       </c>
+      <c r="C909">
+        <v>429</v>
+      </c>
       <c r="D909">
         <v>3</v>
       </c>
@@ -22796,6 +22820,9 @@
         <f t="shared" ref="B910" si="630">B909</f>
         <v>43421</v>
       </c>
+      <c r="C910">
+        <v>444</v>
+      </c>
       <c r="D910">
         <v>3</v>
       </c>
@@ -22814,6 +22841,9 @@
         <f t="shared" ref="B911:B912" si="631">B902+1</f>
         <v>43422</v>
       </c>
+      <c r="C911">
+        <v>399</v>
+      </c>
       <c r="D911">
         <v>1</v>
       </c>
@@ -22832,6 +22862,9 @@
         <f t="shared" si="631"/>
         <v>43422</v>
       </c>
+      <c r="C912">
+        <v>419</v>
+      </c>
       <c r="D912">
         <v>1</v>
       </c>
@@ -22850,6 +22883,9 @@
         <f t="shared" ref="B913" si="632">B912</f>
         <v>43422</v>
       </c>
+      <c r="C913">
+        <v>388</v>
+      </c>
       <c r="D913">
         <v>1</v>
       </c>
@@ -22868,6 +22904,9 @@
         <f t="shared" ref="B914" si="633">B905+1</f>
         <v>43422</v>
       </c>
+      <c r="C914">
+        <v>429</v>
+      </c>
       <c r="D914">
         <v>2</v>
       </c>
@@ -22886,6 +22925,9 @@
         <f t="shared" ref="B915" si="634">B914</f>
         <v>43422</v>
       </c>
+      <c r="C915">
+        <v>453</v>
+      </c>
       <c r="D915">
         <v>2</v>
       </c>
@@ -22904,6 +22946,9 @@
         <f t="shared" ref="B916" si="635">B907+1</f>
         <v>43422</v>
       </c>
+      <c r="C916">
+        <v>450</v>
+      </c>
       <c r="D916">
         <v>2</v>
       </c>
@@ -22922,6 +22967,9 @@
         <f t="shared" ref="B917" si="636">B916</f>
         <v>43422</v>
       </c>
+      <c r="C917">
+        <v>378</v>
+      </c>
       <c r="D917">
         <v>3</v>
       </c>
@@ -22940,6 +22988,9 @@
         <f t="shared" ref="B918" si="637">B909+1</f>
         <v>43422</v>
       </c>
+      <c r="C918">
+        <v>423</v>
+      </c>
       <c r="D918">
         <v>3</v>
       </c>
@@ -22958,6 +23009,9 @@
         <f t="shared" ref="B919" si="638">B918</f>
         <v>43422</v>
       </c>
+      <c r="C919">
+        <v>440</v>
+      </c>
       <c r="D919">
         <v>3</v>
       </c>
@@ -22976,6 +23030,9 @@
         <f t="shared" ref="B920:B921" si="639">B911+1</f>
         <v>43423</v>
       </c>
+      <c r="C920">
+        <v>397</v>
+      </c>
       <c r="D920">
         <v>1</v>
       </c>
@@ -22994,6 +23051,9 @@
         <f t="shared" si="639"/>
         <v>43423</v>
       </c>
+      <c r="C921">
+        <v>412</v>
+      </c>
       <c r="D921">
         <v>1</v>
       </c>
@@ -23012,6 +23072,9 @@
         <f t="shared" ref="B922" si="640">B921</f>
         <v>43423</v>
       </c>
+      <c r="C922">
+        <v>387</v>
+      </c>
       <c r="D922">
         <v>1</v>
       </c>
@@ -23030,6 +23093,9 @@
         <f t="shared" ref="B923" si="641">B914+1</f>
         <v>43423</v>
       </c>
+      <c r="C923">
+        <v>433</v>
+      </c>
       <c r="D923">
         <v>2</v>
       </c>
@@ -23048,6 +23114,9 @@
         <f t="shared" ref="B924" si="642">B923</f>
         <v>43423</v>
       </c>
+      <c r="C924">
+        <v>449</v>
+      </c>
       <c r="D924">
         <v>2</v>
       </c>
@@ -23066,6 +23135,9 @@
         <f t="shared" ref="B925" si="643">B916+1</f>
         <v>43423</v>
       </c>
+      <c r="C925">
+        <v>449</v>
+      </c>
       <c r="D925">
         <v>2</v>
       </c>
@@ -23084,6 +23156,9 @@
         <f t="shared" ref="B926" si="644">B925</f>
         <v>43423</v>
       </c>
+      <c r="C926">
+        <v>374</v>
+      </c>
       <c r="D926">
         <v>3</v>
       </c>
@@ -23102,6 +23177,9 @@
         <f t="shared" ref="B927" si="645">B918+1</f>
         <v>43423</v>
       </c>
+      <c r="C927">
+        <v>419</v>
+      </c>
       <c r="D927">
         <v>3</v>
       </c>
@@ -23119,6 +23197,9 @@
       <c r="B928" s="1">
         <f t="shared" ref="B928" si="646">B927</f>
         <v>43423</v>
+      </c>
+      <c r="C928">
+        <v>438</v>
       </c>
       <c r="D928">
         <v>3</v>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{148F051D-1C3A-4530-9EC5-3DF0A03D206E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC595AA4-1751-4CB2-83A8-237A86F34889}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -3736,11 +3736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:I937"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A903" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C911" sqref="C911"/>
+      <pane ySplit="1" topLeftCell="A951" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C983" sqref="C983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23219,6 +23219,9 @@
         <f t="shared" ref="B929:B930" si="647">B920+1</f>
         <v>43424</v>
       </c>
+      <c r="C929">
+        <v>393</v>
+      </c>
       <c r="D929">
         <v>1</v>
       </c>
@@ -23237,6 +23240,9 @@
         <f t="shared" si="647"/>
         <v>43424</v>
       </c>
+      <c r="C930">
+        <v>407</v>
+      </c>
       <c r="D930">
         <v>1</v>
       </c>
@@ -23255,6 +23261,9 @@
         <f t="shared" ref="B931" si="648">B930</f>
         <v>43424</v>
       </c>
+      <c r="C931">
+        <v>383</v>
+      </c>
       <c r="D931">
         <v>1</v>
       </c>
@@ -23273,6 +23282,9 @@
         <f t="shared" ref="B932" si="649">B923+1</f>
         <v>43424</v>
       </c>
+      <c r="C932">
+        <v>434</v>
+      </c>
       <c r="D932">
         <v>2</v>
       </c>
@@ -23291,6 +23303,9 @@
         <f t="shared" ref="B933" si="650">B932</f>
         <v>43424</v>
       </c>
+      <c r="C933">
+        <v>449</v>
+      </c>
       <c r="D933">
         <v>2</v>
       </c>
@@ -23309,6 +23324,9 @@
         <f t="shared" ref="B934" si="651">B925+1</f>
         <v>43424</v>
       </c>
+      <c r="C934">
+        <v>447</v>
+      </c>
       <c r="D934">
         <v>2</v>
       </c>
@@ -23327,6 +23345,9 @@
         <f t="shared" ref="B935" si="652">B934</f>
         <v>43424</v>
       </c>
+      <c r="C935">
+        <v>368</v>
+      </c>
       <c r="D935">
         <v>3</v>
       </c>
@@ -23345,6 +23366,9 @@
         <f t="shared" ref="B936" si="653">B927+1</f>
         <v>43424</v>
       </c>
+      <c r="C936">
+        <v>407</v>
+      </c>
       <c r="D936">
         <v>3</v>
       </c>
@@ -23363,6 +23387,9 @@
         <f t="shared" ref="B937" si="654">B936</f>
         <v>43424</v>
       </c>
+      <c r="C937">
+        <v>435</v>
+      </c>
       <c r="D937">
         <v>3</v>
       </c>
@@ -23370,6 +23397,1275 @@
         <v>10</v>
       </c>
       <c r="F937" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>1</v>
+      </c>
+      <c r="B938" s="1">
+        <f t="shared" ref="B938:B939" si="655">B929+1</f>
+        <v>43425</v>
+      </c>
+      <c r="C938">
+        <v>392</v>
+      </c>
+      <c r="D938">
+        <v>1</v>
+      </c>
+      <c r="E938" t="s">
+        <v>2</v>
+      </c>
+      <c r="F938" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>2</v>
+      </c>
+      <c r="B939" s="1">
+        <f t="shared" si="655"/>
+        <v>43425</v>
+      </c>
+      <c r="C939">
+        <v>407</v>
+      </c>
+      <c r="D939">
+        <v>1</v>
+      </c>
+      <c r="E939" t="s">
+        <v>3</v>
+      </c>
+      <c r="F939" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>3</v>
+      </c>
+      <c r="B940" s="1">
+        <f t="shared" ref="B940" si="656">B939</f>
+        <v>43425</v>
+      </c>
+      <c r="C940">
+        <v>383</v>
+      </c>
+      <c r="D940">
+        <v>1</v>
+      </c>
+      <c r="E940" t="s">
+        <v>4</v>
+      </c>
+      <c r="F940" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>4</v>
+      </c>
+      <c r="B941" s="1">
+        <f t="shared" ref="B941" si="657">B932+1</f>
+        <v>43425</v>
+      </c>
+      <c r="C941">
+        <v>430</v>
+      </c>
+      <c r="D941">
+        <v>2</v>
+      </c>
+      <c r="E941" t="s">
+        <v>6</v>
+      </c>
+      <c r="F941" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>5</v>
+      </c>
+      <c r="B942" s="1">
+        <f t="shared" ref="B942" si="658">B941</f>
+        <v>43425</v>
+      </c>
+      <c r="C942">
+        <v>451</v>
+      </c>
+      <c r="D942">
+        <v>2</v>
+      </c>
+      <c r="E942" t="s">
+        <v>5</v>
+      </c>
+      <c r="F942" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>6</v>
+      </c>
+      <c r="B943" s="1">
+        <f t="shared" ref="B943" si="659">B934+1</f>
+        <v>43425</v>
+      </c>
+      <c r="C943">
+        <v>447</v>
+      </c>
+      <c r="D943">
+        <v>2</v>
+      </c>
+      <c r="E943" t="s">
+        <v>7</v>
+      </c>
+      <c r="F943" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>7</v>
+      </c>
+      <c r="B944" s="1">
+        <f t="shared" ref="B944" si="660">B943</f>
+        <v>43425</v>
+      </c>
+      <c r="C944">
+        <v>366</v>
+      </c>
+      <c r="D944">
+        <v>3</v>
+      </c>
+      <c r="E944" t="s">
+        <v>8</v>
+      </c>
+      <c r="F944" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>8</v>
+      </c>
+      <c r="B945" s="1">
+        <f t="shared" ref="B945" si="661">B936+1</f>
+        <v>43425</v>
+      </c>
+      <c r="C945">
+        <v>411</v>
+      </c>
+      <c r="D945">
+        <v>3</v>
+      </c>
+      <c r="E945" t="s">
+        <v>9</v>
+      </c>
+      <c r="F945" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>9</v>
+      </c>
+      <c r="B946" s="1">
+        <f t="shared" ref="B946" si="662">B945</f>
+        <v>43425</v>
+      </c>
+      <c r="C946">
+        <v>429</v>
+      </c>
+      <c r="D946">
+        <v>3</v>
+      </c>
+      <c r="E946" t="s">
+        <v>10</v>
+      </c>
+      <c r="F946" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>1</v>
+      </c>
+      <c r="B947" s="1">
+        <f t="shared" ref="B947:B948" si="663">B938+1</f>
+        <v>43426</v>
+      </c>
+      <c r="C947">
+        <v>384</v>
+      </c>
+      <c r="D947">
+        <v>1</v>
+      </c>
+      <c r="E947" t="s">
+        <v>2</v>
+      </c>
+      <c r="F947" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>2</v>
+      </c>
+      <c r="B948" s="1">
+        <f t="shared" si="663"/>
+        <v>43426</v>
+      </c>
+      <c r="C948">
+        <v>403</v>
+      </c>
+      <c r="D948">
+        <v>1</v>
+      </c>
+      <c r="E948" t="s">
+        <v>3</v>
+      </c>
+      <c r="F948" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>3</v>
+      </c>
+      <c r="B949" s="1">
+        <f t="shared" ref="B949" si="664">B948</f>
+        <v>43426</v>
+      </c>
+      <c r="C949">
+        <v>374</v>
+      </c>
+      <c r="D949">
+        <v>1</v>
+      </c>
+      <c r="E949" t="s">
+        <v>4</v>
+      </c>
+      <c r="F949" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>4</v>
+      </c>
+      <c r="B950" s="1">
+        <f t="shared" ref="B950" si="665">B941+1</f>
+        <v>43426</v>
+      </c>
+      <c r="C950">
+        <v>431</v>
+      </c>
+      <c r="D950">
+        <v>2</v>
+      </c>
+      <c r="E950" t="s">
+        <v>6</v>
+      </c>
+      <c r="F950" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>5</v>
+      </c>
+      <c r="B951" s="1">
+        <f t="shared" ref="B951" si="666">B950</f>
+        <v>43426</v>
+      </c>
+      <c r="C951">
+        <v>451</v>
+      </c>
+      <c r="D951">
+        <v>2</v>
+      </c>
+      <c r="E951" t="s">
+        <v>5</v>
+      </c>
+      <c r="F951" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>6</v>
+      </c>
+      <c r="B952" s="1">
+        <f t="shared" ref="B952" si="667">B943+1</f>
+        <v>43426</v>
+      </c>
+      <c r="C952">
+        <v>442</v>
+      </c>
+      <c r="D952">
+        <v>2</v>
+      </c>
+      <c r="E952" t="s">
+        <v>7</v>
+      </c>
+      <c r="F952" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>7</v>
+      </c>
+      <c r="B953" s="1">
+        <f t="shared" ref="B953" si="668">B952</f>
+        <v>43426</v>
+      </c>
+      <c r="C953">
+        <v>363</v>
+      </c>
+      <c r="D953">
+        <v>3</v>
+      </c>
+      <c r="E953" t="s">
+        <v>8</v>
+      </c>
+      <c r="F953" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>8</v>
+      </c>
+      <c r="B954" s="1">
+        <f t="shared" ref="B954" si="669">B945+1</f>
+        <v>43426</v>
+      </c>
+      <c r="C954">
+        <v>412</v>
+      </c>
+      <c r="D954">
+        <v>3</v>
+      </c>
+      <c r="E954" t="s">
+        <v>9</v>
+      </c>
+      <c r="F954" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>9</v>
+      </c>
+      <c r="B955" s="1">
+        <f t="shared" ref="B955" si="670">B954</f>
+        <v>43426</v>
+      </c>
+      <c r="C955">
+        <v>428</v>
+      </c>
+      <c r="D955">
+        <v>3</v>
+      </c>
+      <c r="E955" t="s">
+        <v>10</v>
+      </c>
+      <c r="F955" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>1</v>
+      </c>
+      <c r="B956" s="1">
+        <f t="shared" ref="B956:B957" si="671">B947+1</f>
+        <v>43427</v>
+      </c>
+      <c r="C956">
+        <v>388</v>
+      </c>
+      <c r="D956">
+        <v>1</v>
+      </c>
+      <c r="E956" t="s">
+        <v>2</v>
+      </c>
+      <c r="F956" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>2</v>
+      </c>
+      <c r="B957" s="1">
+        <f t="shared" si="671"/>
+        <v>43427</v>
+      </c>
+      <c r="C957">
+        <v>401</v>
+      </c>
+      <c r="D957">
+        <v>1</v>
+      </c>
+      <c r="E957" t="s">
+        <v>3</v>
+      </c>
+      <c r="F957" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>3</v>
+      </c>
+      <c r="B958" s="1">
+        <f t="shared" ref="B958" si="672">B957</f>
+        <v>43427</v>
+      </c>
+      <c r="C958">
+        <v>374</v>
+      </c>
+      <c r="D958">
+        <v>1</v>
+      </c>
+      <c r="E958" t="s">
+        <v>4</v>
+      </c>
+      <c r="F958" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>4</v>
+      </c>
+      <c r="B959" s="1">
+        <f t="shared" ref="B959" si="673">B950+1</f>
+        <v>43427</v>
+      </c>
+      <c r="C959">
+        <v>432</v>
+      </c>
+      <c r="D959">
+        <v>2</v>
+      </c>
+      <c r="E959" t="s">
+        <v>6</v>
+      </c>
+      <c r="F959" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>5</v>
+      </c>
+      <c r="B960" s="1">
+        <f t="shared" ref="B960" si="674">B959</f>
+        <v>43427</v>
+      </c>
+      <c r="C960">
+        <v>451</v>
+      </c>
+      <c r="D960">
+        <v>2</v>
+      </c>
+      <c r="E960" t="s">
+        <v>5</v>
+      </c>
+      <c r="F960" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>6</v>
+      </c>
+      <c r="B961" s="1">
+        <f t="shared" ref="B961" si="675">B952+1</f>
+        <v>43427</v>
+      </c>
+      <c r="C961">
+        <v>442</v>
+      </c>
+      <c r="D961">
+        <v>2</v>
+      </c>
+      <c r="E961" t="s">
+        <v>7</v>
+      </c>
+      <c r="F961" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>7</v>
+      </c>
+      <c r="B962" s="1">
+        <f t="shared" ref="B962" si="676">B961</f>
+        <v>43427</v>
+      </c>
+      <c r="C962">
+        <v>361</v>
+      </c>
+      <c r="D962">
+        <v>3</v>
+      </c>
+      <c r="E962" t="s">
+        <v>8</v>
+      </c>
+      <c r="F962" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>8</v>
+      </c>
+      <c r="B963" s="1">
+        <f t="shared" ref="B963" si="677">B954+1</f>
+        <v>43427</v>
+      </c>
+      <c r="C963">
+        <v>410</v>
+      </c>
+      <c r="D963">
+        <v>3</v>
+      </c>
+      <c r="E963" t="s">
+        <v>9</v>
+      </c>
+      <c r="F963" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>9</v>
+      </c>
+      <c r="B964" s="1">
+        <f t="shared" ref="B964" si="678">B963</f>
+        <v>43427</v>
+      </c>
+      <c r="C964">
+        <v>427</v>
+      </c>
+      <c r="D964">
+        <v>3</v>
+      </c>
+      <c r="E964" t="s">
+        <v>10</v>
+      </c>
+      <c r="F964" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>1</v>
+      </c>
+      <c r="B965" s="1">
+        <f t="shared" ref="B965:B966" si="679">B956+1</f>
+        <v>43428</v>
+      </c>
+      <c r="C965">
+        <v>385</v>
+      </c>
+      <c r="D965">
+        <v>1</v>
+      </c>
+      <c r="E965" t="s">
+        <v>2</v>
+      </c>
+      <c r="F965" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>2</v>
+      </c>
+      <c r="B966" s="1">
+        <f t="shared" si="679"/>
+        <v>43428</v>
+      </c>
+      <c r="C966">
+        <v>400</v>
+      </c>
+      <c r="D966">
+        <v>1</v>
+      </c>
+      <c r="E966" t="s">
+        <v>3</v>
+      </c>
+      <c r="F966" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>3</v>
+      </c>
+      <c r="B967" s="1">
+        <f t="shared" ref="B967" si="680">B966</f>
+        <v>43428</v>
+      </c>
+      <c r="C967">
+        <v>370</v>
+      </c>
+      <c r="D967">
+        <v>1</v>
+      </c>
+      <c r="E967" t="s">
+        <v>4</v>
+      </c>
+      <c r="F967" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>4</v>
+      </c>
+      <c r="B968" s="1">
+        <f t="shared" ref="B968" si="681">B959+1</f>
+        <v>43428</v>
+      </c>
+      <c r="C968">
+        <v>432</v>
+      </c>
+      <c r="D968">
+        <v>2</v>
+      </c>
+      <c r="E968" t="s">
+        <v>6</v>
+      </c>
+      <c r="F968" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>5</v>
+      </c>
+      <c r="B969" s="1">
+        <f t="shared" ref="B969" si="682">B968</f>
+        <v>43428</v>
+      </c>
+      <c r="C969">
+        <v>450</v>
+      </c>
+      <c r="D969">
+        <v>2</v>
+      </c>
+      <c r="E969" t="s">
+        <v>5</v>
+      </c>
+      <c r="F969" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>6</v>
+      </c>
+      <c r="B970" s="1">
+        <f t="shared" ref="B970" si="683">B961+1</f>
+        <v>43428</v>
+      </c>
+      <c r="C970">
+        <v>447</v>
+      </c>
+      <c r="D970">
+        <v>2</v>
+      </c>
+      <c r="E970" t="s">
+        <v>7</v>
+      </c>
+      <c r="F970" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>7</v>
+      </c>
+      <c r="B971" s="1">
+        <f t="shared" ref="B971" si="684">B970</f>
+        <v>43428</v>
+      </c>
+      <c r="C971">
+        <v>363</v>
+      </c>
+      <c r="D971">
+        <v>3</v>
+      </c>
+      <c r="E971" t="s">
+        <v>8</v>
+      </c>
+      <c r="F971" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>8</v>
+      </c>
+      <c r="B972" s="1">
+        <f t="shared" ref="B972" si="685">B963+1</f>
+        <v>43428</v>
+      </c>
+      <c r="C972">
+        <v>408</v>
+      </c>
+      <c r="D972">
+        <v>3</v>
+      </c>
+      <c r="E972" t="s">
+        <v>9</v>
+      </c>
+      <c r="F972" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>9</v>
+      </c>
+      <c r="B973" s="1">
+        <f t="shared" ref="B973" si="686">B972</f>
+        <v>43428</v>
+      </c>
+      <c r="C973">
+        <v>425</v>
+      </c>
+      <c r="D973">
+        <v>3</v>
+      </c>
+      <c r="E973" t="s">
+        <v>10</v>
+      </c>
+      <c r="F973" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>1</v>
+      </c>
+      <c r="B974" s="1">
+        <f t="shared" ref="B974:B975" si="687">B965+1</f>
+        <v>43429</v>
+      </c>
+      <c r="C974">
+        <v>380</v>
+      </c>
+      <c r="D974">
+        <v>1</v>
+      </c>
+      <c r="E974" t="s">
+        <v>2</v>
+      </c>
+      <c r="F974" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>2</v>
+      </c>
+      <c r="B975" s="1">
+        <f t="shared" si="687"/>
+        <v>43429</v>
+      </c>
+      <c r="C975">
+        <v>396</v>
+      </c>
+      <c r="D975">
+        <v>1</v>
+      </c>
+      <c r="E975" t="s">
+        <v>3</v>
+      </c>
+      <c r="F975" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>3</v>
+      </c>
+      <c r="B976" s="1">
+        <f t="shared" ref="B976" si="688">B975</f>
+        <v>43429</v>
+      </c>
+      <c r="C976">
+        <v>366</v>
+      </c>
+      <c r="D976">
+        <v>1</v>
+      </c>
+      <c r="E976" t="s">
+        <v>4</v>
+      </c>
+      <c r="F976" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>4</v>
+      </c>
+      <c r="B977" s="1">
+        <f t="shared" ref="B977" si="689">B968+1</f>
+        <v>43429</v>
+      </c>
+      <c r="C977">
+        <v>427</v>
+      </c>
+      <c r="D977">
+        <v>2</v>
+      </c>
+      <c r="E977" t="s">
+        <v>6</v>
+      </c>
+      <c r="F977" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>5</v>
+      </c>
+      <c r="B978" s="1">
+        <f t="shared" ref="B978" si="690">B977</f>
+        <v>43429</v>
+      </c>
+      <c r="C978">
+        <v>445</v>
+      </c>
+      <c r="D978">
+        <v>2</v>
+      </c>
+      <c r="E978" t="s">
+        <v>5</v>
+      </c>
+      <c r="F978" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>6</v>
+      </c>
+      <c r="B979" s="1">
+        <f t="shared" ref="B979" si="691">B970+1</f>
+        <v>43429</v>
+      </c>
+      <c r="C979">
+        <v>444</v>
+      </c>
+      <c r="D979">
+        <v>2</v>
+      </c>
+      <c r="E979" t="s">
+        <v>7</v>
+      </c>
+      <c r="F979" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>7</v>
+      </c>
+      <c r="B980" s="1">
+        <f t="shared" ref="B980" si="692">B979</f>
+        <v>43429</v>
+      </c>
+      <c r="C980">
+        <v>354</v>
+      </c>
+      <c r="D980">
+        <v>3</v>
+      </c>
+      <c r="E980" t="s">
+        <v>8</v>
+      </c>
+      <c r="F980" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>8</v>
+      </c>
+      <c r="B981" s="1">
+        <f t="shared" ref="B981" si="693">B972+1</f>
+        <v>43429</v>
+      </c>
+      <c r="C981">
+        <v>400</v>
+      </c>
+      <c r="D981">
+        <v>3</v>
+      </c>
+      <c r="E981" t="s">
+        <v>9</v>
+      </c>
+      <c r="F981" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>9</v>
+      </c>
+      <c r="B982" s="1">
+        <f t="shared" ref="B982" si="694">B981</f>
+        <v>43429</v>
+      </c>
+      <c r="C982">
+        <v>420</v>
+      </c>
+      <c r="D982">
+        <v>3</v>
+      </c>
+      <c r="E982" t="s">
+        <v>10</v>
+      </c>
+      <c r="F982" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>1</v>
+      </c>
+      <c r="B983" s="1">
+        <f t="shared" ref="B983:B984" si="695">B974+1</f>
+        <v>43430</v>
+      </c>
+      <c r="D983">
+        <v>1</v>
+      </c>
+      <c r="E983" t="s">
+        <v>2</v>
+      </c>
+      <c r="F983" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>2</v>
+      </c>
+      <c r="B984" s="1">
+        <f t="shared" si="695"/>
+        <v>43430</v>
+      </c>
+      <c r="D984">
+        <v>1</v>
+      </c>
+      <c r="E984" t="s">
+        <v>3</v>
+      </c>
+      <c r="F984" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>3</v>
+      </c>
+      <c r="B985" s="1">
+        <f t="shared" ref="B985" si="696">B984</f>
+        <v>43430</v>
+      </c>
+      <c r="D985">
+        <v>1</v>
+      </c>
+      <c r="E985" t="s">
+        <v>4</v>
+      </c>
+      <c r="F985" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>4</v>
+      </c>
+      <c r="B986" s="1">
+        <f t="shared" ref="B986" si="697">B977+1</f>
+        <v>43430</v>
+      </c>
+      <c r="D986">
+        <v>2</v>
+      </c>
+      <c r="E986" t="s">
+        <v>6</v>
+      </c>
+      <c r="F986" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>5</v>
+      </c>
+      <c r="B987" s="1">
+        <f t="shared" ref="B987" si="698">B986</f>
+        <v>43430</v>
+      </c>
+      <c r="D987">
+        <v>2</v>
+      </c>
+      <c r="E987" t="s">
+        <v>5</v>
+      </c>
+      <c r="F987" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>6</v>
+      </c>
+      <c r="B988" s="1">
+        <f t="shared" ref="B988" si="699">B979+1</f>
+        <v>43430</v>
+      </c>
+      <c r="D988">
+        <v>2</v>
+      </c>
+      <c r="E988" t="s">
+        <v>7</v>
+      </c>
+      <c r="F988" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>7</v>
+      </c>
+      <c r="B989" s="1">
+        <f t="shared" ref="B989" si="700">B988</f>
+        <v>43430</v>
+      </c>
+      <c r="D989">
+        <v>3</v>
+      </c>
+      <c r="E989" t="s">
+        <v>8</v>
+      </c>
+      <c r="F989" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>8</v>
+      </c>
+      <c r="B990" s="1">
+        <f t="shared" ref="B990" si="701">B981+1</f>
+        <v>43430</v>
+      </c>
+      <c r="D990">
+        <v>3</v>
+      </c>
+      <c r="E990" t="s">
+        <v>9</v>
+      </c>
+      <c r="F990" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A991">
+        <v>9</v>
+      </c>
+      <c r="B991" s="1">
+        <f t="shared" ref="B991" si="702">B990</f>
+        <v>43430</v>
+      </c>
+      <c r="D991">
+        <v>3</v>
+      </c>
+      <c r="E991" t="s">
+        <v>10</v>
+      </c>
+      <c r="F991" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A992">
+        <v>1</v>
+      </c>
+      <c r="B992" s="1">
+        <f t="shared" ref="B992:B993" si="703">B983+1</f>
+        <v>43431</v>
+      </c>
+      <c r="D992">
+        <v>1</v>
+      </c>
+      <c r="E992" t="s">
+        <v>2</v>
+      </c>
+      <c r="F992" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A993">
+        <v>2</v>
+      </c>
+      <c r="B993" s="1">
+        <f t="shared" si="703"/>
+        <v>43431</v>
+      </c>
+      <c r="D993">
+        <v>1</v>
+      </c>
+      <c r="E993" t="s">
+        <v>3</v>
+      </c>
+      <c r="F993" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A994">
+        <v>3</v>
+      </c>
+      <c r="B994" s="1">
+        <f t="shared" ref="B994" si="704">B993</f>
+        <v>43431</v>
+      </c>
+      <c r="D994">
+        <v>1</v>
+      </c>
+      <c r="E994" t="s">
+        <v>4</v>
+      </c>
+      <c r="F994" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A995">
+        <v>4</v>
+      </c>
+      <c r="B995" s="1">
+        <f t="shared" ref="B995" si="705">B986+1</f>
+        <v>43431</v>
+      </c>
+      <c r="D995">
+        <v>2</v>
+      </c>
+      <c r="E995" t="s">
+        <v>6</v>
+      </c>
+      <c r="F995" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A996">
+        <v>5</v>
+      </c>
+      <c r="B996" s="1">
+        <f t="shared" ref="B996" si="706">B995</f>
+        <v>43431</v>
+      </c>
+      <c r="D996">
+        <v>2</v>
+      </c>
+      <c r="E996" t="s">
+        <v>5</v>
+      </c>
+      <c r="F996" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A997">
+        <v>6</v>
+      </c>
+      <c r="B997" s="1">
+        <f t="shared" ref="B997" si="707">B988+1</f>
+        <v>43431</v>
+      </c>
+      <c r="D997">
+        <v>2</v>
+      </c>
+      <c r="E997" t="s">
+        <v>7</v>
+      </c>
+      <c r="F997" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A998">
+        <v>7</v>
+      </c>
+      <c r="B998" s="1">
+        <f t="shared" ref="B998" si="708">B997</f>
+        <v>43431</v>
+      </c>
+      <c r="D998">
+        <v>3</v>
+      </c>
+      <c r="E998" t="s">
+        <v>8</v>
+      </c>
+      <c r="F998" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A999">
+        <v>8</v>
+      </c>
+      <c r="B999" s="1">
+        <f t="shared" ref="B999" si="709">B990+1</f>
+        <v>43431</v>
+      </c>
+      <c r="D999">
+        <v>3</v>
+      </c>
+      <c r="E999" t="s">
+        <v>9</v>
+      </c>
+      <c r="F999" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>9</v>
+      </c>
+      <c r="B1000" s="1">
+        <f t="shared" ref="B1000" si="710">B999</f>
+        <v>43431</v>
+      </c>
+      <c r="D1000">
+        <v>3</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1000" t="s">
         <v>20</v>
       </c>
     </row>

--- a/MarkBergRatColony.xlsx
+++ b/MarkBergRatColony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laurinom\Desktop\RatColony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC595AA4-1751-4CB2-83A8-237A86F34889}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{73A590D4-D7AF-4054-A19A-252B48C617B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{5B048CD4-3771-49B7-B7D8-81A961A57EC4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rat Colony" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$937</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rat Colony'!$A$1:$A$991</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -3736,11 +3736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9D920-6163-4562-A637-8F75E413D1FC}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A951" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C983" sqref="C983"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A992" sqref="A992:XFD1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24353,6 +24353,9 @@
         <f t="shared" ref="B983:B984" si="695">B974+1</f>
         <v>43430</v>
       </c>
+      <c r="C983">
+        <v>381</v>
+      </c>
       <c r="D983">
         <v>1</v>
       </c>
@@ -24371,6 +24374,9 @@
         <f t="shared" si="695"/>
         <v>43430</v>
       </c>
+      <c r="C984">
+        <v>397</v>
+      </c>
       <c r="D984">
         <v>1</v>
       </c>
@@ -24389,6 +24395,9 @@
         <f t="shared" ref="B985" si="696">B984</f>
         <v>43430</v>
       </c>
+      <c r="C985">
+        <v>366</v>
+      </c>
       <c r="D985">
         <v>1</v>
       </c>
@@ -24407,6 +24416,9 @@
         <f t="shared" ref="B986" si="697">B977+1</f>
         <v>43430</v>
       </c>
+      <c r="C986">
+        <v>432</v>
+      </c>
       <c r="D986">
         <v>2</v>
       </c>
@@ -24425,6 +24437,9 @@
         <f t="shared" ref="B987" si="698">B986</f>
         <v>43430</v>
       </c>
+      <c r="C987">
+        <v>448</v>
+      </c>
       <c r="D987">
         <v>2</v>
       </c>
@@ -24443,6 +24458,9 @@
         <f t="shared" ref="B988" si="699">B979+1</f>
         <v>43430</v>
       </c>
+      <c r="C988">
+        <v>445</v>
+      </c>
       <c r="D988">
         <v>2</v>
       </c>
@@ -24461,6 +24479,9 @@
         <f t="shared" ref="B989" si="700">B988</f>
         <v>43430</v>
       </c>
+      <c r="C989">
+        <v>353</v>
+      </c>
       <c r="D989">
         <v>3</v>
       </c>
@@ -24479,6 +24500,9 @@
         <f t="shared" ref="B990" si="701">B981+1</f>
         <v>43430</v>
       </c>
+      <c r="C990">
+        <v>395</v>
+      </c>
       <c r="D990">
         <v>3</v>
       </c>
@@ -24497,6 +24521,9 @@
         <f t="shared" ref="B991" si="702">B990</f>
         <v>43430</v>
       </c>
+      <c r="C991">
+        <v>417</v>
+      </c>
       <c r="D991">
         <v>3</v>
       </c>
@@ -24507,170 +24534,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A992">
-        <v>1</v>
-      </c>
-      <c r="B992" s="1">
-        <f t="shared" ref="B992:B993" si="703">B983+1</f>
-        <v>43431</v>
-      </c>
-      <c r="D992">
-        <v>1</v>
-      </c>
-      <c r="E992" t="s">
-        <v>2</v>
-      </c>
-      <c r="F992" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A993">
-        <v>2</v>
-      </c>
-      <c r="B993" s="1">
-        <f t="shared" si="703"/>
-        <v>43431</v>
-      </c>
-      <c r="D993">
-        <v>1</v>
-      </c>
-      <c r="E993" t="s">
-        <v>3</v>
-      </c>
-      <c r="F993" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A994">
-        <v>3</v>
-      </c>
-      <c r="B994" s="1">
-        <f t="shared" ref="B994" si="704">B993</f>
-        <v>43431</v>
-      </c>
-      <c r="D994">
-        <v>1</v>
-      </c>
-      <c r="E994" t="s">
-        <v>4</v>
-      </c>
-      <c r="F994" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A995">
-        <v>4</v>
-      </c>
-      <c r="B995" s="1">
-        <f t="shared" ref="B995" si="705">B986+1</f>
-        <v>43431</v>
-      </c>
-      <c r="D995">
-        <v>2</v>
-      </c>
-      <c r="E995" t="s">
-        <v>6</v>
-      </c>
-      <c r="F995" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A996">
-        <v>5</v>
-      </c>
-      <c r="B996" s="1">
-        <f t="shared" ref="B996" si="706">B995</f>
-        <v>43431</v>
-      </c>
-      <c r="D996">
-        <v>2</v>
-      </c>
-      <c r="E996" t="s">
-        <v>5</v>
-      </c>
-      <c r="F996" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A997">
-        <v>6</v>
-      </c>
-      <c r="B997" s="1">
-        <f t="shared" ref="B997" si="707">B988+1</f>
-        <v>43431</v>
-      </c>
-      <c r="D997">
-        <v>2</v>
-      </c>
-      <c r="E997" t="s">
-        <v>7</v>
-      </c>
-      <c r="F997" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A998">
-        <v>7</v>
-      </c>
-      <c r="B998" s="1">
-        <f t="shared" ref="B998" si="708">B997</f>
-        <v>43431</v>
-      </c>
-      <c r="D998">
-        <v>3</v>
-      </c>
-      <c r="E998" t="s">
-        <v>8</v>
-      </c>
-      <c r="F998" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A999">
-        <v>8</v>
-      </c>
-      <c r="B999" s="1">
-        <f t="shared" ref="B999" si="709">B990+1</f>
-        <v>43431</v>
-      </c>
-      <c r="D999">
-        <v>3</v>
-      </c>
-      <c r="E999" t="s">
-        <v>9</v>
-      </c>
-      <c r="F999" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1000">
-        <v>9</v>
-      </c>
-      <c r="B1000" s="1">
-        <f t="shared" ref="B1000" si="710">B999</f>
-        <v>43431</v>
-      </c>
-      <c r="D1000">
-        <v>3</v>
-      </c>
-      <c r="E1000" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1000" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A937" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
+  <autoFilter ref="A1:A991" xr:uid="{C878CFC3-6C83-4004-AD6B-51B87567C519}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
